--- a/Algorithm_tester/data_autosave/real_database_comparison.xlsx
+++ b/Algorithm_tester/data_autosave/real_database_comparison.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F561"/>
+  <dimension ref="A1:H561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
           <t>runtime</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sensitivity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>positive_predictivity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +515,12 @@
       <c r="F2" t="n">
         <v>171.539306640625</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1900826446280992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -521,6 +537,12 @@
       <c r="F3" t="n">
         <v>211.4377737045288</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3148606811145511</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -537,6 +559,12 @@
       <c r="F4" t="n">
         <v>248.3347058296204</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9615384615384616</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -553,6 +581,12 @@
       <c r="F5" t="n">
         <v>274.2921113967896</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -569,6 +603,12 @@
       <c r="F6" t="n">
         <v>304.2297959327698</v>
       </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -585,6 +625,12 @@
       <c r="F7" t="n">
         <v>370.6404089927673</v>
       </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -600,6 +646,12 @@
       </c>
       <c r="F8" t="n">
         <v>820.9195137023926</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -621,6 +673,12 @@
       <c r="F9" t="n">
         <v>126.2733936309814</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2368421052631579</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -637,6 +695,12 @@
       <c r="F10" t="n">
         <v>158.5655570030212</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9393939393939394</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -653,6 +717,12 @@
       <c r="F11" t="n">
         <v>163.5709404945374</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9722222222222222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -669,6 +739,12 @@
       <c r="F12" t="n">
         <v>170.6489324569702</v>
       </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -685,6 +761,12 @@
       <c r="F13" t="n">
         <v>183.0564737319946</v>
       </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -701,6 +783,12 @@
       <c r="F14" t="n">
         <v>218.9686298370361</v>
       </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -716,6 +804,12 @@
       </c>
       <c r="F15" t="n">
         <v>491.8942451477051</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -737,6 +831,12 @@
       <c r="F16" t="n">
         <v>188.7049674987793</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.01754385964912281</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04098360655737705</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -753,6 +853,12 @@
       <c r="F17" t="n">
         <v>203.0534267425537</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.7195789473684211</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2970439189189189</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -769,6 +875,12 @@
       <c r="F18" t="n">
         <v>225.0454425811768</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5362318840579711</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -785,6 +897,12 @@
       <c r="F19" t="n">
         <v>242.2521114349365</v>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9615384615384616</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -801,6 +919,12 @@
       <c r="F20" t="n">
         <v>255.6629180908203</v>
       </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -817,6 +941,12 @@
       <c r="F21" t="n">
         <v>333.1972122192382</v>
       </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -832,6 +962,12 @@
       </c>
       <c r="F22" t="n">
         <v>567.2168731689453</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -853,6 +989,12 @@
       <c r="F23" t="n">
         <v>78.09734344482422</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -869,6 +1011,12 @@
       <c r="F24" t="n">
         <v>88.76276016235352</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9696969696969697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -885,6 +1033,12 @@
       <c r="F25" t="n">
         <v>95.30168771743774</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -901,6 +1055,12 @@
       <c r="F26" t="n">
         <v>102.7618646621704</v>
       </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -917,6 +1077,12 @@
       <c r="F27" t="n">
         <v>117.6915168762207</v>
       </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -933,6 +1099,12 @@
       <c r="F28" t="n">
         <v>164.545726776123</v>
       </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -948,6 +1120,12 @@
       </c>
       <c r="F29" t="n">
         <v>604.3715476989746</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -967,7 +1145,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3734550476074</v>
+        <v>172.0788478851318</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +1167,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>275.7939696311951</v>
+        <v>190.9536600112915</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -999,7 +1189,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>374.4151592254639</v>
+        <v>251.0011196136475</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9100790513833992</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.152418723070897</v>
       </c>
     </row>
     <row r="33">
@@ -1015,7 +1211,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>514.5232677459717</v>
+        <v>289.543628692627</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2712842712842712</v>
       </c>
     </row>
     <row r="34">
@@ -1031,7 +1233,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>611.9069457054138</v>
+        <v>331.144392490387</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.726010101010101</v>
       </c>
     </row>
     <row r="35">
@@ -1047,7 +1255,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>842.7878737449643</v>
+        <v>453.830623626709</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1063,7 +1277,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1741.096019744873</v>
+        <v>625.4055500030518</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1089,6 +1309,12 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1105,6 +1331,12 @@
       <c r="F38" t="n">
         <v>85.36499738693237</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -1121,6 +1353,12 @@
       <c r="F39" t="n">
         <v>100.7318496704102</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1137,6 +1375,12 @@
       <c r="F40" t="n">
         <v>111.8571758270264</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1153,6 +1397,12 @@
       <c r="F41" t="n">
         <v>124.3176460266113</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1169,6 +1419,12 @@
       <c r="F42" t="n">
         <v>153.5950183868408</v>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1184,6 +1440,12 @@
       </c>
       <c r="F43" t="n">
         <v>371.3607788085938</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1205,6 +1467,12 @@
       <c r="F44" t="n">
         <v>43.68686676025391</v>
       </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -1221,6 +1489,12 @@
       <c r="F45" t="n">
         <v>62.81991004943848</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.8599667774086379</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -1237,6 +1511,12 @@
       <c r="F46" t="n">
         <v>64.81379270553589</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -1253,6 +1533,12 @@
       <c r="F47" t="n">
         <v>68.49730014801025</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -1269,6 +1555,12 @@
       <c r="F48" t="n">
         <v>78.67467403411865</v>
       </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -1285,6 +1577,12 @@
       <c r="F49" t="n">
         <v>98.59097003936762</v>
       </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -1300,6 +1598,12 @@
       </c>
       <c r="F50" t="n">
         <v>248.8036155700684</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1321,6 +1625,12 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -1337,6 +1647,12 @@
       <c r="F52" t="n">
         <v>63.41023445129395</v>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -1353,6 +1669,12 @@
       <c r="F53" t="n">
         <v>91.51506423950195</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -1369,6 +1691,12 @@
       <c r="F54" t="n">
         <v>95.63827514648438</v>
       </c>
+      <c r="G54" t="n">
+        <v>0.8307692307692308</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -1385,6 +1713,12 @@
       <c r="F55" t="n">
         <v>101.5000343322754</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -1401,6 +1735,12 @@
       <c r="F56" t="n">
         <v>142.8889751434326</v>
       </c>
+      <c r="G56" t="n">
+        <v>0.9876543209876543</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -1416,6 +1756,12 @@
       </c>
       <c r="F57" t="n">
         <v>265.0561332702637</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1437,6 +1783,12 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -1453,6 +1805,12 @@
       <c r="F59" t="n">
         <v>35.86342334747314</v>
       </c>
+      <c r="G59" t="n">
+        <v>0.7551247165532879</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -1469,6 +1827,12 @@
       <c r="F60" t="n">
         <v>38.86032104492188</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -1485,6 +1849,12 @@
       <c r="F61" t="n">
         <v>41.92471504211426</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -1501,6 +1871,12 @@
       <c r="F62" t="n">
         <v>49.28994178771973</v>
       </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -1517,6 +1893,12 @@
       <c r="F63" t="n">
         <v>72.81374931335449</v>
       </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -1532,6 +1914,12 @@
       </c>
       <c r="F64" t="n">
         <v>34310.37449836731</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1553,6 +1941,12 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -1569,6 +1963,12 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -1585,6 +1985,12 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -1599,7 +2005,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>112.2841835021973</v>
+        <v>77.75890827178955</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1615,7 +2027,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>174.7292280197144</v>
+        <v>111.2293004989624</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6766666666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -1631,7 +2049,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>319.1325902938842</v>
+        <v>151.3265013694763</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +2071,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>669.2070960998535</v>
+        <v>215.8746719360352</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1673,6 +2103,12 @@
       <c r="F72" t="n">
         <v>2.825736999511719</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.8454545454545455</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.2282608695652174</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -1689,6 +2125,12 @@
       <c r="F73" t="n">
         <v>7.102513313293457</v>
       </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
@@ -1705,6 +2147,12 @@
       <c r="F74" t="n">
         <v>8.638679981231689</v>
       </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.3723404255319149</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
@@ -1721,6 +2169,12 @@
       <c r="F75" t="n">
         <v>10.34903526306152</v>
       </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.4268292682926829</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
@@ -1737,6 +2191,12 @@
       <c r="F76" t="n">
         <v>15.75404405593872</v>
       </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.4943820224719101</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
@@ -1753,6 +2213,12 @@
       <c r="F77" t="n">
         <v>48.25725555419917</v>
       </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.6049265605875151</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
@@ -1768,6 +2234,12 @@
       </c>
       <c r="F78" t="n">
         <v>115.553617477417</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1789,6 +2261,12 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
+      <c r="G79" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.3043478260869565</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
@@ -1805,6 +2283,12 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3409090909090909</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
@@ -1821,6 +2305,12 @@
       <c r="F81" t="n">
         <v>0.1081228256225586</v>
       </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3846153846153846</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
@@ -1837,6 +2327,12 @@
       <c r="F82" t="n">
         <v>6.307601928710938</v>
       </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.4222222222222222</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
@@ -1853,6 +2349,12 @@
       <c r="F83" t="n">
         <v>9.748399257659912</v>
       </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.4657534246575342</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
@@ -1869,6 +2371,12 @@
       <c r="F84" t="n">
         <v>23.48835468292236</v>
       </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
@@ -1884,6 +2392,12 @@
       </c>
       <c r="F85" t="n">
         <v>97.73993492126465</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="86">
@@ -1905,6 +2419,12 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
@@ -1921,6 +2441,12 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.3105312208760485</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
@@ -1937,6 +2463,12 @@
       <c r="F88" t="n">
         <v>2.044439315795898</v>
       </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.4395604395604396</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
@@ -1953,6 +2485,12 @@
       <c r="F89" t="n">
         <v>7.715463638305664</v>
       </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.5333333333333333</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
@@ -1969,6 +2507,12 @@
       <c r="F90" t="n">
         <v>17.01879501342773</v>
       </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.6219512195121951</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
@@ -1985,6 +2529,12 @@
       <c r="F91" t="n">
         <v>29.80804443359374</v>
       </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8494623655913979</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
@@ -2000,6 +2550,12 @@
       </c>
       <c r="F92" t="n">
         <v>267.0910358428955</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2021,6 +2577,12 @@
       <c r="F93" t="n">
         <v>0</v>
       </c>
+      <c r="G93" t="n">
+        <v>0.8817204301075269</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3012048192771085</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
@@ -2037,6 +2599,12 @@
       <c r="F94" t="n">
         <v>3.490233421325684</v>
       </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3571428571428572</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
@@ -2053,6 +2621,12 @@
       <c r="F95" t="n">
         <v>4.081606864929199</v>
       </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -2069,6 +2643,12 @@
       <c r="F96" t="n">
         <v>4.827260971069336</v>
       </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.5063291139240507</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
@@ -2085,6 +2665,12 @@
       <c r="F97" t="n">
         <v>5.093991756439209</v>
       </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5662650602409639</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
@@ -2101,6 +2687,12 @@
       <c r="F98" t="n">
         <v>6.979465484619141</v>
       </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.7380654761904761</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
@@ -2116,6 +2708,12 @@
       </c>
       <c r="F99" t="n">
         <v>47.22189903259277</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2135,7 +2733,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>28.57875823974609</v>
+        <v>5.225181579589844</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2151,7 +2755,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>32.70033597946167</v>
+        <v>9.687578678131104</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.6896634615384616</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.09413006756756757</v>
       </c>
     </row>
     <row r="102">
@@ -2167,7 +2777,13 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>38.6161208152771</v>
+        <v>12.34829425811768</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.2773644388398487</v>
       </c>
     </row>
     <row r="103">
@@ -2183,7 +2799,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>57.10518360137939</v>
+        <v>18.17548274993896</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.3626808100289296</v>
       </c>
     </row>
     <row r="104">
@@ -2199,7 +2821,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>102.5222539901733</v>
+        <v>62.39724159240723</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.4612332112332113</v>
       </c>
     </row>
     <row r="105">
@@ -2215,7 +2843,13 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>189.7391319274901</v>
+        <v>115.1219725608825</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.6546666666666665</v>
       </c>
     </row>
     <row r="106">
@@ -2231,7 +2865,13 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>439.5413398742676</v>
+        <v>280.9844017028809</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.8703703703703703</v>
       </c>
     </row>
     <row r="107">
@@ -2257,6 +2897,12 @@
       <c r="F107" t="n">
         <v>100.7542610168457</v>
       </c>
+      <c r="G107" t="n">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.7758620689655172</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
@@ -2273,6 +2919,12 @@
       <c r="F108" t="n">
         <v>110.7034921646118</v>
       </c>
+      <c r="G108" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9767441860465116</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
@@ -2289,6 +2941,12 @@
       <c r="F109" t="n">
         <v>129.6276450157166</v>
       </c>
+      <c r="G109" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
@@ -2305,6 +2963,12 @@
       <c r="F110" t="n">
         <v>141.6233777999878</v>
       </c>
+      <c r="G110" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
@@ -2321,6 +2985,12 @@
       <c r="F111" t="n">
         <v>156.5852761268616</v>
       </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
@@ -2337,6 +3007,12 @@
       <c r="F112" t="n">
         <v>204.0047764778137</v>
       </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
@@ -2352,6 +3028,12 @@
       </c>
       <c r="F113" t="n">
         <v>8048.917531967163</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2373,6 +3055,12 @@
       <c r="F114" t="n">
         <v>67.78168678283691</v>
       </c>
+      <c r="G114" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.7192982456140351</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
@@ -2389,6 +3077,12 @@
       <c r="F115" t="n">
         <v>76.0562539100647</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
@@ -2405,6 +3099,12 @@
       <c r="F116" t="n">
         <v>89.28966522216797</v>
       </c>
+      <c r="G116" t="n">
+        <v>0.9738529014844804</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
@@ -2421,6 +3121,12 @@
       <c r="F117" t="n">
         <v>94.53332424163818</v>
       </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
@@ -2437,6 +3143,12 @@
       <c r="F118" t="n">
         <v>98.03754091262817</v>
       </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
@@ -2453,6 +3165,12 @@
       <c r="F119" t="n">
         <v>124.8469829559326</v>
       </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
@@ -2468,6 +3186,12 @@
       </c>
       <c r="F120" t="n">
         <v>316.0357475280762</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2489,6 +3213,12 @@
       <c r="F121" t="n">
         <v>103.6512851715088</v>
       </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
@@ -2505,6 +3235,12 @@
       <c r="F122" t="n">
         <v>125.1491546630859</v>
       </c>
+      <c r="G122" t="n">
+        <v>0.5672727272727273</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.5217391304347826</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
@@ -2521,6 +3257,12 @@
       <c r="F123" t="n">
         <v>127.7492046356201</v>
       </c>
+      <c r="G123" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.975</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
@@ -2537,6 +3279,12 @@
       <c r="F124" t="n">
         <v>133.6369514465332</v>
       </c>
+      <c r="G124" t="n">
+        <v>0.9764705882352941</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
@@ -2553,6 +3301,12 @@
       <c r="F125" t="n">
         <v>150.5477428436279</v>
       </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
@@ -2569,6 +3323,12 @@
       <c r="F126" t="n">
         <v>189.1092777252197</v>
       </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
@@ -2584,6 +3344,12 @@
       </c>
       <c r="F127" t="n">
         <v>505.9397220611572</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2605,6 +3371,12 @@
       <c r="F128" t="n">
         <v>31.2812328338623</v>
       </c>
+      <c r="G128" t="n">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
@@ -2621,6 +3393,12 @@
       <c r="F129" t="n">
         <v>48.86866807937622</v>
       </c>
+      <c r="G129" t="n">
+        <v>0.7761292223095051</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
@@ -2637,6 +3415,12 @@
       <c r="F130" t="n">
         <v>51.86080932617188</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
@@ -2653,6 +3437,12 @@
       <c r="F131" t="n">
         <v>55.84836006164551</v>
       </c>
+      <c r="G131" t="n">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
@@ -2669,6 +3459,12 @@
       <c r="F132" t="n">
         <v>63.80409002304077</v>
       </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
@@ -2685,6 +3481,12 @@
       <c r="F133" t="n">
         <v>92.74034500122069</v>
       </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
@@ -2700,6 +3502,12 @@
       </c>
       <c r="F134" t="n">
         <v>5535.496234893799</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2719,7 +3527,13 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>140.3665542602539</v>
+        <v>112.4799251556396</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2735,7 +3549,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>159.6192002296448</v>
+        <v>119.5937514305115</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.1376190476190476</v>
       </c>
     </row>
     <row r="137">
@@ -2751,7 +3571,13 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>209.1418504714966</v>
+        <v>150.6067514419556</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9312304075235109</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.5027777777777778</v>
       </c>
     </row>
     <row r="138">
@@ -2767,7 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>254.1882991790771</v>
+        <v>172.5533008575439</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="139">
@@ -2783,7 +3615,13 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>336.7065787315369</v>
+        <v>203.5812139511108</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9496794871794871</v>
       </c>
     </row>
     <row r="140">
@@ -2799,7 +3637,13 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>578.3554315567017</v>
+        <v>293.1970834732055</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2815,7 +3659,13 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1025.902986526489</v>
+        <v>434.6280097961426</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -2841,6 +3691,12 @@
       <c r="F142" t="n">
         <v>5.188465118408203</v>
       </c>
+      <c r="G142" t="n">
+        <v>0.3506493506493507</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.4923076923076923</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
@@ -2857,6 +3713,12 @@
       <c r="F143" t="n">
         <v>12.96604871749878</v>
       </c>
+      <c r="G143" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.8064516129032258</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n"/>
@@ -2873,6 +3735,12 @@
       <c r="F144" t="n">
         <v>16.9525146484375</v>
       </c>
+      <c r="G144" t="n">
+        <v>0.9663793103448276</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9629629629629629</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
@@ -2889,6 +3757,12 @@
       <c r="F145" t="n">
         <v>18.97287368774414</v>
       </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.9761904761904762</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
@@ -2905,6 +3779,12 @@
       <c r="F146" t="n">
         <v>22.93896675109863</v>
       </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
@@ -2921,6 +3801,12 @@
       <c r="F147" t="n">
         <v>30.84994554519653</v>
       </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
@@ -2936,6 +3822,12 @@
       </c>
       <c r="F148" t="n">
         <v>81.91227912902832</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2957,6 +3849,12 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.4857142857142857</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
@@ -2973,6 +3871,12 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
+      <c r="G150" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.8235294117647058</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
@@ -2989,6 +3893,12 @@
       <c r="F151" t="n">
         <v>6.377220153808594</v>
       </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.9565217391304348</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
@@ -3005,6 +3915,12 @@
       <c r="F152" t="n">
         <v>12.40122318267822</v>
       </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.9743589743589743</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
@@ -3021,6 +3937,12 @@
       <c r="F153" t="n">
         <v>21.07828855514526</v>
       </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
@@ -3037,6 +3959,12 @@
       <c r="F154" t="n">
         <v>29.45783138275146</v>
       </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
@@ -3052,6 +3980,12 @@
       </c>
       <c r="F155" t="n">
         <v>58.84265899658203</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3073,6 +4007,12 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
@@ -3089,6 +4029,12 @@
       <c r="F157" t="n">
         <v>1.145458221435547</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5282482223658694</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
@@ -3105,6 +4051,12 @@
       <c r="F158" t="n">
         <v>10.08343696594238</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.8648648648648649</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
@@ -3121,6 +4073,12 @@
       <c r="F159" t="n">
         <v>19.62876319885254</v>
       </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.9772727272727273</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
@@ -3137,6 +4095,12 @@
       <c r="F160" t="n">
         <v>27.72426605224609</v>
       </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
@@ -3153,6 +4117,12 @@
       <c r="F161" t="n">
         <v>33.08029174804687</v>
       </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
@@ -3168,6 +4138,12 @@
       </c>
       <c r="F162" t="n">
         <v>98.3426570892334</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3189,6 +4165,12 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.7297297297297297</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
@@ -3205,6 +4187,12 @@
       <c r="F164" t="n">
         <v>6.981611251831055</v>
       </c>
+      <c r="G164" t="n">
+        <v>0.7761292223095051</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.9655172413793104</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
@@ -3221,6 +4209,12 @@
       <c r="F165" t="n">
         <v>7.9803466796875</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
@@ -3237,6 +4231,12 @@
       <c r="F166" t="n">
         <v>8.978366851806641</v>
       </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
@@ -3253,6 +4253,12 @@
       <c r="F167" t="n">
         <v>10.96624135971069</v>
       </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
@@ -3269,6 +4275,12 @@
       <c r="F168" t="n">
         <v>16.3942813873291</v>
       </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
@@ -3284,6 +4296,12 @@
       </c>
       <c r="F169" t="n">
         <v>92.58913993835449</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -3303,7 +4321,13 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>11.2302303314209</v>
+        <v>9.973049163818359</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3319,7 +4343,13 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>18.80158185958862</v>
+        <v>11.94745302200317</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3335,7 +4365,13 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>25.58004856109619</v>
+        <v>15.95693826675415</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3351,7 +4387,13 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>34.82067584991455</v>
+        <v>21.94106578826904</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.6256038647342995</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.1862068965517241</v>
       </c>
     </row>
     <row r="174">
@@ -3367,7 +4409,13 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>48.08872938156128</v>
+        <v>27.74477005004883</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.7400696864111498</v>
       </c>
     </row>
     <row r="175">
@@ -3383,7 +4431,13 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>77.41941213607787</v>
+        <v>39.30773735046387</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.9600644122383252</v>
       </c>
     </row>
     <row r="176">
@@ -3399,7 +4453,13 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>161.9193553924561</v>
+        <v>83.41193199157715</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -3425,6 +4485,12 @@
       <c r="F177" t="n">
         <v>4.28462028503418</v>
       </c>
+      <c r="G177" t="n">
+        <v>0.1747572815533981</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n"/>
@@ -3441,6 +4507,12 @@
       <c r="F178" t="n">
         <v>13.69765996932983</v>
       </c>
+      <c r="G178" t="n">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
@@ -3457,6 +4529,12 @@
       <c r="F179" t="n">
         <v>14.92857933044434</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
@@ -3473,6 +4551,12 @@
       <c r="F180" t="n">
         <v>15.84255695343018</v>
       </c>
+      <c r="G180" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
@@ -3489,6 +4573,12 @@
       <c r="F181" t="n">
         <v>16.93087816238403</v>
       </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
@@ -3505,6 +4595,12 @@
       <c r="F182" t="n">
         <v>19.92630958557129</v>
       </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
@@ -3520,6 +4616,12 @@
       </c>
       <c r="F183" t="n">
         <v>4190.004587173462</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -3541,6 +4643,12 @@
       <c r="F184" t="n">
         <v>0</v>
       </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
@@ -3557,6 +4665,12 @@
       <c r="F185" t="n">
         <v>0</v>
       </c>
+      <c r="G185" t="n">
+        <v>0.6358865248226955</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.9666666666666667</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
@@ -3573,6 +4687,12 @@
       <c r="F186" t="n">
         <v>3.101706504821777</v>
       </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
@@ -3589,6 +4709,12 @@
       <c r="F187" t="n">
         <v>10.41579246520996</v>
       </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
@@ -3605,6 +4731,12 @@
       <c r="F188" t="n">
         <v>16.73620939254761</v>
       </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
@@ -3621,6 +4753,12 @@
       <c r="F189" t="n">
         <v>25.69080591201782</v>
       </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
@@ -3636,6 +4774,12 @@
       </c>
       <c r="F190" t="n">
         <v>602.4112701416016</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -3657,6 +4801,12 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
@@ -3673,6 +4823,12 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
+      <c r="G192" t="n">
+        <v>0.2236559139784946</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n"/>
@@ -3689,6 +4845,12 @@
       <c r="F193" t="n">
         <v>6.623506546020508</v>
       </c>
+      <c r="G193" t="n">
+        <v>0.4035087719298245</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
@@ -3705,6 +4867,12 @@
       <c r="F194" t="n">
         <v>15.26355743408203</v>
       </c>
+      <c r="G194" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
@@ -3721,6 +4889,12 @@
       <c r="F195" t="n">
         <v>23.15449714660645</v>
       </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
@@ -3737,6 +4911,12 @@
       <c r="F196" t="n">
         <v>29.24637794494629</v>
       </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
@@ -3752,6 +4932,12 @@
       </c>
       <c r="F197" t="n">
         <v>2486.481428146362</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3773,6 +4959,12 @@
       <c r="F198" t="n">
         <v>0</v>
       </c>
+      <c r="G198" t="n">
+        <v>0.1868131868131868</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
@@ -3789,6 +4981,12 @@
       <c r="F199" t="n">
         <v>8.379757404327393</v>
       </c>
+      <c r="G199" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n"/>
@@ -3805,6 +5003,12 @@
       <c r="F200" t="n">
         <v>9.739041328430176</v>
       </c>
+      <c r="G200" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n"/>
@@ -3821,6 +5025,12 @@
       <c r="F201" t="n">
         <v>10.69891452789307</v>
       </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
@@ -3837,6 +5047,12 @@
       <c r="F202" t="n">
         <v>11.82198524475098</v>
       </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
@@ -3853,6 +5069,12 @@
       <c r="F203" t="n">
         <v>13.99974822998047</v>
       </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
@@ -3868,6 +5090,12 @@
       </c>
       <c r="F204" t="n">
         <v>2764.303684234619</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -3887,7 +5115,13 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>29.95562553405762</v>
+        <v>9.330034255981445</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3903,7 +5137,13 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>32.81630277633667</v>
+        <v>14.13719654083252</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -3919,7 +5159,13 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>37.89836168289185</v>
+        <v>16.21448993682861</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.4097593582887701</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="208">
@@ -3935,7 +5181,13 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>44.930100440979</v>
+        <v>17.95148849487305</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.9245014245014245</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.7789886660854403</v>
       </c>
     </row>
     <row r="209">
@@ -3951,7 +5203,13 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>58.23355913162231</v>
+        <v>19.92738246917725</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.9343715239154615</v>
       </c>
     </row>
     <row r="210">
@@ -3967,7 +5225,13 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>116.9528603553771</v>
+        <v>37.7814769744873</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -3983,7 +5247,13 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>242.6595687866211</v>
+        <v>744.5070743560791</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4009,6 +5279,12 @@
       <c r="F212" t="n">
         <v>0</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.2621359223300971</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.5576923076923077</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n"/>
@@ -4025,6 +5301,12 @@
       <c r="F213" t="n">
         <v>1.995694637298584</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.8165136054421769</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.9473684210526315</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
@@ -4041,6 +5323,12 @@
       <c r="F214" t="n">
         <v>2.991914749145508</v>
       </c>
+      <c r="G214" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n"/>
@@ -4057,6 +5345,12 @@
       <c r="F215" t="n">
         <v>3.000974655151367</v>
       </c>
+      <c r="G215" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n"/>
@@ -4073,6 +5367,12 @@
       <c r="F216" t="n">
         <v>3.99017333984375</v>
       </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
@@ -4089,6 +5389,12 @@
       <c r="F217" t="n">
         <v>4.989385604858398</v>
       </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
@@ -4104,6 +5410,12 @@
       </c>
       <c r="F218" t="n">
         <v>17.95268058776855</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4125,6 +5437,12 @@
       <c r="F219" t="n">
         <v>0</v>
       </c>
+      <c r="G219" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.8043478260869565</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n"/>
@@ -4141,6 +5459,12 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.9705882352941176</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n"/>
@@ -4157,6 +5481,12 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n"/>
@@ -4173,6 +5503,12 @@
       <c r="F222" t="n">
         <v>1.997470855712891</v>
       </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n"/>
@@ -4189,6 +5525,12 @@
       <c r="F223" t="n">
         <v>2.994537353515625</v>
       </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n"/>
@@ -4205,6 +5547,12 @@
       <c r="F224" t="n">
         <v>16.65647029876709</v>
       </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n"/>
@@ -4220,6 +5568,12 @@
       </c>
       <c r="F225" t="n">
         <v>135.3557109832764</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -4241,6 +5595,12 @@
       <c r="F226" t="n">
         <v>0</v>
       </c>
+      <c r="G226" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.2325581395348837</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n"/>
@@ -4257,6 +5617,12 @@
       <c r="F227" t="n">
         <v>0</v>
       </c>
+      <c r="G227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
@@ -4273,6 +5639,12 @@
       <c r="F228" t="n">
         <v>0</v>
       </c>
+      <c r="G228" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.9523809523809523</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n"/>
@@ -4289,6 +5661,12 @@
       <c r="F229" t="n">
         <v>2.980232238769531</v>
       </c>
+      <c r="G229" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
@@ -4305,6 +5683,12 @@
       <c r="F230" t="n">
         <v>3.069162368774414</v>
       </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n"/>
@@ -4321,6 +5705,12 @@
       <c r="F231" t="n">
         <v>17.07758903503418</v>
       </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
@@ -4336,6 +5726,12 @@
       </c>
       <c r="F232" t="n">
         <v>97.16010093688965</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -4357,6 +5753,12 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.9354838709677419</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n"/>
@@ -4373,6 +5775,12 @@
       <c r="F234" t="n">
         <v>1.992952823638916</v>
       </c>
+      <c r="G234" t="n">
+        <v>0.7693108974358975</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n"/>
@@ -4389,6 +5797,12 @@
       <c r="F235" t="n">
         <v>2.98309326171875</v>
       </c>
+      <c r="G235" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n"/>
@@ -4405,6 +5819,12 @@
       <c r="F236" t="n">
         <v>2.992868423461914</v>
       </c>
+      <c r="G236" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n"/>
@@ -4421,6 +5841,12 @@
       <c r="F237" t="n">
         <v>3.95435094833374</v>
       </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n"/>
@@ -4437,6 +5863,12 @@
       <c r="F238" t="n">
         <v>5.387771129608151</v>
       </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n"/>
@@ -4452,6 +5884,12 @@
       </c>
       <c r="F239" t="n">
         <v>47.87206649780273</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -4471,7 +5909,13 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>12.86005973815918</v>
+        <v>1.96075439453125</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4487,7 +5931,13 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>16.29009246826172</v>
+        <v>1.994132995605469</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4503,7 +5953,13 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>17.95822381973267</v>
+        <v>2.987205982208252</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -4519,7 +5975,13 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>20.47324180603027</v>
+        <v>2.992630004882812</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -4535,7 +5997,13 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>27.72659063339233</v>
+        <v>3.246724605560303</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.708079268292683</v>
       </c>
     </row>
     <row r="245">
@@ -4551,7 +6019,13 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>57.8920722007751</v>
+        <v>4.97148036956787</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.9605799373040751</v>
       </c>
     </row>
     <row r="246">
@@ -4567,7 +6041,13 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>179.8183917999268</v>
+        <v>6.981372833251953</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -4593,6 +6073,12 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
@@ -4609,6 +6095,12 @@
       <c r="F248" t="n">
         <v>3.988981246948242</v>
       </c>
+      <c r="G248" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.9722222222222222</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n"/>
@@ -4625,6 +6117,12 @@
       <c r="F249" t="n">
         <v>4.98652458190918</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n"/>
@@ -4641,6 +6139,12 @@
       <c r="F250" t="n">
         <v>5.983829498291016</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n"/>
@@ -4657,6 +6161,12 @@
       <c r="F251" t="n">
         <v>6.981372833251953</v>
       </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n"/>
@@ -4673,6 +6183,12 @@
       <c r="F252" t="n">
         <v>8.979880809783936</v>
       </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n"/>
@@ -4688,6 +6204,12 @@
       </c>
       <c r="F253" t="n">
         <v>31.22425079345703</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -4709,6 +6231,12 @@
       <c r="F254" t="n">
         <v>0</v>
       </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n"/>
@@ -4725,6 +6253,12 @@
       <c r="F255" t="n">
         <v>0</v>
       </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n"/>
@@ -4741,6 +6275,12 @@
       <c r="F256" t="n">
         <v>0</v>
       </c>
+      <c r="G256" t="n">
+        <v>0.6136363636363636</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n"/>
@@ -4757,6 +6297,12 @@
       <c r="F257" t="n">
         <v>4.056930541992188</v>
       </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n"/>
@@ -4773,6 +6319,12 @@
       <c r="F258" t="n">
         <v>5.98907470703125</v>
       </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n"/>
@@ -4789,6 +6341,12 @@
       <c r="F259" t="n">
         <v>19.61793899536133</v>
       </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n"/>
@@ -4804,6 +6362,12 @@
       </c>
       <c r="F260" t="n">
         <v>57.13629722595215</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -4825,6 +6389,12 @@
       <c r="F261" t="n">
         <v>0</v>
       </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n"/>
@@ -4841,6 +6411,12 @@
       <c r="F262" t="n">
         <v>0</v>
       </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n"/>
@@ -4857,6 +6433,12 @@
       <c r="F263" t="n">
         <v>0</v>
       </c>
+      <c r="G263" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n"/>
@@ -4873,6 +6455,12 @@
       <c r="F264" t="n">
         <v>4.984140396118164</v>
       </c>
+      <c r="G264" t="n">
+        <v>0.8863636363636364</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n"/>
@@ -4889,6 +6477,12 @@
       <c r="F265" t="n">
         <v>7.609844207763672</v>
       </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n"/>
@@ -4905,6 +6499,12 @@
       <c r="F266" t="n">
         <v>21.50473594665527</v>
       </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n"/>
@@ -4920,6 +6520,12 @@
       </c>
       <c r="F267" t="n">
         <v>195.0221061706543</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -4941,6 +6547,12 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n"/>
@@ -4957,6 +6569,12 @@
       <c r="F269" t="n">
         <v>2.99072265625</v>
       </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n"/>
@@ -4973,6 +6591,12 @@
       <c r="F270" t="n">
         <v>3.988027572631836</v>
       </c>
+      <c r="G270" t="n">
+        <v>0.02272727272727273</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n"/>
@@ -4989,6 +6613,12 @@
       <c r="F271" t="n">
         <v>4.552245140075684</v>
       </c>
+      <c r="G271" t="n">
+        <v>0.527046783625731</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n"/>
@@ -5005,6 +6635,12 @@
       <c r="F272" t="n">
         <v>5.119800567626953</v>
       </c>
+      <c r="G272" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n"/>
@@ -5021,6 +6657,12 @@
       <c r="F273" t="n">
         <v>8.007729053497314</v>
       </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n"/>
@@ -5036,6 +6678,12 @@
       </c>
       <c r="F274" t="n">
         <v>57.65295028686523</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -5055,7 +6703,13 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>31.91018104553223</v>
+        <v>2.958774566650391</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5071,7 +6725,13 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>33.9028000831604</v>
+        <v>2.991437911987305</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5087,7 +6747,13 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>37.9367470741272</v>
+        <v>3.989279270172119</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5103,7 +6769,13 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>44.47197914123535</v>
+        <v>4.986405372619629</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -5119,7 +6791,13 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>56.30147457122803</v>
+        <v>5.984723567962646</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.8377403846153846</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.796969696969697</v>
       </c>
     </row>
     <row r="280">
@@ -5135,7 +6813,13 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>107.7131628990171</v>
+        <v>8.090531826019285</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -5151,7 +6835,13 @@
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>271.9683647155762</v>
+        <v>51.86605453491211</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -5177,6 +6867,12 @@
       <c r="F282" t="n">
         <v>13.37623596191406</v>
       </c>
+      <c r="G282" t="n">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.5283018867924528</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n"/>
@@ -5193,6 +6889,12 @@
       <c r="F283" t="n">
         <v>23.89886379241943</v>
       </c>
+      <c r="G283" t="n">
+        <v>0.8130826271186441</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.9487179487179487</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n"/>
@@ -5209,6 +6911,12 @@
       <c r="F284" t="n">
         <v>27.923583984375</v>
       </c>
+      <c r="G284" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n"/>
@@ -5225,6 +6933,12 @@
       <c r="F285" t="n">
         <v>29.92236614227295</v>
       </c>
+      <c r="G285" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n"/>
@@ -5241,6 +6955,12 @@
       <c r="F286" t="n">
         <v>32.91594982147217</v>
       </c>
+      <c r="G286" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n"/>
@@ -5257,6 +6977,12 @@
       <c r="F287" t="n">
         <v>44.38823461532591</v>
       </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n"/>
@@ -5272,6 +6998,12 @@
       </c>
       <c r="F288" t="n">
         <v>101.4668941497803</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -5293,6 +7025,12 @@
       <c r="F289" t="n">
         <v>1.989603042602539</v>
       </c>
+      <c r="G289" t="n">
+        <v>0.7346938775510204</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n"/>
@@ -5309,6 +7047,12 @@
       <c r="F290" t="n">
         <v>4.518342018127445</v>
       </c>
+      <c r="G290" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n"/>
@@ -5325,6 +7069,12 @@
       <c r="F291" t="n">
         <v>12.13175058364868</v>
       </c>
+      <c r="G291" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n"/>
@@ -5341,6 +7091,12 @@
       <c r="F292" t="n">
         <v>20.22814750671387</v>
       </c>
+      <c r="G292" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n"/>
@@ -5357,6 +7113,12 @@
       <c r="F293" t="n">
         <v>27.49663591384888</v>
       </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n"/>
@@ -5373,6 +7135,12 @@
       <c r="F294" t="n">
         <v>32.39959478378296</v>
       </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n"/>
@@ -5388,6 +7156,12 @@
       </c>
       <c r="F295" t="n">
         <v>71.7470645904541</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -5409,6 +7183,12 @@
       <c r="F296" t="n">
         <v>9.052515029907227</v>
       </c>
+      <c r="G296" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.2380952380952381</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n"/>
@@ -5425,6 +7205,12 @@
       <c r="F297" t="n">
         <v>14.03102874755859</v>
       </c>
+      <c r="G297" t="n">
+        <v>0.3037974683544304</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.7756272401433691</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n"/>
@@ -5441,6 +7227,12 @@
       <c r="F298" t="n">
         <v>27.44889259338379</v>
       </c>
+      <c r="G298" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n"/>
@@ -5457,6 +7249,12 @@
       <c r="F299" t="n">
         <v>31.16130828857422</v>
       </c>
+      <c r="G299" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n"/>
@@ -5473,6 +7271,12 @@
       <c r="F300" t="n">
         <v>32.33790397644043</v>
       </c>
+      <c r="G300" t="n">
+        <v>0.9761904761904762</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n"/>
@@ -5489,6 +7293,12 @@
       <c r="F301" t="n">
         <v>44.64240074157714</v>
       </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n"/>
@@ -5504,6 +7314,12 @@
       </c>
       <c r="F302" t="n">
         <v>124.6707439422607</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -5525,6 +7341,12 @@
       <c r="F303" t="n">
         <v>0</v>
       </c>
+      <c r="G303" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.78125</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n"/>
@@ -5541,6 +7363,12 @@
       <c r="F304" t="n">
         <v>8.976459503173828</v>
       </c>
+      <c r="G304" t="n">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n"/>
@@ -5557,6 +7385,12 @@
       <c r="F305" t="n">
         <v>9.981632232666016</v>
       </c>
+      <c r="G305" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n"/>
@@ -5573,6 +7407,12 @@
       <c r="F306" t="n">
         <v>10.97273826599121</v>
       </c>
+      <c r="G306" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n"/>
@@ -5589,6 +7429,12 @@
       <c r="F307" t="n">
         <v>12.96490430831909</v>
       </c>
+      <c r="G307" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n"/>
@@ -5605,6 +7451,12 @@
       <c r="F308" t="n">
         <v>18.98508071899414</v>
       </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n"/>
@@ -5620,6 +7472,12 @@
       </c>
       <c r="F309" t="n">
         <v>170.8016395568848</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -5639,7 +7497,13 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>26.93533897399902</v>
+        <v>21.93403244018555</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -5655,7 +7519,13 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>30.90912103652954</v>
+        <v>24.0424633026123</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.2110119047619048</v>
       </c>
     </row>
     <row r="312">
@@ -5671,7 +7541,13 @@
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>40.89087247848511</v>
+        <v>31.90332651138306</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.6439393939393939</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.5504310344827587</v>
       </c>
     </row>
     <row r="313">
@@ -5687,7 +7563,13 @@
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>47.84643650054932</v>
+        <v>36.74328327178955</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.8473193473193473</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.770979020979021</v>
       </c>
     </row>
     <row r="314">
@@ -5703,7 +7585,13 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>64.86713886260986</v>
+        <v>41.2413477897644</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.954004329004329</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.9252136752136753</v>
       </c>
     </row>
     <row r="315">
@@ -5719,7 +7607,13 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>123.4590172767638</v>
+        <v>60.51129102706908</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -5735,7 +7629,13 @@
         <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>218.9421653747559</v>
+        <v>128.5982131958008</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -5761,6 +7661,12 @@
       <c r="F317" t="n">
         <v>0</v>
       </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n"/>
@@ -5777,6 +7683,12 @@
       <c r="F318" t="n">
         <v>2.991914749145508</v>
       </c>
+      <c r="G318" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.9661494252873564</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n"/>
@@ -5793,6 +7705,12 @@
       <c r="F319" t="n">
         <v>3.988981246948242</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n"/>
@@ -5809,6 +7727,12 @@
       <c r="F320" t="n">
         <v>4.964470863342285</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n"/>
@@ -5825,6 +7749,12 @@
       <c r="F321" t="n">
         <v>5.013465881347656</v>
       </c>
+      <c r="G321" t="n">
+        <v>1</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n"/>
@@ -5841,6 +7771,12 @@
       <c r="F322" t="n">
         <v>6.982910633087158</v>
       </c>
+      <c r="G322" t="n">
+        <v>1</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n"/>
@@ -5856,6 +7792,12 @@
       </c>
       <c r="F323" t="n">
         <v>28.89132499694824</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -5877,6 +7819,12 @@
       <c r="F324" t="n">
         <v>0</v>
       </c>
+      <c r="G324" t="n">
+        <v>0.8431372549019608</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.8529411764705882</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n"/>
@@ -5893,6 +7841,12 @@
       <c r="F325" t="n">
         <v>0</v>
       </c>
+      <c r="G325" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n"/>
@@ -5909,6 +7863,12 @@
       <c r="F326" t="n">
         <v>0</v>
       </c>
+      <c r="G326" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n"/>
@@ -5925,6 +7885,12 @@
       <c r="F327" t="n">
         <v>2.994775772094727</v>
       </c>
+      <c r="G327" t="n">
+        <v>1</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n"/>
@@ -5941,6 +7907,12 @@
       <c r="F328" t="n">
         <v>3.99470329284668</v>
       </c>
+      <c r="G328" t="n">
+        <v>1</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n"/>
@@ -5957,6 +7929,12 @@
       <c r="F329" t="n">
         <v>17.99522638320922</v>
       </c>
+      <c r="G329" t="n">
+        <v>1</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n"/>
@@ -5972,6 +7950,12 @@
       </c>
       <c r="F330" t="n">
         <v>31.26859664916992</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -5993,6 +7977,12 @@
       <c r="F331" t="n">
         <v>0</v>
       </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n"/>
@@ -6009,6 +7999,12 @@
       <c r="F332" t="n">
         <v>0</v>
       </c>
+      <c r="G332" t="n">
+        <v>0.3696866096866097</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.7175</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n"/>
@@ -6025,6 +8021,12 @@
       <c r="F333" t="n">
         <v>0</v>
       </c>
+      <c r="G333" t="n">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.9818181818181818</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n"/>
@@ -6041,6 +8043,12 @@
       <c r="F334" t="n">
         <v>3.983497619628906</v>
       </c>
+      <c r="G334" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n"/>
@@ -6057,6 +8065,12 @@
       <c r="F335" t="n">
         <v>5.026340484619141</v>
       </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n"/>
@@ -6073,6 +8087,12 @@
       <c r="F336" t="n">
         <v>19.10538673400879</v>
       </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n"/>
@@ -6088,6 +8108,12 @@
       </c>
       <c r="F337" t="n">
         <v>98.03247451782227</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -6109,6 +8135,12 @@
       <c r="F338" t="n">
         <v>0</v>
       </c>
+      <c r="G338" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n"/>
@@ -6125,6 +8157,12 @@
       <c r="F339" t="n">
         <v>2.991437911987305</v>
       </c>
+      <c r="G339" t="n">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n"/>
@@ -6141,6 +8179,12 @@
       <c r="F340" t="n">
         <v>3.988027572631836</v>
       </c>
+      <c r="G340" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n"/>
@@ -6157,6 +8201,12 @@
       <c r="F341" t="n">
         <v>4.002571105957031</v>
       </c>
+      <c r="G341" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n"/>
@@ -6173,6 +8223,12 @@
       <c r="F342" t="n">
         <v>4.989147186279297</v>
       </c>
+      <c r="G342" t="n">
+        <v>1</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n"/>
@@ -6189,6 +8245,12 @@
       <c r="F343" t="n">
         <v>7.658147811889632</v>
       </c>
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n"/>
@@ -6204,6 +8266,12 @@
       </c>
       <c r="F344" t="n">
         <v>83.26125144958496</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -6223,7 +8291,13 @@
         <v>0</v>
       </c>
       <c r="F345" t="n">
-        <v>12.91513442993164</v>
+        <v>0</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -6239,7 +8313,13 @@
         <v>0</v>
       </c>
       <c r="F346" t="n">
-        <v>20.84168195724487</v>
+        <v>2.988815307617188</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.6036637931034483</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.1830929487179487</v>
       </c>
     </row>
     <row r="347">
@@ -6255,7 +8335,13 @@
         <v>0</v>
       </c>
       <c r="F347" t="n">
-        <v>22.93848991394043</v>
+        <v>3.024518489837646</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.950595238095238</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.5696150696150696</v>
       </c>
     </row>
     <row r="348">
@@ -6271,7 +8357,13 @@
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>27.91810035705566</v>
+        <v>4.01914119720459</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.7974358974358975</v>
       </c>
     </row>
     <row r="349">
@@ -6287,7 +8379,13 @@
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>39.8600697517395</v>
+        <v>5.020976066589355</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.9493421052631579</v>
       </c>
     </row>
     <row r="350">
@@ -6303,7 +8401,13 @@
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>68.45630407333374</v>
+        <v>7.971680164337158</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -6319,7 +8423,13 @@
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>266.2990093231201</v>
+        <v>25.92921257019043</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1</v>
+      </c>
+      <c r="H351" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -6345,6 +8455,12 @@
       <c r="F352" t="n">
         <v>0</v>
       </c>
+      <c r="G352" t="n">
+        <v>0.2912621359223301</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n"/>
@@ -6361,6 +8477,12 @@
       <c r="F353" t="n">
         <v>1.994848251342773</v>
       </c>
+      <c r="G353" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.9310344827586207</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n"/>
@@ -6377,6 +8499,12 @@
       <c r="F354" t="n">
         <v>2.991199493408203</v>
       </c>
+      <c r="G354" t="n">
+        <v>0.9647556390977443</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n"/>
@@ -6393,6 +8521,12 @@
       <c r="F355" t="n">
         <v>2.993106842041016</v>
       </c>
+      <c r="G355" t="n">
+        <v>1</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n"/>
@@ -6409,6 +8543,12 @@
       <c r="F356" t="n">
         <v>3.989219665527344</v>
       </c>
+      <c r="G356" t="n">
+        <v>1</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n"/>
@@ -6425,6 +8565,12 @@
       <c r="F357" t="n">
         <v>4.987716674804688</v>
       </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n"/>
@@ -6440,6 +8586,12 @@
       </c>
       <c r="F358" t="n">
         <v>37.90163993835449</v>
+      </c>
+      <c r="G358" t="n">
+        <v>1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -6461,6 +8613,12 @@
       <c r="F359" t="n">
         <v>0</v>
       </c>
+      <c r="G359" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.6607142857142857</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n"/>
@@ -6477,6 +8635,12 @@
       <c r="F360" t="n">
         <v>0</v>
       </c>
+      <c r="G360" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.9666666666666667</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n"/>
@@ -6493,6 +8657,12 @@
       <c r="F361" t="n">
         <v>0</v>
       </c>
+      <c r="G361" t="n">
+        <v>0.9782608695652174</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.975</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n"/>
@@ -6509,6 +8679,12 @@
       <c r="F362" t="n">
         <v>1.995325088500977</v>
       </c>
+      <c r="G362" t="n">
+        <v>1</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n"/>
@@ -6525,6 +8701,12 @@
       <c r="F363" t="n">
         <v>2.992868423461914</v>
       </c>
+      <c r="G363" t="n">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n"/>
@@ -6541,6 +8723,12 @@
       <c r="F364" t="n">
         <v>16.48238897323608</v>
       </c>
+      <c r="G364" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n"/>
@@ -6556,6 +8744,12 @@
       </c>
       <c r="F365" t="n">
         <v>36.69357299804688</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1</v>
+      </c>
+      <c r="H365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -6577,6 +8771,12 @@
       <c r="F366" t="n">
         <v>0</v>
       </c>
+      <c r="G366" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.2280701754385965</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n"/>
@@ -6593,6 +8793,12 @@
       <c r="F367" t="n">
         <v>0</v>
       </c>
+      <c r="G367" t="n">
+        <v>0.5626723223753977</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.5066666666666667</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n"/>
@@ -6609,6 +8815,12 @@
       <c r="F368" t="n">
         <v>0</v>
       </c>
+      <c r="G368" t="n">
+        <v>0.9767441860465116</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.8709677419354839</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n"/>
@@ -6625,6 +8837,12 @@
       <c r="F369" t="n">
         <v>2.073526382446289</v>
       </c>
+      <c r="G369" t="n">
+        <v>1</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0.9787234042553191</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n"/>
@@ -6641,6 +8859,12 @@
       <c r="F370" t="n">
         <v>3.099679946899414</v>
       </c>
+      <c r="G370" t="n">
+        <v>1</v>
+      </c>
+      <c r="H370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n"/>
@@ -6657,6 +8881,12 @@
       <c r="F371" t="n">
         <v>17.30747222900389</v>
       </c>
+      <c r="G371" t="n">
+        <v>1</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n"/>
@@ -6672,6 +8902,12 @@
       </c>
       <c r="F372" t="n">
         <v>71.80356979370117</v>
+      </c>
+      <c r="G372" t="n">
+        <v>1</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -6693,6 +8929,12 @@
       <c r="F373" t="n">
         <v>0</v>
       </c>
+      <c r="G373" t="n">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.9230769230769231</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n"/>
@@ -6709,6 +8951,12 @@
       <c r="F374" t="n">
         <v>1.979351043701172</v>
       </c>
+      <c r="G374" t="n">
+        <v>0.7755406640268048</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n"/>
@@ -6725,6 +8973,12 @@
       <c r="F375" t="n">
         <v>1.995325088500977</v>
       </c>
+      <c r="G375" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n"/>
@@ -6741,6 +8995,12 @@
       <c r="F376" t="n">
         <v>2.984285354614258</v>
       </c>
+      <c r="G376" t="n">
+        <v>1</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n"/>
@@ -6757,6 +9017,12 @@
       <c r="F377" t="n">
         <v>2.99382209777832</v>
       </c>
+      <c r="G377" t="n">
+        <v>1</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n"/>
@@ -6773,6 +9039,12 @@
       <c r="F378" t="n">
         <v>4.022359848022461</v>
       </c>
+      <c r="G378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n"/>
@@ -6788,6 +9060,12 @@
       </c>
       <c r="F379" t="n">
         <v>133.7661743164062</v>
+      </c>
+      <c r="G379" t="n">
+        <v>1</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -6807,7 +9085,13 @@
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>11.97266578674316</v>
+        <v>0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -6823,7 +9107,13 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>13.9293909072876</v>
+        <v>1.993870735168457</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -6839,7 +9129,13 @@
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>15.75970649719238</v>
+        <v>2.991199493408203</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -6855,7 +9151,13 @@
         <v>0</v>
       </c>
       <c r="F383" t="n">
-        <v>18.80943775177002</v>
+        <v>3.057718276977539</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1143790849673203</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="384">
@@ -6871,7 +9173,13 @@
         <v>0</v>
       </c>
       <c r="F384" t="n">
-        <v>26.30519866943359</v>
+        <v>3.991425037384033</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.7794858870967742</v>
       </c>
     </row>
     <row r="385">
@@ -6887,7 +9195,13 @@
         <v>0</v>
       </c>
       <c r="F385" t="n">
-        <v>52.40541696548462</v>
+        <v>5.186307430267333</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.9697695852534561</v>
       </c>
     </row>
     <row r="386">
@@ -6903,7 +9217,13 @@
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>84.86843109130859</v>
+        <v>7.542610168457031</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -6929,6 +9249,12 @@
       <c r="F387" t="n">
         <v>4.274129867553711</v>
       </c>
+      <c r="G387" t="n">
+        <v>0.1727272727272727</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.8529411764705882</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n"/>
@@ -6945,6 +9271,12 @@
       <c r="F388" t="n">
         <v>14.39906358718872</v>
       </c>
+      <c r="G388" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n"/>
@@ -6961,6 +9293,12 @@
       <c r="F389" t="n">
         <v>15.9599781036377</v>
       </c>
+      <c r="G389" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n"/>
@@ -6977,6 +9315,12 @@
       <c r="F390" t="n">
         <v>17.48716831207275</v>
       </c>
+      <c r="G390" t="n">
+        <v>1</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n"/>
@@ -6993,6 +9337,12 @@
       <c r="F391" t="n">
         <v>19.09822225570679</v>
       </c>
+      <c r="G391" t="n">
+        <v>1</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n"/>
@@ -7009,6 +9359,12 @@
       <c r="F392" t="n">
         <v>24.47737455368042</v>
       </c>
+      <c r="G392" t="n">
+        <v>1</v>
+      </c>
+      <c r="H392" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n"/>
@@ -7024,6 +9380,12 @@
       </c>
       <c r="F393" t="n">
         <v>3513.384819030762</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1</v>
+      </c>
+      <c r="H393" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -7045,6 +9407,12 @@
       <c r="F394" t="n">
         <v>0</v>
       </c>
+      <c r="G394" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.9310344827586207</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n"/>
@@ -7061,6 +9429,12 @@
       <c r="F395" t="n">
         <v>0</v>
       </c>
+      <c r="G395" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.972972972972973</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n"/>
@@ -7077,6 +9451,12 @@
       <c r="F396" t="n">
         <v>6.064414978027344</v>
       </c>
+      <c r="G396" t="n">
+        <v>1</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n"/>
@@ -7093,6 +9473,12 @@
       <c r="F397" t="n">
         <v>12.96281814575195</v>
       </c>
+      <c r="G397" t="n">
+        <v>1</v>
+      </c>
+      <c r="H397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n"/>
@@ -7109,6 +9495,12 @@
       <c r="F398" t="n">
         <v>20.08187770843506</v>
       </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n"/>
@@ -7125,6 +9517,12 @@
       <c r="F399" t="n">
         <v>27.11124420166016</v>
       </c>
+      <c r="G399" t="n">
+        <v>1</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n"/>
@@ -7140,6 +9538,12 @@
       </c>
       <c r="F400" t="n">
         <v>3522.200345993042</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -7161,6 +9565,12 @@
       <c r="F401" t="n">
         <v>0</v>
       </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n"/>
@@ -7177,6 +9587,12 @@
       <c r="F402" t="n">
         <v>1.073789596557617</v>
       </c>
+      <c r="G402" t="n">
+        <v>0.6891954022988506</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.7050802139037433</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n"/>
@@ -7193,6 +9609,12 @@
       <c r="F403" t="n">
         <v>10.96534729003906</v>
       </c>
+      <c r="G403" t="n">
+        <v>0.961038961038961</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.9787234042553191</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n"/>
@@ -7209,6 +9631,12 @@
       <c r="F404" t="n">
         <v>17.69113540649414</v>
       </c>
+      <c r="G404" t="n">
+        <v>0.9836065573770492</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n"/>
@@ -7225,6 +9653,12 @@
       <c r="F405" t="n">
         <v>25.82263946533203</v>
       </c>
+      <c r="G405" t="n">
+        <v>1</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n"/>
@@ -7241,6 +9675,12 @@
       <c r="F406" t="n">
         <v>31.81781768798828</v>
       </c>
+      <c r="G406" t="n">
+        <v>1</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n"/>
@@ -7256,6 +9696,12 @@
       </c>
       <c r="F407" t="n">
         <v>3222.093343734741</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -7277,6 +9723,12 @@
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.9393939393939394</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n"/>
@@ -7293,6 +9745,12 @@
       <c r="F409" t="n">
         <v>8.977413177490234</v>
       </c>
+      <c r="G409" t="n">
+        <v>0.7761292223095051</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n"/>
@@ -7309,6 +9767,12 @@
       <c r="F410" t="n">
         <v>10.00285148620605</v>
       </c>
+      <c r="G410" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n"/>
@@ -7325,6 +9789,12 @@
       <c r="F411" t="n">
         <v>10.97595691680908</v>
       </c>
+      <c r="G411" t="n">
+        <v>1</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n"/>
@@ -7341,6 +9811,12 @@
       <c r="F412" t="n">
         <v>12.3932957649231</v>
       </c>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n"/>
@@ -7357,6 +9833,12 @@
       <c r="F413" t="n">
         <v>15.74440002441406</v>
       </c>
+      <c r="G413" t="n">
+        <v>1</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n"/>
@@ -7372,6 +9854,12 @@
       </c>
       <c r="F414" t="n">
         <v>78639.72449302673</v>
+      </c>
+      <c r="G414" t="n">
+        <v>1</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -7393,6 +9881,12 @@
       <c r="F415" t="n">
         <v>0</v>
       </c>
+      <c r="G415" t="n">
+        <v>0</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n"/>
@@ -7409,6 +9903,12 @@
       <c r="F416" t="n">
         <v>0</v>
       </c>
+      <c r="G416" t="n">
+        <v>0</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n"/>
@@ -7423,7 +9923,13 @@
         <v>0</v>
       </c>
       <c r="F417" t="n">
-        <v>35.61228513717651</v>
+        <v>15.86449146270752</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.8390322580645162</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.4579303675048356</v>
       </c>
     </row>
     <row r="418">
@@ -7439,7 +9945,13 @@
         <v>0</v>
       </c>
       <c r="F418" t="n">
-        <v>41.66829586029053</v>
+        <v>18.94998550415039</v>
+      </c>
+      <c r="G418" t="n">
+        <v>1</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.7608892921960073</v>
       </c>
     </row>
     <row r="419">
@@ -7455,7 +9967,13 @@
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>51.86152458190918</v>
+        <v>22.84115552902222</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.9317073170731708</v>
       </c>
     </row>
     <row r="420">
@@ -7471,7 +9989,13 @@
         <v>1</v>
       </c>
       <c r="F420" t="n">
-        <v>83.99515151977538</v>
+        <v>47.40848541259759</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+      <c r="H420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -7487,7 +10011,13 @@
         <v>1</v>
       </c>
       <c r="F421" t="n">
-        <v>1799.17573928833</v>
+        <v>662.0008945465088</v>
+      </c>
+      <c r="G421" t="n">
+        <v>1</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -7513,6 +10043,12 @@
       <c r="F422" t="n">
         <v>9.785890579223633</v>
       </c>
+      <c r="G422" t="n">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.2682926829268293</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n"/>
@@ -7529,6 +10065,12 @@
       <c r="F423" t="n">
         <v>18.65041255950928</v>
       </c>
+      <c r="G423" t="n">
+        <v>0.7731989708404803</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.6862745098039216</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n"/>
@@ -7545,6 +10087,12 @@
       <c r="F424" t="n">
         <v>20.29728889465332</v>
       </c>
+      <c r="G424" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.9772727272727273</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n"/>
@@ -7561,6 +10109,12 @@
       <c r="F425" t="n">
         <v>21.5909481048584</v>
       </c>
+      <c r="G425" t="n">
+        <v>1</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n"/>
@@ -7577,6 +10131,12 @@
       <c r="F426" t="n">
         <v>22.94206619262695</v>
       </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n"/>
@@ -7593,6 +10153,12 @@
       <c r="F427" t="n">
         <v>26.52075290679931</v>
       </c>
+      <c r="G427" t="n">
+        <v>1</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n"/>
@@ -7608,6 +10174,12 @@
       </c>
       <c r="F428" t="n">
         <v>14477.02026367188</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -7629,6 +10201,12 @@
       <c r="F429" t="n">
         <v>0</v>
       </c>
+      <c r="G429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n"/>
@@ -7645,6 +10223,12 @@
       <c r="F430" t="n">
         <v>3.082907199859619</v>
       </c>
+      <c r="G430" t="n">
+        <v>1</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.897640306122449</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n"/>
@@ -7661,6 +10245,12 @@
       <c r="F431" t="n">
         <v>10.51169633865356</v>
       </c>
+      <c r="G431" t="n">
+        <v>1</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n"/>
@@ -7677,6 +10267,12 @@
       <c r="F432" t="n">
         <v>17.56846904754639</v>
       </c>
+      <c r="G432" t="n">
+        <v>1</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n"/>
@@ -7693,6 +10289,12 @@
       <c r="F433" t="n">
         <v>24.49220418930054</v>
       </c>
+      <c r="G433" t="n">
+        <v>1</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n"/>
@@ -7709,6 +10311,12 @@
       <c r="F434" t="n">
         <v>31.50472640991211</v>
       </c>
+      <c r="G434" t="n">
+        <v>1</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n"/>
@@ -7724,6 +10332,12 @@
       </c>
       <c r="F435" t="n">
         <v>357117.9120540619</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -7745,6 +10359,12 @@
       <c r="F436" t="n">
         <v>0</v>
       </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n"/>
@@ -7761,6 +10381,12 @@
       <c r="F437" t="n">
         <v>4.079055786132812</v>
       </c>
+      <c r="G437" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.2870101503276372</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n"/>
@@ -7777,6 +10403,12 @@
       <c r="F438" t="n">
         <v>11.04187965393066</v>
       </c>
+      <c r="G438" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.6279069767441861</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n"/>
@@ -7793,6 +10425,12 @@
       <c r="F439" t="n">
         <v>19.70958709716797</v>
       </c>
+      <c r="G439" t="n">
+        <v>1</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n"/>
@@ -7809,6 +10447,12 @@
       <c r="F440" t="n">
         <v>27.9386043548584</v>
       </c>
+      <c r="G440" t="n">
+        <v>1</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n"/>
@@ -7825,6 +10469,12 @@
       <c r="F441" t="n">
         <v>32.2667121887207</v>
       </c>
+      <c r="G441" t="n">
+        <v>1</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n"/>
@@ -7840,6 +10490,12 @@
       </c>
       <c r="F442" t="n">
         <v>269122.795343399</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -7861,6 +10517,12 @@
       <c r="F443" t="n">
         <v>0</v>
       </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n"/>
@@ -7877,6 +10539,12 @@
       <c r="F444" t="n">
         <v>14.79532718658447</v>
       </c>
+      <c r="G444" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.9772727272727273</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n"/>
@@ -7893,6 +10561,12 @@
       <c r="F445" t="n">
         <v>15.99133014678955</v>
       </c>
+      <c r="G445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H445" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n"/>
@@ -7909,6 +10583,12 @@
       <c r="F446" t="n">
         <v>17.19868183135986</v>
       </c>
+      <c r="G446" t="n">
+        <v>1</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n"/>
@@ -7925,6 +10605,12 @@
       <c r="F447" t="n">
         <v>18.72462034225464</v>
       </c>
+      <c r="G447" t="n">
+        <v>1</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n"/>
@@ -7941,6 +10627,12 @@
       <c r="F448" t="n">
         <v>21.58697843551636</v>
       </c>
+      <c r="G448" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n"/>
@@ -7956,6 +10648,12 @@
       </c>
       <c r="F449" t="n">
         <v>2167.285203933716</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1</v>
+      </c>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -7977,6 +10675,12 @@
       <c r="F450" t="n">
         <v>0</v>
       </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n"/>
@@ -7991,7 +10695,13 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>34.8025918006897</v>
+        <v>18.20216178894043</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -8007,7 +10717,13 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>41.93514585494995</v>
+        <v>20.94858884811401</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -8023,7 +10739,13 @@
         <v>0</v>
       </c>
       <c r="F453" t="n">
-        <v>49.87502098083496</v>
+        <v>22.96543121337891</v>
+      </c>
+      <c r="G453" t="n">
+        <v>1</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.2667140825035562</v>
       </c>
     </row>
     <row r="454">
@@ -8039,7 +10761,13 @@
         <v>0</v>
       </c>
       <c r="F454" t="n">
-        <v>59.92120504379272</v>
+        <v>25.11638402938843</v>
+      </c>
+      <c r="G454" t="n">
+        <v>1</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.6202791461412152</v>
       </c>
     </row>
     <row r="455">
@@ -8055,7 +10783,13 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>93.81469488143917</v>
+        <v>33.12631845474241</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -8071,7 +10805,13 @@
         <v>1</v>
       </c>
       <c r="F456" t="n">
-        <v>17372.25031852722</v>
+        <v>172.8610992431641</v>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -8097,6 +10837,12 @@
       <c r="F457" t="n">
         <v>0</v>
       </c>
+      <c r="G457" t="n">
+        <v>0.4563106796116505</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.5675675675675675</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n"/>
@@ -8113,6 +10859,12 @@
       <c r="F458" t="n">
         <v>6.979703903198242</v>
       </c>
+      <c r="G458" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n"/>
@@ -8129,6 +10881,12 @@
       <c r="F459" t="n">
         <v>7.982730865478516</v>
       </c>
+      <c r="G459" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="H459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n"/>
@@ -8145,6 +10903,12 @@
       <c r="F460" t="n">
         <v>8.977174758911133</v>
       </c>
+      <c r="G460" t="n">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n"/>
@@ -8161,6 +10925,12 @@
       <c r="F461" t="n">
         <v>9.977400302886963</v>
       </c>
+      <c r="G461" t="n">
+        <v>1</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n"/>
@@ -8177,6 +10947,12 @@
       <c r="F462" t="n">
         <v>14.14226293563843</v>
       </c>
+      <c r="G462" t="n">
+        <v>1</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n"/>
@@ -8192,6 +10968,12 @@
       </c>
       <c r="F463" t="n">
         <v>42.91367530822754</v>
+      </c>
+      <c r="G463" t="n">
+        <v>1</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -8213,6 +10995,12 @@
       <c r="F464" t="n">
         <v>0</v>
       </c>
+      <c r="G464" t="n">
+        <v>0.9019607843137255</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.8857142857142857</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n"/>
@@ -8229,6 +11017,12 @@
       <c r="F465" t="n">
         <v>0</v>
       </c>
+      <c r="G465" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.9705882352941176</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n"/>
@@ -8245,6 +11039,12 @@
       <c r="F466" t="n">
         <v>0</v>
       </c>
+      <c r="G466" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n"/>
@@ -8261,6 +11061,12 @@
       <c r="F467" t="n">
         <v>5.969882011413574</v>
       </c>
+      <c r="G467" t="n">
+        <v>1</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n"/>
@@ -8277,6 +11083,12 @@
       <c r="F468" t="n">
         <v>7.052898406982422</v>
       </c>
+      <c r="G468" t="n">
+        <v>1</v>
+      </c>
+      <c r="H468" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n"/>
@@ -8293,6 +11105,12 @@
       <c r="F469" t="n">
         <v>21.08731269836425</v>
       </c>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n"/>
@@ -8308,6 +11126,12 @@
       </c>
       <c r="F470" t="n">
         <v>33.89668464660645</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -8329,6 +11153,12 @@
       <c r="F471" t="n">
         <v>0</v>
       </c>
+      <c r="G471" t="n">
+        <v>0.5735294117647058</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.1851851851851852</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n"/>
@@ -8345,6 +11175,12 @@
       <c r="F472" t="n">
         <v>0</v>
       </c>
+      <c r="G472" t="n">
+        <v>0.8861910241657077</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.6279069767441861</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n"/>
@@ -8361,6 +11197,12 @@
       <c r="F473" t="n">
         <v>1.621723175048828</v>
       </c>
+      <c r="G473" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.9705882352941176</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n"/>
@@ -8377,6 +11219,12 @@
       <c r="F474" t="n">
         <v>7.97724723815918</v>
       </c>
+      <c r="G474" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n"/>
@@ -8393,6 +11241,12 @@
       <c r="F475" t="n">
         <v>16.12758636474609</v>
       </c>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n"/>
@@ -8409,6 +11263,12 @@
       <c r="F476" t="n">
         <v>23.85668754577637</v>
       </c>
+      <c r="G476" t="n">
+        <v>1</v>
+      </c>
+      <c r="H476" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n"/>
@@ -8424,6 +11284,12 @@
       </c>
       <c r="F477" t="n">
         <v>41.5794849395752</v>
+      </c>
+      <c r="G477" t="n">
+        <v>1</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -8445,6 +11311,12 @@
       <c r="F478" t="n">
         <v>0</v>
       </c>
+      <c r="G478" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.8387096774193549</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n"/>
@@ -8461,6 +11333,12 @@
       <c r="F479" t="n">
         <v>2.987146377563477</v>
       </c>
+      <c r="G479" t="n">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0.9736842105263158</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n"/>
@@ -8477,6 +11355,12 @@
       <c r="F480" t="n">
         <v>3.019571304321289</v>
       </c>
+      <c r="G480" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n"/>
@@ -8493,6 +11377,12 @@
       <c r="F481" t="n">
         <v>3.988742828369141</v>
       </c>
+      <c r="G481" t="n">
+        <v>1</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n"/>
@@ -8509,6 +11399,12 @@
       <c r="F482" t="n">
         <v>4.670679569244385</v>
       </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n"/>
@@ -8525,6 +11421,12 @@
       <c r="F483" t="n">
         <v>8.973097801208496</v>
       </c>
+      <c r="G483" t="n">
+        <v>1</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n"/>
@@ -8540,6 +11442,12 @@
       </c>
       <c r="F484" t="n">
         <v>54.84485626220703</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -8559,7 +11467,13 @@
         <v>0</v>
       </c>
       <c r="F485" t="n">
-        <v>13.92197608947754</v>
+        <v>5.977153778076172</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -8575,7 +11489,13 @@
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>14.96989727020264</v>
+        <v>6.964075565338135</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.8250000000000001</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.1517307692307692</v>
       </c>
     </row>
     <row r="487">
@@ -8591,7 +11511,13 @@
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>17.95917749404907</v>
+        <v>8.942604064941406</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0.4716911764705882</v>
       </c>
     </row>
     <row r="488">
@@ -8607,7 +11533,13 @@
         <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>21.31390571594238</v>
+        <v>10.01334190368652</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="489">
@@ -8623,7 +11555,13 @@
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>29.73657846450806</v>
+        <v>11.96670532226562</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1</v>
+      </c>
+      <c r="H489" t="n">
+        <v>0.8993589743589744</v>
       </c>
     </row>
     <row r="490">
@@ -8639,7 +11577,13 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>57.89140462875363</v>
+        <v>16.12002849578857</v>
+      </c>
+      <c r="G490" t="n">
+        <v>1</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -8655,7 +11599,13 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>141.2088871002197</v>
+        <v>40.64726829528809</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -8681,6 +11631,12 @@
       <c r="F492" t="n">
         <v>27.98604965209961</v>
       </c>
+      <c r="G492" t="n">
+        <v>0.3551401869158878</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.5079365079365079</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n"/>
@@ -8697,6 +11653,12 @@
       <c r="F493" t="n">
         <v>32.24325180053711</v>
       </c>
+      <c r="G493" t="n">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n"/>
@@ -8713,6 +11675,12 @@
       <c r="F494" t="n">
         <v>35.00545024871826</v>
       </c>
+      <c r="G494" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n"/>
@@ -8729,6 +11697,12 @@
       <c r="F495" t="n">
         <v>37.93799877166748</v>
       </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n"/>
@@ -8745,6 +11719,12 @@
       <c r="F496" t="n">
         <v>42.88583993911743</v>
       </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+      <c r="H496" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n"/>
@@ -8761,6 +11741,12 @@
       <c r="F497" t="n">
         <v>53.7227988243103</v>
       </c>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n"/>
@@ -8776,6 +11762,12 @@
       </c>
       <c r="F498" t="n">
         <v>3188.439846038818</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -8797,6 +11789,12 @@
       <c r="F499" t="n">
         <v>10.0395679473877</v>
       </c>
+      <c r="G499" t="n">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0.5113636363636364</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n"/>
@@ -8813,6 +11811,12 @@
       <c r="F500" t="n">
         <v>23.32717180252076</v>
       </c>
+      <c r="G500" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.9761904761904762</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n"/>
@@ -8829,6 +11833,12 @@
       <c r="F501" t="n">
         <v>29.90120649337769</v>
       </c>
+      <c r="G501" t="n">
+        <v>1</v>
+      </c>
+      <c r="H501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n"/>
@@ -8845,6 +11855,12 @@
       <c r="F502" t="n">
         <v>31.80825710296631</v>
       </c>
+      <c r="G502" t="n">
+        <v>1</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n"/>
@@ -8861,6 +11877,12 @@
       <c r="F503" t="n">
         <v>32.695472240448</v>
       </c>
+      <c r="G503" t="n">
+        <v>1</v>
+      </c>
+      <c r="H503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n"/>
@@ -8877,6 +11899,12 @@
       <c r="F504" t="n">
         <v>41.50915145874018</v>
       </c>
+      <c r="G504" t="n">
+        <v>1</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n"/>
@@ -8892,6 +11920,12 @@
       </c>
       <c r="F505" t="n">
         <v>1435.57333946228</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1</v>
+      </c>
+      <c r="H505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -8913,6 +11947,12 @@
       <c r="F506" t="n">
         <v>15.91324806213379</v>
       </c>
+      <c r="G506" t="n">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.1612903225806452</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n"/>
@@ -8929,6 +11969,12 @@
       <c r="F507" t="n">
         <v>31.39314651489258</v>
       </c>
+      <c r="G507" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n"/>
@@ -8945,6 +11991,12 @@
       <c r="F508" t="n">
         <v>32.57107734680176</v>
       </c>
+      <c r="G508" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.9473684210526315</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n"/>
@@ -8961,6 +12013,12 @@
       <c r="F509" t="n">
         <v>35.51626205444336</v>
       </c>
+      <c r="G509" t="n">
+        <v>1</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n"/>
@@ -8977,6 +12035,12 @@
       <c r="F510" t="n">
         <v>41.34273529052734</v>
       </c>
+      <c r="G510" t="n">
+        <v>1</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n"/>
@@ -8993,6 +12057,12 @@
       <c r="F511" t="n">
         <v>56.00781440734863</v>
       </c>
+      <c r="G511" t="n">
+        <v>1</v>
+      </c>
+      <c r="H511" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n"/>
@@ -9008,6 +12078,12 @@
       </c>
       <c r="F512" t="n">
         <v>20262.54224777222</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1</v>
+      </c>
+      <c r="H512" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -9029,6 +12105,12 @@
       <c r="F513" t="n">
         <v>10.59532165527344</v>
       </c>
+      <c r="G513" t="n">
+        <v>0.4868421052631579</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.4878048780487805</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n"/>
@@ -9045,6 +12127,12 @@
       <c r="F514" t="n">
         <v>22.16726541519165</v>
       </c>
+      <c r="G514" t="n">
+        <v>0.777888888888889</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.9642857142857143</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n"/>
@@ -9061,6 +12149,12 @@
       <c r="F515" t="n">
         <v>24.25467967987061</v>
       </c>
+      <c r="G515" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n"/>
@@ -9077,6 +12171,12 @@
       <c r="F516" t="n">
         <v>26.89802646636963</v>
       </c>
+      <c r="G516" t="n">
+        <v>1</v>
+      </c>
+      <c r="H516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n"/>
@@ -9093,6 +12193,12 @@
       <c r="F517" t="n">
         <v>30.00223636627197</v>
       </c>
+      <c r="G517" t="n">
+        <v>1</v>
+      </c>
+      <c r="H517" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n"/>
@@ -9109,6 +12215,12 @@
       <c r="F518" t="n">
         <v>38.89656066894531</v>
       </c>
+      <c r="G518" t="n">
+        <v>1</v>
+      </c>
+      <c r="H518" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n"/>
@@ -9124,6 +12236,12 @@
       </c>
       <c r="F519" t="n">
         <v>3375.093221664429</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1</v>
+      </c>
+      <c r="H519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -9143,7 +12261,13 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
-        <v>53.88832092285156</v>
+        <v>36.70048713684082</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -9159,7 +12283,13 @@
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>59.08304452896118</v>
+        <v>39.7441029548645</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.6461538461538464</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.157983193277311</v>
       </c>
     </row>
     <row r="522">
@@ -9175,7 +12305,13 @@
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>67.85464286804199</v>
+        <v>47.67537117004395</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.5233333333333333</v>
       </c>
     </row>
     <row r="523">
@@ -9191,7 +12327,13 @@
         <v>0</v>
       </c>
       <c r="F523" t="n">
-        <v>76.30479335784912</v>
+        <v>54.57758903503418</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.7720779220779221</v>
       </c>
     </row>
     <row r="524">
@@ -9207,7 +12349,13 @@
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>90.16978740692139</v>
+        <v>61.27876043319702</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.9317073170731708</v>
       </c>
     </row>
     <row r="525">
@@ -9223,7 +12371,13 @@
         <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>149.3244647979736</v>
+        <v>113.1433248519897</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1</v>
+      </c>
+      <c r="H525" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -9239,7 +12393,13 @@
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>398.2021808624268</v>
+        <v>393.5410976409912</v>
+      </c>
+      <c r="G526" t="n">
+        <v>1</v>
+      </c>
+      <c r="H526" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -9265,6 +12425,12 @@
       <c r="F527" t="n">
         <v>210.47043800354</v>
       </c>
+      <c r="G527" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.4827586206896552</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n"/>
@@ -9281,6 +12447,12 @@
       <c r="F528" t="n">
         <v>226.3965964317322</v>
       </c>
+      <c r="G528" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.5074626865671642</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n"/>
@@ -9297,6 +12469,12 @@
       <c r="F529" t="n">
         <v>267.5450444221497</v>
       </c>
+      <c r="G529" t="n">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.8918918918918919</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n"/>
@@ -9313,6 +12491,12 @@
       <c r="F530" t="n">
         <v>292.217493057251</v>
       </c>
+      <c r="G530" t="n">
+        <v>1</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.9714285714285714</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n"/>
@@ -9329,6 +12513,12 @@
       <c r="F531" t="n">
         <v>319.6710348129272</v>
       </c>
+      <c r="G531" t="n">
+        <v>1</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.9811320754716981</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n"/>
@@ -9345,6 +12535,12 @@
       <c r="F532" t="n">
         <v>391.6149973869324</v>
       </c>
+      <c r="G532" t="n">
+        <v>1</v>
+      </c>
+      <c r="H532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n"/>
@@ -9360,6 +12556,12 @@
       </c>
       <c r="F533" t="n">
         <v>1114.78853225708</v>
+      </c>
+      <c r="G533" t="n">
+        <v>1</v>
+      </c>
+      <c r="H533" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -9381,6 +12583,12 @@
       <c r="F534" t="n">
         <v>142.9133415222168</v>
       </c>
+      <c r="G534" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.484375</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n"/>
@@ -9397,6 +12605,12 @@
       <c r="F535" t="n">
         <v>160.4454398155212</v>
       </c>
+      <c r="G535" t="n">
+        <v>1</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.5918367346938775</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n"/>
@@ -9413,6 +12627,12 @@
       <c r="F536" t="n">
         <v>170.9868311882019</v>
       </c>
+      <c r="G536" t="n">
+        <v>1</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n"/>
@@ -9429,6 +12649,12 @@
       <c r="F537" t="n">
         <v>183.2782030105591</v>
       </c>
+      <c r="G537" t="n">
+        <v>1</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.9722222222222222</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n"/>
@@ -9445,6 +12671,12 @@
       <c r="F538" t="n">
         <v>193.6492919921875</v>
       </c>
+      <c r="G538" t="n">
+        <v>1</v>
+      </c>
+      <c r="H538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n"/>
@@ -9461,6 +12693,12 @@
       <c r="F539" t="n">
         <v>239.3111944198608</v>
       </c>
+      <c r="G539" t="n">
+        <v>1</v>
+      </c>
+      <c r="H539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n"/>
@@ -9476,6 +12714,12 @@
       </c>
       <c r="F540" t="n">
         <v>491.0652637481689</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1</v>
+      </c>
+      <c r="H540" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -9497,6 +12741,12 @@
       <c r="F541" t="n">
         <v>225.9953022003174</v>
       </c>
+      <c r="G541" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n"/>
@@ -9513,6 +12763,12 @@
       <c r="F542" t="n">
         <v>243.3582305908203</v>
       </c>
+      <c r="G542" t="n">
+        <v>0.7214470284237726</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n"/>
@@ -9529,6 +12785,12 @@
       <c r="F543" t="n">
         <v>255.2785873413086</v>
       </c>
+      <c r="G543" t="n">
+        <v>1</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.6923076923076923</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n"/>
@@ -9545,6 +12807,12 @@
       <c r="F544" t="n">
         <v>266.8323516845703</v>
       </c>
+      <c r="G544" t="n">
+        <v>1</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n"/>
@@ -9561,6 +12829,12 @@
       <c r="F545" t="n">
         <v>288.6390686035156</v>
       </c>
+      <c r="G545" t="n">
+        <v>1</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.9818181818181818</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n"/>
@@ -9577,6 +12851,12 @@
       <c r="F546" t="n">
         <v>382.0858001708984</v>
       </c>
+      <c r="G546" t="n">
+        <v>1</v>
+      </c>
+      <c r="H546" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n"/>
@@ -9592,6 +12872,12 @@
       </c>
       <c r="F547" t="n">
         <v>762.3147964477539</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1</v>
+      </c>
+      <c r="H547" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -9613,6 +12899,12 @@
       <c r="F548" t="n">
         <v>75.12402534484863</v>
       </c>
+      <c r="G548" t="n">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.4814814814814815</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n"/>
@@ -9629,6 +12921,12 @@
       <c r="F549" t="n">
         <v>86.80915832519531</v>
       </c>
+      <c r="G549" t="n">
+        <v>0.8143121693121693</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.5081967213114754</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n"/>
@@ -9645,6 +12943,12 @@
       <c r="F550" t="n">
         <v>94.78884935379028</v>
       </c>
+      <c r="G550" t="n">
+        <v>1</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.9658045977011495</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n"/>
@@ -9661,6 +12965,12 @@
       <c r="F551" t="n">
         <v>104.2631864547729</v>
       </c>
+      <c r="G551" t="n">
+        <v>1</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.9807692307692307</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n"/>
@@ -9677,6 +12987,12 @@
       <c r="F552" t="n">
         <v>121.5475797653198</v>
       </c>
+      <c r="G552" t="n">
+        <v>1</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n"/>
@@ -9693,6 +13009,12 @@
       <c r="F553" t="n">
         <v>167.5473213195801</v>
       </c>
+      <c r="G553" t="n">
+        <v>1</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n"/>
@@ -9708,6 +13030,12 @@
       </c>
       <c r="F554" t="n">
         <v>525.9082317352295</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -9727,7 +13055,13 @@
         <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>272.6418972015381</v>
+        <v>232.6967716217041</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -9743,7 +13077,13 @@
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>310.9642624855042</v>
+        <v>244.4126963615417</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.04090909090909101</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.0145161290322581</v>
       </c>
     </row>
     <row r="557">
@@ -9759,7 +13099,13 @@
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>377.9923319816589</v>
+        <v>301.4641404151917</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.8112331081081081</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.4332986832986833</v>
       </c>
     </row>
     <row r="558">
@@ -9775,7 +13121,13 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>437.527060508728</v>
+        <v>360.3579998016357</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.6145104895104896</v>
       </c>
     </row>
     <row r="559">
@@ -9791,7 +13143,13 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>551.5826344490051</v>
+        <v>407.3894023895264</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="560">
@@ -9807,7 +13165,13 @@
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>979.1303873062126</v>
+        <v>502.5879979133605</v>
+      </c>
+      <c r="G560" t="n">
+        <v>1</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.9429276315789472</v>
       </c>
     </row>
     <row r="561">
@@ -9823,7 +13187,13 @@
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>1530.962467193604</v>
+        <v>620.9404468536377</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1</v>
+      </c>
+      <c r="H561" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithm_tester/data_autosave/real_database_comparison.xlsx
+++ b/Algorithm_tester/data_autosave/real_database_comparison.xlsx
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>449.2678642272949</v>
+        <v>473.2589721679688</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>455.2164673805237</v>
+        <v>507.0305585861206</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>470.3037738800049</v>
+        <v>672.3466515541077</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>524.7342586517334</v>
+        <v>727.0430326461792</v>
       </c>
       <c r="G33" t="n">
         <v>0.6964285714285714</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>623.0602860450745</v>
+        <v>746.0289001464844</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>795.4774022102354</v>
+        <v>864.7780656814575</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>893.186092376709</v>
+        <v>880.8329105377197</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>83.648681640625</v>
+        <v>101.2722253799438</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>260.7167363166809</v>
+        <v>325.6262540817261</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>307.9747796058654</v>
+        <v>408.578073978424</v>
       </c>
       <c r="G70" t="n">
         <v>0.1706896551724135</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>320.7621574401855</v>
+        <v>432.3427677154541</v>
       </c>
       <c r="G71" t="n">
         <v>0.3103448275862069</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>7.610082626342773</v>
+        <v>9.634971618652344</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>8.01767110824585</v>
+        <v>11.90927028656006</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>15.76989889144897</v>
+        <v>20.73484659194946</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>18.00274848937988</v>
+        <v>42.24205017089844</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>43.24263334274292</v>
+        <v>74.79268312454224</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>70.02769708633421</v>
+        <v>101.5661597251892</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>74.62167739868164</v>
+        <v>112.6465797424316</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>199.0480422973633</v>
+        <v>333.3365917205811</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>216.249692440033</v>
+        <v>335.7885599136353</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>265.0694847106934</v>
+        <v>352.6906967163086</v>
       </c>
       <c r="G137" t="n">
         <v>0.9584627329192547</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>333.5740566253662</v>
+        <v>449.8480558395386</v>
       </c>
       <c r="G138" t="n">
         <v>0.9827586206896552</v>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>356.111466884613</v>
+        <v>468.2725667953491</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>399.4000911712646</v>
+        <v>545.2590465545653</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>411.6275310516357</v>
+        <v>584.355354309082</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>22.98521995544434</v>
+        <v>33.15544128417969</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>23.4778881072998</v>
+        <v>36.6207480430603</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>27.07415819168091</v>
+        <v>50.86004734039307</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>33.52510929107666</v>
+        <v>56.82849884033203</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>47.59132862091064</v>
+        <v>65.67549705505371</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>71.56505584716794</v>
+        <v>68.92014741897583</v>
       </c>
       <c r="G175" t="n">
         <v>0.9624999999999999</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>83.67919921875</v>
+        <v>70.05214691162109</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>25.50435066223145</v>
+        <v>16.72506332397461</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>26.23283863067627</v>
+        <v>18.6953067779541</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>27.53090858459473</v>
+        <v>28.81044149398804</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>34.18350219726562</v>
+        <v>37.89198398590088</v>
       </c>
       <c r="G208" t="n">
         <v>0.5178821879382889</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>40.71933031082153</v>
+        <v>52.61421203613281</v>
       </c>
       <c r="G209" t="n">
         <v>0.9214901477832512</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>83.58218669891349</v>
+        <v>222.1382975578305</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>117.4447536468506</v>
+        <v>349.463939666748</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>3.598880767822266</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>8.295178413391113</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>3.392338752746582</v>
+        <v>9.53376293182373</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>8.514583110809326</v>
+        <v>10.05858182907104</v>
       </c>
       <c r="G244" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>14.04286623001098</v>
+        <v>15.08040428161621</v>
       </c>
       <c r="G245" t="n">
         <v>0.6620689655172407</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>16.53313636779785</v>
+        <v>15.7923698425293</v>
       </c>
       <c r="G246" t="n">
         <v>0.9310344827586207</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>3.041982650756836</v>
+        <v>4.53639030456543</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>4.270327091217041</v>
+        <v>6.079626083374023</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>6.913959980010986</v>
+        <v>8.040904998779297</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>8.066177368164062</v>
+        <v>9.339213371276855</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>13.71598243713379</v>
+        <v>14.96833562850952</v>
       </c>
       <c r="G279" t="n">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>15.43868780136108</v>
+        <v>18.06657314300537</v>
       </c>
       <c r="G280" t="n">
         <v>0.01896551724137927</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>16.50309562683105</v>
+        <v>19.02937889099121</v>
       </c>
       <c r="G281" t="n">
         <v>0.03448275862068965</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>48.31337928771973</v>
+        <v>40.66205024719238</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>48.81527423858643</v>
+        <v>43.96588802337646</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>52.18678712844849</v>
+        <v>59.2692494392395</v>
       </c>
       <c r="G312" t="n">
         <v>0.5489130434782609</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>64.13483619689941</v>
+        <v>74.21457767486572</v>
       </c>
       <c r="G313" t="n">
         <v>0.75</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>65.22417068481445</v>
+        <v>88.94813060760498</v>
       </c>
       <c r="G314" t="n">
         <v>0.79047976011994</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>82.15154409408566</v>
+        <v>146.2499022483825</v>
       </c>
       <c r="G315" t="n">
         <v>0.9024193548387096</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>93.98770332336426</v>
+        <v>170.6409454345703</v>
       </c>
       <c r="G316" t="n">
         <v>0.9545454545454546</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>5.041599273681641</v>
       </c>
       <c r="G345" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>5.772662162780762</v>
       </c>
       <c r="G346" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="n">
-        <v>6.017386913299561</v>
+        <v>7.713854312896729</v>
       </c>
       <c r="G347" t="n">
         <v>0.6092980295566502</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>7.344603538513184</v>
+        <v>7.993698120117188</v>
       </c>
       <c r="G348" t="n">
         <v>0.875</v>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>10.81645488739014</v>
+        <v>9.370386600494385</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>15.88191986083984</v>
+        <v>16.01730585098267</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>16.01195335388184</v>
+        <v>16.48926734924316</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>4.061579704284668</v>
+        <v>3.662526607513428</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F383" t="n">
-        <v>6.874799728393555</v>
+        <v>8.046388626098633</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="F384" t="n">
-        <v>9.878933429718018</v>
+        <v>8.676350116729736</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="n">
-        <v>11.10649108886719</v>
+        <v>10.00897884368896</v>
       </c>
       <c r="G385" t="n">
         <v>0.9624999999999999</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>11.70730590820312</v>
+        <v>10.29586791992188</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="n">
-        <v>10.65577268600464</v>
+        <v>12.79209852218628</v>
       </c>
       <c r="G416" t="n">
         <v>0</v>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="F417" t="n">
-        <v>24.97708797454834</v>
+        <v>31.01474046707153</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="F418" t="n">
-        <v>34.10398960113525</v>
+        <v>39.22808170318604</v>
       </c>
       <c r="G418" t="n">
         <v>0.6304347826086957</v>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>121.3383674621582</v>
+        <v>72.36778736114502</v>
       </c>
       <c r="G419" t="n">
         <v>0.9596774193548387</v>
@@ -9989,7 +9989,7 @@
         <v>0.5499999999999989</v>
       </c>
       <c r="F420" t="n">
-        <v>287.0335340499876</v>
+        <v>191.738224029541</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="F421" t="n">
-        <v>350.6896495819092</v>
+        <v>219.0546989440918</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>20.4460620880127</v>
+        <v>22.91059494018555</v>
       </c>
       <c r="G450" t="n">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>22.09926843643188</v>
+        <v>22.94224500656128</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>26.49319171905518</v>
+        <v>27.09120512008667</v>
       </c>
       <c r="G452" t="n">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="F453" t="n">
-        <v>31.16965293884277</v>
+        <v>36.63945198059082</v>
       </c>
       <c r="G453" t="n">
         <v>0.5</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="F454" t="n">
-        <v>44.08711194992065</v>
+        <v>50.99308490753174</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>131.7822337150572</v>
+        <v>190.881597995758</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="F456" t="n">
-        <v>193.5701370239258</v>
+        <v>207.3073387145996</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="F485" t="n">
-        <v>16.03507995605469</v>
+        <v>12.30263710021973</v>
       </c>
       <c r="G485" t="n">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>16.03572368621826</v>
+        <v>13.17306756973267</v>
       </c>
       <c r="G486" t="n">
         <v>0</v>
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>16.51632785797119</v>
+        <v>21.68565988540649</v>
       </c>
       <c r="G487" t="n">
         <v>0.96777950310559</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>22.40443229675293</v>
+        <v>23.93829822540283</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>24.31690692901611</v>
+        <v>25.16293525695801</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>62.5585556030273</v>
+        <v>30.24462461471557</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>80.49845695495605</v>
+        <v>32.64284133911133</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
-        <v>65.94133377075195</v>
+        <v>102.527379989624</v>
       </c>
       <c r="G520" t="n">
         <v>0</v>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>66.07834100723267</v>
+        <v>107.3583602905273</v>
       </c>
       <c r="G521" t="n">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>66.73687696456909</v>
+        <v>119.4368004798889</v>
       </c>
       <c r="G522" t="n">
         <v>0.9288793103448276</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="F523" t="n">
-        <v>81.46262168884277</v>
+        <v>137.0326280593872</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -12349,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>115.2452230453491</v>
+        <v>177.2399544715881</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>231.198227405548</v>
+        <v>250.5567669868469</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>293.9643859863281</v>
+        <v>253.9701461791992</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>509.9363327026367</v>
+        <v>653.5487174987793</v>
       </c>
       <c r="G555" t="n">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>516.2836194038391</v>
+        <v>680.7798981666565</v>
       </c>
       <c r="G556" t="n">
         <v>0</v>
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>560.4355931282043</v>
+        <v>776.4614224433899</v>
       </c>
       <c r="G557" t="n">
         <v>0.7760093167701864</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>620.0437545776367</v>
+        <v>918.9643859863281</v>
       </c>
       <c r="G558" t="n">
         <v>0.8297101449275363</v>
@@ -13143,7 +13143,7 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>711.2365961074829</v>
+        <v>1015.517115592957</v>
       </c>
       <c r="G559" t="n">
         <v>0.892741935483871</v>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>735.5216860771179</v>
+        <v>1063.24657201767</v>
       </c>
       <c r="G560" t="n">
         <v>0.9795454545454545</v>
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>744.3516254425049</v>
+        <v>1097.378969192505</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>

--- a/Algorithm_tester/data_autosave/real_database_comparison.xlsx
+++ b/Algorithm_tester/data_autosave/real_database_comparison.xlsx
@@ -507,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3172413793103449</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>171.539306640625</v>
+        <v>218.4154987335205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1900826446280992</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="3">
@@ -529,19 +529,19 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.898954248366013</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>211.4377737045288</v>
+        <v>239.0162348747253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.868421052631579</v>
+        <v>0.9374762808349145</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3148606811145511</v>
+        <v>0.943343653250774</v>
       </c>
     </row>
     <row r="4">
@@ -551,19 +551,19 @@
         <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9438202247191011</v>
+        <v>0.9661764705882353</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>248.3347058296204</v>
+        <v>254.8245787620544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9622641509433962</v>
+        <v>0.9701286764705882</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.969208211143695</v>
       </c>
     </row>
     <row r="5">
@@ -573,19 +573,19 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9833287024173382</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>274.2921113967896</v>
+        <v>266.7607069015503</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9893617021276595</v>
       </c>
     </row>
     <row r="6">
@@ -595,13 +595,13 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>0.990990990990991</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>304.2297959327698</v>
+        <v>297.7429032325745</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -617,13 +617,13 @@
         <v>0.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9969026548672566</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>370.6404089927673</v>
+        <v>315.1599884033203</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>820.9195137023926</v>
+        <v>381.4077377319336</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>126.2733936309814</v>
+        <v>163.6168956756592</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09375</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="10">
@@ -687,19 +687,19 @@
         <v>0.05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9835787718810781</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>158.5655570030212</v>
+        <v>165.4318571090698</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9696496212121213</v>
       </c>
     </row>
     <row r="11">
@@ -709,19 +709,19 @@
         <v>0.25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>163.5709404945374</v>
+        <v>168.0300831794739</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9764605785592739</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +731,13 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>170.6489324569702</v>
+        <v>170.5377101898193</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -753,13 +753,13 @@
         <v>0.75</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>183.0564737319946</v>
+        <v>174.4974255561829</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>218.9686298370361</v>
+        <v>182.0321202278137</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>491.8942451477051</v>
+        <v>189.7201538085938</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>188.7049674987793</v>
+        <v>207.2126865386963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04098360655737705</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="17">
@@ -845,19 +845,19 @@
         <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4103922567498726</v>
+        <v>0.5090604026845638</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>203.0534267425537</v>
+        <v>224.2296695709229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7195789473684211</v>
+        <v>0.8663636363636364</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2970439189189189</v>
+        <v>0.4401328076364391</v>
       </c>
     </row>
     <row r="18">
@@ -867,19 +867,19 @@
         <v>0.25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6712328767123288</v>
+        <v>0.7064765300059418</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>225.0454425811768</v>
+        <v>230.6221723556519</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9784921369102683</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5362318840579711</v>
+        <v>0.6571316614420062</v>
       </c>
     </row>
     <row r="19">
@@ -889,13 +889,13 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>242.2521114349365</v>
+        <v>243.1702613830566</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -911,13 +911,13 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="n">
-        <v>0.990990990990991</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>255.6629180908203</v>
+        <v>250.0261068344116</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>333.1972122192382</v>
+        <v>256.6043853759766</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>567.2168731689453</v>
+        <v>301.6674518585205</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>78.09734344482422</v>
+        <v>92.09895133972168</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H23" t="n">
-        <v>0.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1003,19 +1003,19 @@
         <v>0.05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8724015651748595</v>
+        <v>0.9447052947052947</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>88.76276016235352</v>
+        <v>92.62281656265259</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.8995908346972177</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1025,16 +1025,16 @@
         <v>0.25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9867139792044891</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>95.30168771743774</v>
+        <v>99.71243143081665</v>
       </c>
       <c r="G25" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>0.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9886348960351286</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>102.7618646621704</v>
+        <v>104.1193008422852</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1069,13 +1069,13 @@
         <v>0.75</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.990279823269514</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>117.6915168762207</v>
+        <v>109.9628806114197</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>164.545726776123</v>
+        <v>112.7936720848083</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>604.3715476989746</v>
+        <v>113.4853363037109</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>473.2589721679688</v>
+        <v>172.0788478851318</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>507.0305585861206</v>
+        <v>190.9536600112915</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0.25</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.2325663716814159</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>672.3466515541077</v>
+        <v>251.0011196136475</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.9100790513833992</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.152418723070897</v>
       </c>
     </row>
     <row r="33">
@@ -1205,19 +1205,19 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3598235294117647</v>
+        <v>0.4155482256596906</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>727.0430326461792</v>
+        <v>289.543628692627</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6964285714285714</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2225368572455951</v>
+        <v>0.2712842712842712</v>
       </c>
     </row>
     <row r="34">
@@ -1227,19 +1227,19 @@
         <v>0.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4578043315907394</v>
+        <v>0.8135964912280702</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>746.0289001464844</v>
+        <v>331.144392490387</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.321875</v>
+        <v>0.726010101010101</v>
       </c>
     </row>
     <row r="35">
@@ -1249,19 +1249,19 @@
         <v>0.95</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7395161290322576</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>864.7780656814575</v>
+        <v>453.830623626709</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6761904761904757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1271,19 +1271,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9354838709677419</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>880.8329105377197</v>
+        <v>625.4055500030518</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8787878787878788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>91.51220321655273</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>0.05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3873440285204992</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>85.36499738693237</v>
+        <v>98.14330339431763</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2406944444444445</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1345,16 +1345,16 @@
         <v>0.25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8941176470588236</v>
+        <v>0.9205192034139402</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>100.7318496704102</v>
+        <v>102.7534008026123</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8553571428571428</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1367,16 +1367,16 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9654761904761905</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.8571758270264</v>
+        <v>107.2064638137817</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9332591768631813</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1389,16 +1389,16 @@
         <v>0.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9819776714513556</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>124.3176460266113</v>
+        <v>121.9034790992737</v>
       </c>
       <c r="G41" t="n">
-        <v>0.96875</v>
+        <v>0.9645935960591133</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.95</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>153.5950183868408</v>
+        <v>128.6594867706299</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1433,16 +1433,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>371.3607788085938</v>
+        <v>150.8779525756836</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>43.68686676025391</v>
+        <v>64.46123123168945</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="45">
@@ -1481,19 +1481,19 @@
         <v>0.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9516825396825397</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>62.81991004943848</v>
+        <v>65.39555788040161</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8599667774086379</v>
+        <v>0.9341767881241565</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1503,16 +1503,16 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>64.81379270553589</v>
+        <v>66.7843222618103</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -1525,13 +1525,13 @@
         <v>0.5</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>68.49730014801025</v>
+        <v>67.95370578765869</v>
       </c>
       <c r="G47" t="n">
         <v>0.9722222222222222</v>
@@ -1547,16 +1547,16 @@
         <v>0.75</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9889492529941968</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>78.67467403411865</v>
+        <v>69.95600461959839</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -1569,16 +1569,16 @@
         <v>0.95</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>98.59097003936762</v>
+        <v>87.18731403350829</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -1591,13 +1591,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>248.8036155700684</v>
+        <v>94.28524971008301</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>63.41023445129395</v>
+        <v>82.3110818862915</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
+        <v>0.6186224489795918</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>94.65742111206055</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.5</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>91.51506423950195</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.3770491803278688</v>
-      </c>
       <c r="H53" t="n">
-        <v>0.8</v>
+        <v>0.8516483516483516</v>
       </c>
     </row>
     <row r="54">
@@ -1683,16 +1683,16 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8505747126436781</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>95.63827514648438</v>
+        <v>95.64447402954102</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8307692307692308</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -1705,16 +1705,16 @@
         <v>0.75</v>
       </c>
       <c r="D55" t="n">
-        <v>0.975</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>101.5000343322754</v>
+        <v>96.77839279174805</v>
       </c>
       <c r="G55" t="n">
-        <v>0.96</v>
+        <v>0.9578900709219859</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -1727,16 +1727,16 @@
         <v>0.95</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9911504424778761</v>
+        <v>0.9873575949367089</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>142.8889751434326</v>
+        <v>101.3752698898315</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9773715415019762</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -1749,13 +1749,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.9918699186991869</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>265.0561332702637</v>
+        <v>124.8164176940918</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1775,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>36.90481185913086</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1797,16 +1797,16 @@
         <v>0.05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.9349197431781702</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>35.86342334747314</v>
+        <v>36.932373046875</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7551247165532879</v>
+        <v>0.8820237787542</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -1819,16 +1819,16 @@
         <v>0.25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.983858764186633</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>38.86032104492188</v>
+        <v>40.86899757385254</v>
       </c>
       <c r="G60" t="n">
-        <v>0.95</v>
+        <v>0.9682306940371457</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>41.92471504211426</v>
+        <v>42.8842306137085</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9743421052631579</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -1863,16 +1863,16 @@
         <v>0.75</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9902912621359223</v>
+        <v>0.9878774356686003</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>49.28994178771973</v>
+        <v>44.23385858535767</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.9766057585825028</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -1885,16 +1885,16 @@
         <v>0.95</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9886169818316648</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>72.81374931335449</v>
+        <v>47.30191230773926</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>34310.37449836731</v>
+        <v>47.7445125579834</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>101.2722253799438</v>
+        <v>77.75890827178955</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2021,19 +2021,19 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>325.6262540817261</v>
+        <v>111.2293004989624</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.6766666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -2043,19 +2043,19 @@
         <v>0.95</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2474999999999995</v>
+        <v>0.9770535241123475</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>408.578073978424</v>
+        <v>151.3265013694763</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1706896551724135</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4499999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2065,19 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>432.3427677154541</v>
+        <v>215.8746719360352</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3103448275862069</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2095,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3716814159292036</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2.825736999511719</v>
+        <v>8.657455444335938</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8454545454545455</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2282608695652174</v>
+        <v>0.2717391304347826</v>
       </c>
     </row>
     <row r="73">
@@ -2117,19 +2117,19 @@
         <v>0.05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.465392765801973</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>7.102513313293457</v>
+        <v>8.956778049468994</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.303404547726137</v>
       </c>
     </row>
     <row r="74">
@@ -2139,19 +2139,19 @@
         <v>0.25</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5426356589147286</v>
+        <v>0.5387387387387388</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>8.638679981231689</v>
+        <v>9.436905384063721</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3723404255319149</v>
+        <v>0.3686868686868687</v>
       </c>
     </row>
     <row r="75">
@@ -2161,19 +2161,19 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.5882244370616464</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>10.34903526306152</v>
+        <v>10.38753986358643</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4268292682926829</v>
+        <v>0.4166563773305346</v>
       </c>
     </row>
     <row r="76">
@@ -2183,19 +2183,19 @@
         <v>0.75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6616541353383458</v>
+        <v>0.6533640114249445</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>15.75404405593872</v>
+        <v>10.80536842346191</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4943820224719101</v>
+        <v>0.4851858345021038</v>
       </c>
     </row>
     <row r="77">
@@ -2205,19 +2205,19 @@
         <v>0.95</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7536231884057971</v>
+        <v>0.7432290901972299</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>48.25725555419917</v>
+        <v>12.54963874816895</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6049265605875151</v>
+        <v>0.5924331103678929</v>
       </c>
     </row>
     <row r="78">
@@ -2227,19 +2227,19 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9489795918367347</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>115.553617477417</v>
+        <v>31.91518783569336</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="79">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.3258426966292135</v>
       </c>
     </row>
     <row r="80">
@@ -2275,19 +2275,19 @@
         <v>0.05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5122005883176916</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>4.234480857849121</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.3442676767676768</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +2297,19 @@
         <v>0.25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5588357877188107</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1081228256225586</v>
+        <v>5.937874317169189</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3877673796791444</v>
       </c>
     </row>
     <row r="82">
@@ -2319,19 +2319,19 @@
         <v>0.5</v>
       </c>
       <c r="D82" t="n">
-        <v>0.59375</v>
+        <v>0.5943200931556476</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>6.307601928710938</v>
+        <v>6.279349327087402</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4227998952331063</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2341,19 @@
         <v>0.75</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6355140186915887</v>
+        <v>0.6318038686459739</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>9.748399257659912</v>
+        <v>6.702661514282227</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4657534246575342</v>
+        <v>0.4617788461538462</v>
       </c>
     </row>
     <row r="84">
@@ -2363,19 +2363,19 @@
         <v>0.95</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6618705035971223</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>23.48835468292236</v>
+        <v>7.116210460662842</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5</v>
+        <v>0.4946236559139785</v>
       </c>
     </row>
     <row r="85">
@@ -2385,19 +2385,19 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>97.73993492126465</v>
+        <v>8.136749267578125</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="86">
@@ -2433,19 +2433,19 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4695652173913044</v>
+        <v>0.4940946221919673</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>4.316496849060059</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.9546195652173913</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3105312208760485</v>
+        <v>0.3281161578555473</v>
       </c>
     </row>
     <row r="88">
@@ -2455,19 +2455,19 @@
         <v>0.25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6058970099667773</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2.044439315795898</v>
+        <v>7.222175598144531</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4395604395604396</v>
+        <v>0.4413857677902622</v>
       </c>
     </row>
     <row r="89">
@@ -2477,19 +2477,19 @@
         <v>0.5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.6950354609929078</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>7.715463638305664</v>
+        <v>7.735013961791992</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5326086956521739</v>
       </c>
     </row>
     <row r="90">
@@ -2499,19 +2499,19 @@
         <v>0.75</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.7517787757985568</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>17.01879501342773</v>
+        <v>8.184552192687988</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6219512195121951</v>
+        <v>0.6060405643738977</v>
       </c>
     </row>
     <row r="91">
@@ -2521,19 +2521,19 @@
         <v>0.95</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9073310423825888</v>
+        <v>0.899702646446625</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>29.80804443359374</v>
+        <v>10.31527519226074</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.8202346041055718</v>
       </c>
     </row>
     <row r="92">
@@ -2543,19 +2543,19 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>267.0910358428955</v>
+        <v>27.68635749816895</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0.9310344827586207</v>
       </c>
     </row>
     <row r="93">
@@ -2569,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462962962962963</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4.529237747192383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8817204301075269</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3012048192771085</v>
+        <v>0.3647058823529412</v>
       </c>
     </row>
     <row r="94">
@@ -2591,19 +2591,19 @@
         <v>0.05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.553215892053973</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>3.490233421325684</v>
+        <v>4.549503326416016</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3824167257264351</v>
       </c>
     </row>
     <row r="95">
@@ -2613,19 +2613,19 @@
         <v>0.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.6227214280311625</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>4.081606864929199</v>
+        <v>4.605114459991455</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.45</v>
+        <v>0.4521634615384615</v>
       </c>
     </row>
     <row r="96">
@@ -2635,19 +2635,19 @@
         <v>0.5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6722689075630253</v>
+        <v>0.666574048346763</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>4.827260971069336</v>
+        <v>4.80353832244873</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5063291139240507</v>
+        <v>0.4999218627910611</v>
       </c>
     </row>
     <row r="97">
@@ -2657,19 +2657,19 @@
         <v>0.75</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7230769230769231</v>
+        <v>0.6937380801017164</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>5.093991756439209</v>
+        <v>4.939556121826172</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5662650602409639</v>
+        <v>0.5310871183916605</v>
       </c>
     </row>
     <row r="98">
@@ -2679,19 +2679,19 @@
         <v>0.95</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8492953582339606</v>
+        <v>0.8004379562043796</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>6.979465484619141</v>
+        <v>4.972267150878906</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7380654761904761</v>
+        <v>0.6672764227642276</v>
       </c>
     </row>
     <row r="99">
@@ -2701,19 +2701,19 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.8029197080291971</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>47.22189903259277</v>
+        <v>4.990100860595703</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0.6707317073170732</v>
       </c>
     </row>
     <row r="100">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>9.634971618652344</v>
+        <v>5.225181579589844</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2749,19 +2749,19 @@
         <v>0.05</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.1720634920634921</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>11.90927028656006</v>
+        <v>9.687578678131104</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.6896634615384616</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.09413006756756757</v>
       </c>
     </row>
     <row r="102">
@@ -2771,19 +2771,19 @@
         <v>0.25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5385802469135803</v>
+        <v>0.4342755637936361</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>20.73484659194946</v>
+        <v>12.34829425811768</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3685367946792534</v>
+        <v>0.2773644388398487</v>
       </c>
     </row>
     <row r="103">
@@ -2793,19 +2793,19 @@
         <v>0.5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5783972125435539</v>
+        <v>0.5292111843600819</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>42.24205017089844</v>
+        <v>18.17548274993896</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.406896551724138</v>
+        <v>0.3626808100289296</v>
       </c>
     </row>
     <row r="104">
@@ -2815,19 +2815,19 @@
         <v>0.75</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7515216068167986</v>
+        <v>0.6284053156146179</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>74.79268312454224</v>
+        <v>62.39724159240723</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6019813519813519</v>
+        <v>0.4612332112332113</v>
       </c>
     </row>
     <row r="105">
@@ -2837,19 +2837,19 @@
         <v>0.95</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8567857142857142</v>
+        <v>0.7909208261617898</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>101.5661597251892</v>
+        <v>115.1219725608825</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.7508158508158507</v>
+        <v>0.6546666666666665</v>
       </c>
     </row>
     <row r="106">
@@ -2859,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>112.6465797424316</v>
+        <v>280.9844017028809</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0.7948717948717948</v>
+        <v>0.8703703703703703</v>
       </c>
     </row>
     <row r="107">
@@ -2889,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>100.7542610168457</v>
+        <v>120.1469898223877</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.90625</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="108">
@@ -2911,19 +2911,19 @@
         <v>0.05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9568455134135061</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>110.7034921646118</v>
+        <v>126.6609072685242</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9285753880266076</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9767441860465116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2933,16 +2933,16 @@
         <v>0.25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.975</v>
+        <v>0.9833189531205062</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>129.6276450157166</v>
+        <v>129.8690438270569</v>
       </c>
       <c r="G109" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.96875</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -2955,16 +2955,16 @@
         <v>0.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9879518072289156</v>
+        <v>0.9886348960351286</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>141.6233777999878</v>
+        <v>139.122486114502</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9782505910165484</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>156.5852761268616</v>
+        <v>151.5901684761047</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>204.0047764778137</v>
+        <v>160.8702301979065</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>8048.917531967163</v>
+        <v>207.6914310455322</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3047,19 +3047,19 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>67.78168678283691</v>
+        <v>88.80209922790527</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H114" t="n">
-        <v>0.7192982456140351</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="115">
@@ -3069,19 +3069,19 @@
         <v>0.05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9866484018264841</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>76.0562539100647</v>
+        <v>90.45561552047729</v>
       </c>
       <c r="G115" t="n">
-        <v>0.967741935483871</v>
+        <v>0.978700277520814</v>
       </c>
       <c r="H115" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3091,16 +3091,16 @@
         <v>0.25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9975728155339806</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>89.28966522216797</v>
+        <v>93.51158142089844</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9738529014844804</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>94.53332424163818</v>
+        <v>94.5204496383667</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>98.03754091262817</v>
+        <v>95.23075819015503</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>124.8469829559326</v>
+        <v>96.43464088439941</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>316.0357475280762</v>
+        <v>101.6194820404053</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>103.6512851715088</v>
+        <v>127.3915767669678</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3227,19 +3227,19 @@
         <v>0.05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.677987012987013</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>125.1491546630859</v>
+        <v>128.349781036377</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5672727272727273</v>
+        <v>0.633704292527822</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.6996222527472529</v>
       </c>
     </row>
     <row r="123">
@@ -3249,19 +3249,19 @@
         <v>0.25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.910427807486631</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>127.7492046356201</v>
+        <v>130.1908493041992</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8861538461538462</v>
       </c>
       <c r="H123" t="n">
-        <v>0.975</v>
+        <v>0.9857142857142858</v>
       </c>
     </row>
     <row r="124">
@@ -3271,16 +3271,16 @@
         <v>0.5</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>133.6369514465332</v>
+        <v>132.6415538787842</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9764705882352941</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -3293,16 +3293,16 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9903837263060564</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>150.5477428436279</v>
+        <v>142.1577930450439</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.986977845425334</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>189.1092777252197</v>
+        <v>154.2913436889648</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>505.9397220611572</v>
+        <v>246.6797828674316</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3363,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>31.2812328338623</v>
+        <v>51.86057090759277</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8928571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3385,16 +3385,16 @@
         <v>0.05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8739558045440399</v>
+        <v>0.9442398808718019</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>48.86866807937622</v>
+        <v>52.67443656921387</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7761292223095051</v>
+        <v>0.8986468500443656</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -3407,16 +3407,16 @@
         <v>0.25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9897427887118609</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>51.86080932617188</v>
+        <v>54.84789609909058</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9797919167667066</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -3429,16 +3429,16 @@
         <v>0.5</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9896907216494846</v>
+        <v>0.9954128440366973</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>55.84836006164551</v>
+        <v>55.61769008636475</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>63.80409002304077</v>
+        <v>56.8537712097168</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>92.74034500122069</v>
+        <v>62.4674916267395</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>5535.496234893799</v>
+        <v>62.53862380981445</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>333.3365917205811</v>
+        <v>112.4799251556396</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3543,19 +3543,19 @@
         <v>0.05</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>0.2419117647058824</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>335.7885599136353</v>
+        <v>119.5937514305115</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>0.51875</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>0.1376190476190476</v>
       </c>
     </row>
     <row r="137">
@@ -3565,19 +3565,19 @@
         <v>0.25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9610714285714286</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>352.6906967163086</v>
+        <v>150.6067514419556</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9584627329192547</v>
+        <v>0.9312304075235109</v>
       </c>
       <c r="H137" t="n">
-        <v>0.931438127090301</v>
+        <v>0.5027777777777778</v>
       </c>
     </row>
     <row r="138">
@@ -3587,19 +3587,19 @@
         <v>0.5</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>449.8480558395386</v>
+        <v>172.5533008575439</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9827586206896552</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.9613095238095238</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="139">
@@ -3609,19 +3609,19 @@
         <v>0.75</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9815229563269876</v>
+        <v>0.9327586206896552</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>468.2725667953491</v>
+        <v>203.5812139511108</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0.9496794871794871</v>
       </c>
     </row>
     <row r="140">
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>545.2590465545653</v>
+        <v>293.1970834732055</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>584.355354309082</v>
+        <v>434.6280097961426</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -3683,19 +3683,19 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>5.188465118408203</v>
+        <v>11.96837425231934</v>
       </c>
       <c r="G142" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="H142" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="143">
@@ -3705,19 +3705,19 @@
         <v>0.05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.9421850079744817</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>12.96604871749878</v>
+        <v>14.95927572250366</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.9356818181818182</v>
       </c>
       <c r="H143" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.9079301075268817</v>
       </c>
     </row>
     <row r="144">
@@ -3727,19 +3727,19 @@
         <v>0.25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9637206148282098</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>16.9525146484375</v>
+        <v>16.95442199707031</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9663793103448276</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9694602272727273</v>
       </c>
     </row>
     <row r="145">
@@ -3749,19 +3749,19 @@
         <v>0.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.98</v>
+        <v>0.9772609819121447</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>18.97287368774414</v>
+        <v>19.43564414978027</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="146">
@@ -3771,19 +3771,19 @@
         <v>0.75</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9868354430379747</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>22.93896675109863</v>
+        <v>21.87174558639526</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0.9778985507246376</v>
       </c>
     </row>
     <row r="147">
@@ -3793,13 +3793,13 @@
         <v>0.95</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0.990501343712353</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>30.84994554519653</v>
+        <v>24.9238133430481</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>81.91227912902832</v>
+        <v>27.923583984375</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -3841,19 +3841,19 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>7.108211517333984</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.7551020408163265</v>
       </c>
     </row>
     <row r="150">
@@ -3863,19 +3863,19 @@
         <v>0.05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9020731707317073</v>
+        <v>0.9550817341862118</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>9.095370769500732</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9184275184275185</v>
       </c>
     </row>
     <row r="151">
@@ -3885,19 +3885,19 @@
         <v>0.25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9839968774395004</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>6.377220153808594</v>
+        <v>10.96528768539429</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="152">
@@ -3913,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>12.40122318267822</v>
+        <v>11.98649406433105</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9733285917496444</v>
       </c>
     </row>
     <row r="153">
@@ -3929,13 +3929,13 @@
         <v>0.75</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>21.07828855514526</v>
+        <v>13.97663354873657</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>29.45783138275146</v>
+        <v>22.11434841156006</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>58.84265899658203</v>
+        <v>24.48582649230957</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -3999,19 +3999,19 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>0.6713286713286714</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>9.065151214599609</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>0.5052631578947369</v>
       </c>
     </row>
     <row r="157">
@@ -4021,19 +4021,19 @@
         <v>0.05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.6938524590163935</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1.145458221435547</v>
+        <v>10.08522510528564</v>
       </c>
       <c r="G157" t="n">
-        <v>0.725</v>
+        <v>0.9164835164835166</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5282482223658694</v>
+        <v>0.6075526506899056</v>
       </c>
     </row>
     <row r="158">
@@ -4043,19 +4043,19 @@
         <v>0.25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>10.08343696594238</v>
+        <v>13.94391059875488</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9812937062937063</v>
       </c>
       <c r="H158" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8806818181818181</v>
       </c>
     </row>
     <row r="159">
@@ -4065,19 +4065,19 @@
         <v>0.5</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>19.62876319885254</v>
+        <v>18.16701889038086</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9761904761904762</v>
       </c>
     </row>
     <row r="160">
@@ -4087,13 +4087,13 @@
         <v>0.75</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9927007299270073</v>
+        <v>0.9901951360184562</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>27.72426605224609</v>
+        <v>23.03588390350342</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>33.08029174804687</v>
+        <v>31.73666000366211</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>98.3426570892334</v>
+        <v>39.79825973510742</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4157,19 +4157,19 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>7.981061935424805</v>
       </c>
       <c r="G163" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H163" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.9743589743589743</v>
       </c>
     </row>
     <row r="164">
@@ -4179,19 +4179,19 @@
         <v>0.05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8735825364628611</v>
+        <v>0.9453113553113554</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>6.981611251831055</v>
+        <v>7.989168167114258</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7761292223095051</v>
+        <v>0.9004616619831394</v>
       </c>
       <c r="H164" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9961538461538462</v>
       </c>
     </row>
     <row r="165">
@@ -4201,16 +4201,16 @@
         <v>0.25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.9866396076441738</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>7.9803466796875</v>
+        <v>8.974552154541016</v>
       </c>
       <c r="G165" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.5</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9888875169774046</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -4245,13 +4245,13 @@
         <v>0.75</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0.989792663476874</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>10.96624135971069</v>
+        <v>9.461522102355957</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -4267,13 +4267,13 @@
         <v>0.95</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0.9923423423423423</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>16.3942813873291</v>
+        <v>11.01318597793579</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>92.58913993835449</v>
+        <v>11.38019561767578</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>33.15544128417969</v>
+        <v>9.973049163818359</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>36.6207480430603</v>
+        <v>11.94745302200317</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>50.86004734039307</v>
+        <v>15.95693826675415</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4381,19 +4381,19 @@
         <v>0.5</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>0.2744360902255639</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>56.82849884033203</v>
+        <v>21.94106578826904</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>0.6256038647342995</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>0.1862068965517241</v>
       </c>
     </row>
     <row r="174">
@@ -4403,19 +4403,19 @@
         <v>0.75</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>0.8424899193548387</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>65.67549705505371</v>
+        <v>27.74477005004883</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>0.7400696864111498</v>
       </c>
     </row>
     <row r="175">
@@ -4425,19 +4425,19 @@
         <v>0.95</v>
       </c>
       <c r="D175" t="n">
-        <v>0.8008508508508508</v>
+        <v>0.9777805362462759</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>68.92014741897583</v>
+        <v>39.30773735046387</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9624999999999999</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0.6933333333333332</v>
+        <v>0.9600644122383252</v>
       </c>
     </row>
     <row r="176">
@@ -4447,19 +4447,19 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8148148148148148</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>70.05214691162109</v>
+        <v>83.41193199157715</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4477,19 +4477,19 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2975206611570248</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>4.28462028503418</v>
+        <v>14.98198509216309</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1747572815533981</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4499,16 +4499,16 @@
         <v>0.05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.6730593607305936</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>13.69765996932983</v>
+        <v>15.03386497497559</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.5072916666666667</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
@@ -4521,16 +4521,16 @@
         <v>0.25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9152649285113541</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>14.92857933044434</v>
+        <v>15.51276445388794</v>
       </c>
       <c r="G179" t="n">
-        <v>0.8125</v>
+        <v>0.8451944240645635</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
@@ -4543,16 +4543,16 @@
         <v>0.5</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9874035584947252</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>15.84255695343018</v>
+        <v>15.88940620422363</v>
       </c>
       <c r="G180" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9751228501228502</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>16.93087816238403</v>
+        <v>15.95956087112427</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>19.92630958557129</v>
+        <v>16.18984937667847</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>4190.004587173462</v>
+        <v>18.56613159179688</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -4657,19 +4657,19 @@
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7774061554883476</v>
+        <v>0.880487804878049</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>5.798566341400147</v>
       </c>
       <c r="G185" t="n">
-        <v>0.6358865248226955</v>
+        <v>0.8204545454545457</v>
       </c>
       <c r="H185" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9500000000000002</v>
       </c>
     </row>
     <row r="186">
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>3.101706504821777</v>
+        <v>9.869933128356934</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>10.41579246520996</v>
+        <v>10.41865348815918</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>16.73620939254761</v>
+        <v>11.11906766891479</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -4748,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="F189" t="n">
-        <v>25.69080591201782</v>
+        <v>12.35295534133911</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>602.4112701416016</v>
+        <v>20.61152458190918</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -4815,19 +4815,19 @@
         <v>0.05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.4541889483065953</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>9.376788139343262</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2236559139784946</v>
+        <v>0.2994117647058823</v>
       </c>
       <c r="H192" t="n">
-        <v>0.75</v>
+        <v>0.8910714285714286</v>
       </c>
     </row>
     <row r="193">
@@ -4837,16 +4837,16 @@
         <v>0.25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5611210494931425</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>6.623506546020508</v>
+        <v>13.92900943756104</v>
       </c>
       <c r="G193" t="n">
-        <v>0.4035087719298245</v>
+        <v>0.3899769585253456</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -4859,16 +4859,16 @@
         <v>0.5</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8915662650602409</v>
+        <v>0.88</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>15.26355743408203</v>
+        <v>15.53964614868164</v>
       </c>
       <c r="G194" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -4881,16 +4881,16 @@
         <v>0.75</v>
       </c>
       <c r="D195" t="n">
-        <v>0.989247311827957</v>
+        <v>0.985711369667279</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>23.15449714660645</v>
+        <v>17.08328723907471</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>29.24637794494629</v>
+        <v>20.80354690551758</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>2486.481428146362</v>
+        <v>24.94168281555176</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -4951,19 +4951,19 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>10.21456718444824</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1868131868131868</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="H198" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4973,16 +4973,16 @@
         <v>0.05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.7676520270270271</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>8.379757404327393</v>
+        <v>10.24050712585449</v>
       </c>
       <c r="G199" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.633397129186603</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
@@ -4995,16 +4995,16 @@
         <v>0.25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>9.739041328430176</v>
+        <v>10.5171799659729</v>
       </c>
       <c r="G200" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>10.69891452789307</v>
+        <v>10.7414722442627</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>11.82198524475098</v>
+        <v>10.91086864471436</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>13.99974822998047</v>
+        <v>10.97924709320068</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>2764.303684234619</v>
+        <v>11.02018356323242</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>16.72506332397461</v>
+        <v>9.330034255981445</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>18.6953067779541</v>
+        <v>14.13719654083252</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5153,19 +5153,19 @@
         <v>0.25</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>0.4549441786283892</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>28.81044149398804</v>
+        <v>16.21448993682861</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>0.4097593582887701</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="208">
@@ -5175,19 +5175,19 @@
         <v>0.5</v>
       </c>
       <c r="D208" t="n">
-        <v>0.6609959789669038</v>
+        <v>0.8</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>37.89198398590088</v>
+        <v>17.95148849487305</v>
       </c>
       <c r="G208" t="n">
-        <v>0.5178821879382889</v>
+        <v>0.9245014245014245</v>
       </c>
       <c r="H208" t="n">
-        <v>0.9205685618729097</v>
+        <v>0.7789886660854403</v>
       </c>
     </row>
     <row r="209">
@@ -5197,19 +5197,19 @@
         <v>0.75</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9424242424242424</v>
+        <v>0.925787728026534</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>52.61421203613281</v>
+        <v>19.92738246917725</v>
       </c>
       <c r="G209" t="n">
-        <v>0.9214901477832512</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0.9343715239154615</v>
       </c>
     </row>
     <row r="210">
@@ -5219,13 +5219,13 @@
         <v>0.95</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9918181818181818</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>222.1382975578305</v>
+        <v>37.7814769744873</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>349.463939666748</v>
+        <v>744.5070743560791</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -5271,19 +5271,19 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.8674698795180723</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2621359223300971</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="H212" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="213">
@@ -5293,19 +5293,19 @@
         <v>0.05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.9547829036635007</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>1.995694637298584</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="G213" t="n">
-        <v>0.8165136054421769</v>
+        <v>0.9328557312252964</v>
       </c>
       <c r="H213" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9824324324324325</v>
       </c>
     </row>
     <row r="214">
@@ -5315,16 +5315,16 @@
         <v>0.25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9690721649484536</v>
+        <v>0.9757326007326007</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>2.991914749145508</v>
+        <v>2.993106842041016</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9626068376068375</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
@@ -5337,16 +5337,16 @@
         <v>0.5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9846008054963278</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>3.000974655151367</v>
+        <v>2.995014190673828</v>
       </c>
       <c r="G215" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9793792517006803</v>
       </c>
       <c r="H215" t="n">
         <v>1</v>
@@ -5359,13 +5359,13 @@
         <v>0.75</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0.9880902922032959</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>3.99017333984375</v>
+        <v>3.950595855712891</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>4.989385604858398</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>17.95268058776855</v>
+        <v>3.99017333984375</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.8131868131868132</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="H219" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="220">
@@ -5451,7 +5451,7 @@
         <v>0.05</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9854856154012547</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
@@ -5460,10 +5460,10 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0.96875</v>
+        <v>0.9795484151107251</v>
       </c>
       <c r="H220" t="n">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5473,16 +5473,16 @@
         <v>0.25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1.994073390960693</v>
       </c>
       <c r="G221" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1.997470855712891</v>
+        <v>1.996040344238281</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>2.994537353515625</v>
+        <v>2.732813358306885</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>16.65647029876709</v>
+        <v>2.991461753845215</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>135.3557109832764</v>
+        <v>3.9520263671875</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
@@ -5596,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.5681818181818182</v>
       </c>
     </row>
     <row r="227">
@@ -5609,7 +5609,7 @@
         <v>0.05</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5645484949832775</v>
+        <v>0.7146666666666667</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="H227" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7636199095022624</v>
       </c>
     </row>
     <row r="228">
@@ -5631,19 +5631,19 @@
         <v>0.25</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9345794392523364</v>
+        <v>0.9473035439137134</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1.994490623474121</v>
       </c>
       <c r="G228" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9721362229102167</v>
       </c>
       <c r="H228" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9529914529914529</v>
       </c>
     </row>
     <row r="229">
@@ -5659,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>2.980232238769531</v>
+        <v>2.985239028930664</v>
       </c>
       <c r="G229" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="H229" t="n">
         <v>1</v>
@@ -5675,13 +5675,13 @@
         <v>0.75</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9936305732484076</v>
+        <v>0.9906509392747925</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>3.069162368774414</v>
+        <v>2.991437911987305</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>17.07758903503418</v>
+        <v>2.992892265319824</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>97.16010093688965</v>
+        <v>3.987312316894531</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -5745,19 +5745,19 @@
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.8131868131868132</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>2.990007400512695</v>
       </c>
       <c r="G233" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="H233" t="n">
-        <v>0.9354838709677419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -5767,16 +5767,16 @@
         <v>0.05</v>
       </c>
       <c r="D234" t="n">
-        <v>0.869616368286445</v>
+        <v>0.9439560439560439</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1.992952823638916</v>
+        <v>2.991223335266113</v>
       </c>
       <c r="G234" t="n">
-        <v>0.7693108974358975</v>
+        <v>0.8985224586288416</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -5789,16 +5789,16 @@
         <v>0.25</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>2.98309326171875</v>
+        <v>2.992391586303711</v>
       </c>
       <c r="G235" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9790425531914894</v>
       </c>
       <c r="H235" t="n">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>0.5</v>
       </c>
       <c r="D236" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9901951360184562</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>2.992868423461914</v>
       </c>
       <c r="G236" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9822884012539185</v>
       </c>
       <c r="H236" t="n">
         <v>1</v>
@@ -5833,13 +5833,13 @@
         <v>0.75</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0.9977064220183487</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>3.95435094833374</v>
+        <v>2.993881702423096</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>5.387771129608151</v>
+        <v>2.99532413482666</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>47.87206649780273</v>
+        <v>2.999782562255859</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1.96075439453125</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>3.598880767822266</v>
+        <v>1.994132995605469</v>
       </c>
       <c r="G241" t="n">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>8.295178413391113</v>
+        <v>2.987205982208252</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>9.53376293182373</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -5991,19 +5991,19 @@
         <v>0.75</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>0.8071428571428572</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>10.05858182907104</v>
+        <v>3.246724605560303</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>0.708079268292683</v>
       </c>
     </row>
     <row r="245">
@@ -6013,19 +6013,19 @@
         <v>0.95</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5521978021978018</v>
+        <v>0.9798857609139126</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>15.08040428161621</v>
+        <v>4.97148036956787</v>
       </c>
       <c r="G245" t="n">
-        <v>0.6620689655172407</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0.5030612244897957</v>
+        <v>0.9605799373040751</v>
       </c>
     </row>
     <row r="246">
@@ -6035,19 +6035,19 @@
         <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>15.7923698425293</v>
+        <v>6.981372833251953</v>
       </c>
       <c r="G246" t="n">
-        <v>0.9310344827586207</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0.5510204081632653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>4.986047744750977</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6087,19 +6087,19 @@
         <v>0.05</v>
       </c>
       <c r="D248" t="n">
-        <v>0.6374274661508704</v>
+        <v>0.7420940738772256</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>3.988981246948242</v>
+        <v>4.986608028411865</v>
       </c>
       <c r="G248" t="n">
-        <v>0.46875</v>
+        <v>0.5911422708618331</v>
       </c>
       <c r="H248" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -6109,16 +6109,16 @@
         <v>0.25</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9614135864135864</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>4.98652458190918</v>
+        <v>4.988491535186768</v>
       </c>
       <c r="G249" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9276785714285715</v>
       </c>
       <c r="H249" t="n">
         <v>1</v>
@@ -6131,16 +6131,16 @@
         <v>0.5</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>5.983829498291016</v>
+        <v>5.983710289001465</v>
       </c>
       <c r="G250" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H250" t="n">
         <v>1</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>6.981372833251953</v>
+        <v>6.011128425598145</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>8.979880809783936</v>
+        <v>6.982076168060303</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>31.22425079345703</v>
+        <v>9.246110916137695</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>2.069616317749023</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6267,16 +6267,16 @@
         <v>0.25</v>
       </c>
       <c r="D256" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.7289832746478874</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>3.988504409790039</v>
       </c>
       <c r="G256" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.5735772357723576</v>
       </c>
       <c r="H256" t="n">
         <v>1</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>4.056930541992188</v>
+        <v>4.103779792785645</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>5.98907470703125</v>
+        <v>4.986405372619629</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>19.61793899536133</v>
+        <v>5.984079837799072</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>57.13629722595215</v>
+        <v>6.984710693359375</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>1.987218856811524</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
@@ -6425,19 +6425,19 @@
         <v>0.25</v>
       </c>
       <c r="D263" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1889880952380952</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>3.98564338684082</v>
       </c>
       <c r="G263" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1043557168784029</v>
       </c>
       <c r="H263" t="n">
-        <v>0.875</v>
+        <v>0.9571175950486295</v>
       </c>
     </row>
     <row r="264">
@@ -6447,16 +6447,16 @@
         <v>0.5</v>
       </c>
       <c r="D264" t="n">
-        <v>0.8192771084337349</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>4.984140396118164</v>
+        <v>4.98652458190918</v>
       </c>
       <c r="G264" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H264" t="n">
         <v>1</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>7.609844207763672</v>
+        <v>5.983591079711914</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>21.50473594665527</v>
+        <v>6.982064247131348</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>195.0221061706543</v>
+        <v>15.62595367431641</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>3.988742828369141</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>2.99072265625</v>
+        <v>3.988945484161377</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -6583,16 +6583,16 @@
         <v>0.25</v>
       </c>
       <c r="D270" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.04949494949494949</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>3.988027572631836</v>
+        <v>3.990888595581055</v>
       </c>
       <c r="G270" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.02551679586563307</v>
       </c>
       <c r="H270" t="n">
         <v>1</v>
@@ -6605,16 +6605,16 @@
         <v>0.5</v>
       </c>
       <c r="D271" t="n">
-        <v>0.690282131661442</v>
+        <v>0.7114402451481103</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>4.552245140075684</v>
+        <v>3.991961479187012</v>
       </c>
       <c r="G271" t="n">
-        <v>0.527046783625731</v>
+        <v>0.5574074074074074</v>
       </c>
       <c r="H271" t="n">
         <v>1</v>
@@ -6627,16 +6627,16 @@
         <v>0.75</v>
       </c>
       <c r="D272" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9624819624819625</v>
       </c>
       <c r="E272" t="n">
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>5.119800567626953</v>
+        <v>4.986107349395752</v>
       </c>
       <c r="G272" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9276785714285715</v>
       </c>
       <c r="H272" t="n">
         <v>1</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>8.007729053497314</v>
+        <v>5.16378879547119</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>57.65295028686523</v>
+        <v>5.98454475402832</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>4.53639030456543</v>
+        <v>2.958774566650391</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>6.079626083374023</v>
+        <v>2.991437911987305</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>8.040904998779297</v>
+        <v>3.989279270172119</v>
       </c>
       <c r="G277" t="n">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>9.339213371276855</v>
+        <v>4.986405372619629</v>
       </c>
       <c r="G278" t="n">
         <v>0</v>
@@ -6785,19 +6785,19 @@
         <v>0.75</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>0.7810196560196561</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>14.96833562850952</v>
+        <v>5.984723567962646</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>0.8377403846153846</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>0.796969696969697</v>
       </c>
     </row>
     <row r="280">
@@ -6807,19 +6807,19 @@
         <v>0.95</v>
       </c>
       <c r="D280" t="n">
-        <v>0.03548387096774187</v>
+        <v>0.9855371032163128</v>
       </c>
       <c r="E280" t="n">
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>18.06657314300537</v>
+        <v>8.090531826019285</v>
       </c>
       <c r="G280" t="n">
-        <v>0.01896551724137927</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0.2749999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -6829,19 +6829,19 @@
         <v>1</v>
       </c>
       <c r="D281" t="n">
-        <v>0.06451612903225806</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>19.02937889099121</v>
+        <v>51.86605453491211</v>
       </c>
       <c r="G281" t="n">
-        <v>0.03448275862068965</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -6859,19 +6859,19 @@
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>0.253968253968254</v>
+        <v>0.8764044943820225</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>13.37623596191406</v>
+        <v>25.93207359313965</v>
       </c>
       <c r="G282" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.78</v>
       </c>
       <c r="H282" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="283">
@@ -6881,19 +6881,19 @@
         <v>0.05</v>
       </c>
       <c r="D283" t="n">
-        <v>0.8827731092436975</v>
+        <v>0.9416497633536173</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>23.89886379241943</v>
+        <v>27.29387283325195</v>
       </c>
       <c r="G283" t="n">
-        <v>0.8130826271186441</v>
+        <v>0.8972916666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9824324324324325</v>
       </c>
     </row>
     <row r="284">
@@ -6903,16 +6903,16 @@
         <v>0.25</v>
       </c>
       <c r="D284" t="n">
-        <v>0.96</v>
+        <v>0.9632761816496757</v>
       </c>
       <c r="E284" t="n">
         <v>0</v>
       </c>
       <c r="F284" t="n">
-        <v>27.923583984375</v>
+        <v>27.94742584228516</v>
       </c>
       <c r="G284" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9441823899371069</v>
       </c>
       <c r="H284" t="n">
         <v>1</v>
@@ -6925,16 +6925,16 @@
         <v>0.5</v>
       </c>
       <c r="D285" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>29.92236614227295</v>
+        <v>29.49357032775879</v>
       </c>
       <c r="G285" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9642401021711366</v>
       </c>
       <c r="H285" t="n">
         <v>1</v>
@@ -6947,16 +6947,16 @@
         <v>0.75</v>
       </c>
       <c r="D286" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9851827817434566</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>32.91594982147217</v>
+        <v>31.89218044281006</v>
       </c>
       <c r="G286" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H286" t="n">
         <v>1</v>
@@ -6969,16 +6969,16 @@
         <v>0.95</v>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E287" t="n">
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>44.38823461532591</v>
+        <v>33.62780809402466</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H287" t="n">
         <v>1</v>
@@ -6991,16 +6991,16 @@
         <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>101.4668941497803</v>
+        <v>43.00403594970703</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H288" t="n">
         <v>1</v>
@@ -7017,19 +7017,19 @@
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0.8470588235294118</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="E289" t="n">
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>1.989603042602539</v>
+        <v>13.04149627685547</v>
       </c>
       <c r="G289" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="H289" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7039,16 +7039,16 @@
         <v>0.05</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9835787718810781</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>4.518342018127445</v>
+        <v>16.6657567024231</v>
       </c>
       <c r="G290" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9676881720430108</v>
       </c>
       <c r="H290" t="n">
         <v>1</v>
@@ -7061,16 +7061,16 @@
         <v>0.25</v>
       </c>
       <c r="D291" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="E291" t="n">
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>12.13175058364868</v>
+        <v>18.94211769104004</v>
       </c>
       <c r="G291" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="H291" t="n">
         <v>1</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>20.22814750671387</v>
+        <v>20.53606510162354</v>
       </c>
       <c r="G292" t="n">
         <v>0.9722222222222222</v>
@@ -7105,16 +7105,16 @@
         <v>0.75</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E293" t="n">
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>27.49663591384888</v>
+        <v>22.14813232421875</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="H293" t="n">
         <v>1</v>
@@ -7127,16 +7127,16 @@
         <v>0.95</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>0.9882488167680866</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>32.39959478378296</v>
+        <v>24.51884746551513</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0.9767706131078223</v>
       </c>
       <c r="H294" t="n">
         <v>1</v>
@@ -7149,16 +7149,16 @@
         <v>1</v>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E295" t="n">
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>71.7470645904541</v>
+        <v>31.25762939453125</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H295" t="n">
         <v>1</v>
@@ -7175,19 +7175,19 @@
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E296" t="n">
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>9.052515029907227</v>
+        <v>26.73125267028809</v>
       </c>
       <c r="G296" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="H296" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="297">
@@ -7197,19 +7197,19 @@
         <v>0.05</v>
       </c>
       <c r="D297" t="n">
-        <v>0.4621082621082621</v>
+        <v>0.5175324675324675</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>14.03102874755859</v>
+        <v>27.90064811706543</v>
       </c>
       <c r="G297" t="n">
-        <v>0.3037974683544304</v>
+        <v>0.3491228070175438</v>
       </c>
       <c r="H297" t="n">
-        <v>0.7756272401433691</v>
+        <v>0.8340540540540541</v>
       </c>
     </row>
     <row r="298">
@@ -7219,16 +7219,16 @@
         <v>0.25</v>
       </c>
       <c r="D298" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="E298" t="n">
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>27.44889259338379</v>
+        <v>29.72292900085449</v>
       </c>
       <c r="G298" t="n">
-        <v>0.85</v>
+        <v>0.8830369357045144</v>
       </c>
       <c r="H298" t="n">
         <v>1</v>
@@ -7250,7 +7250,7 @@
         <v>31.16130828857422</v>
       </c>
       <c r="G299" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.96</v>
       </c>
       <c r="H299" t="n">
         <v>1</v>
@@ -7263,16 +7263,16 @@
         <v>0.75</v>
       </c>
       <c r="D300" t="n">
-        <v>0.9866666666666667</v>
+        <v>0.9843711843711844</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>32.33790397644043</v>
+        <v>31.57496452331543</v>
       </c>
       <c r="G300" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H300" t="n">
         <v>1</v>
@@ -7285,16 +7285,16 @@
         <v>0.95</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>44.64240074157714</v>
+        <v>32.17298984527588</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0.9792091836734693</v>
       </c>
       <c r="H301" t="n">
         <v>1</v>
@@ -7307,16 +7307,16 @@
         <v>1</v>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="E302" t="n">
         <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>124.6707439422607</v>
+        <v>35.78400611877441</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="H302" t="n">
         <v>1</v>
@@ -7333,19 +7333,19 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>0.2</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>10.0092887878418</v>
       </c>
       <c r="G303" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="H303" t="n">
-        <v>0.78125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -7355,16 +7355,16 @@
         <v>0.05</v>
       </c>
       <c r="D304" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.933695652173913</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>8.976459503173828</v>
+        <v>10.46262979507446</v>
       </c>
       <c r="G304" t="n">
-        <v>0.7358490566037735</v>
+        <v>0.8800757575757576</v>
       </c>
       <c r="H304" t="n">
         <v>1</v>
@@ -7377,16 +7377,16 @@
         <v>0.25</v>
       </c>
       <c r="D305" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9833198816249664</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>9.981632232666016</v>
+        <v>10.97089052200317</v>
       </c>
       <c r="G305" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9671875</v>
       </c>
       <c r="H305" t="n">
         <v>1</v>
@@ -7399,16 +7399,16 @@
         <v>0.5</v>
       </c>
       <c r="D306" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>10.97273826599121</v>
+        <v>10.97190380096436</v>
       </c>
       <c r="G306" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9725975975975976</v>
       </c>
       <c r="H306" t="n">
         <v>1</v>
@@ -7421,16 +7421,16 @@
         <v>0.75</v>
       </c>
       <c r="D307" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9872595758671708</v>
       </c>
       <c r="E307" t="n">
         <v>0</v>
       </c>
       <c r="F307" t="n">
-        <v>12.96490430831909</v>
+        <v>11.1348032951355</v>
       </c>
       <c r="G307" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9748397435897436</v>
       </c>
       <c r="H307" t="n">
         <v>1</v>
@@ -7443,16 +7443,16 @@
         <v>0.95</v>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>0.9877820349084716</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
       </c>
       <c r="F308" t="n">
-        <v>18.98508071899414</v>
+        <v>12.26965188980102</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0.9758592017738359</v>
       </c>
       <c r="H308" t="n">
         <v>1</v>
@@ -7465,16 +7465,16 @@
         <v>1</v>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E309" t="n">
         <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>170.8016395568848</v>
+        <v>13.9620304107666</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H309" t="n">
         <v>1</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>40.66205024719238</v>
+        <v>21.93403244018555</v>
       </c>
       <c r="G310" t="n">
         <v>0</v>
@@ -7513,19 +7513,19 @@
         <v>0.05</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>43.96588802337646</v>
+        <v>24.0424633026123</v>
       </c>
       <c r="G311" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>0.2110119047619048</v>
       </c>
     </row>
     <row r="312">
@@ -7535,19 +7535,19 @@
         <v>0.25</v>
       </c>
       <c r="D312" t="n">
-        <v>0.7051282051282051</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>59.2692494392395</v>
+        <v>31.90332651138306</v>
       </c>
       <c r="G312" t="n">
-        <v>0.5489130434782609</v>
+        <v>0.6439393939393939</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.5504310344827587</v>
       </c>
     </row>
     <row r="313">
@@ -7557,19 +7557,19 @@
         <v>0.5</v>
       </c>
       <c r="D313" t="n">
-        <v>0.8485714285714285</v>
+        <v>0.782781862745098</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>74.21457767486572</v>
+        <v>36.74328327178955</v>
       </c>
       <c r="G313" t="n">
-        <v>0.75</v>
+        <v>0.8473193473193473</v>
       </c>
       <c r="H313" t="n">
-        <v>0.9791666666666667</v>
+        <v>0.770979020979021</v>
       </c>
     </row>
     <row r="314">
@@ -7579,19 +7579,19 @@
         <v>0.75</v>
       </c>
       <c r="D314" t="n">
-        <v>0.8755177174413253</v>
+        <v>0.9082332761578045</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>88.94813060760498</v>
+        <v>41.2413477897644</v>
       </c>
       <c r="G314" t="n">
-        <v>0.79047976011994</v>
+        <v>0.954004329004329</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0.9252136752136753</v>
       </c>
     </row>
     <row r="315">
@@ -7601,16 +7601,16 @@
         <v>0.95</v>
       </c>
       <c r="D315" t="n">
-        <v>0.9127002288329519</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>146.2499022483825</v>
+        <v>60.51129102706908</v>
       </c>
       <c r="G315" t="n">
-        <v>0.9024193548387096</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>1</v>
@@ -7623,16 +7623,16 @@
         <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
       </c>
       <c r="F316" t="n">
-        <v>170.6409454345703</v>
+        <v>128.5982131958008</v>
       </c>
       <c r="G316" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="H316" t="n">
         <v>1</v>
@@ -7653,19 +7653,19 @@
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>3.951787948608398</v>
       </c>
       <c r="G317" t="n">
-        <v>0</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>0.6136363636363636</v>
       </c>
     </row>
     <row r="318">
@@ -7675,19 +7675,19 @@
         <v>0.05</v>
       </c>
       <c r="D318" t="n">
-        <v>0.8980490523968785</v>
+        <v>0.9487301587301588</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
       </c>
       <c r="F318" t="n">
-        <v>2.991914749145508</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="G318" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.9161094224924012</v>
       </c>
       <c r="H318" t="n">
-        <v>0.9661494252873564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -7697,16 +7697,16 @@
         <v>0.25</v>
       </c>
       <c r="D319" t="n">
-        <v>0.9724770642201835</v>
+        <v>0.9831594634873323</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
       </c>
       <c r="F319" t="n">
-        <v>3.988981246948242</v>
+        <v>4.000425338745117</v>
       </c>
       <c r="G319" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9703654188948306</v>
       </c>
       <c r="H319" t="n">
         <v>1</v>
@@ -7719,16 +7719,16 @@
         <v>0.5</v>
       </c>
       <c r="D320" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9880935506732813</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>4.964470863342285</v>
+        <v>4.972934722900391</v>
       </c>
       <c r="G320" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9789450354609929</v>
       </c>
       <c r="H320" t="n">
         <v>1</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="n">
-        <v>5.013465881347656</v>
+        <v>4.986286163330078</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="F322" t="n">
-        <v>6.982910633087158</v>
+        <v>4.989099502563477</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>28.89132499694824</v>
+        <v>5.981922149658203</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
@@ -7820,10 +7820,10 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H324" t="n">
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -7833,7 +7833,7 @@
         <v>0.05</v>
       </c>
       <c r="D325" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9866484018264841</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="H325" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -7855,16 +7855,16 @@
         <v>0.25</v>
       </c>
       <c r="D326" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.989188231123715</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>2.991378307342529</v>
       </c>
       <c r="G326" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="H326" t="n">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>2.994775772094727</v>
+        <v>2.993464469909668</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>3.99470329284668</v>
+        <v>3.967940807342529</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>17.99522638320922</v>
+        <v>3.988516330718994</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>31.26859664916992</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="E331" t="n">
         <v>0</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>0</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="332">
@@ -7991,7 +7991,7 @@
         <v>0.05</v>
       </c>
       <c r="D332" t="n">
-        <v>0.5275541795665635</v>
+        <v>0.5877450980392157</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
@@ -8000,10 +8000,10 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>0.3696866096866097</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="H332" t="n">
-        <v>0.7175</v>
+        <v>0.7618750000000001</v>
       </c>
     </row>
     <row r="333">
@@ -8013,19 +8013,19 @@
         <v>0.25</v>
       </c>
       <c r="D333" t="n">
-        <v>0.8831168831168831</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2.992153167724609</v>
       </c>
       <c r="G333" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.9046003016591252</v>
       </c>
       <c r="H333" t="n">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -8041,10 +8041,10 @@
         <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>3.983497619628906</v>
+        <v>3.982305526733398</v>
       </c>
       <c r="G334" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="H334" t="n">
         <v>1</v>
@@ -8057,16 +8057,16 @@
         <v>0.75</v>
       </c>
       <c r="D335" t="n">
-        <v>0.9937888198757764</v>
+        <v>0.9905651980418335</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>5.026340484619141</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="H335" t="n">
         <v>1</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="n">
-        <v>19.10538673400879</v>
+        <v>4.986381530761719</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>98.03247451782227</v>
+        <v>6.08372688293457</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -8127,19 +8127,19 @@
         <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="G338" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H338" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -8149,16 +8149,16 @@
         <v>0.05</v>
       </c>
       <c r="D339" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.9409674981103552</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>2.991437911987305</v>
+        <v>3.98942232131958</v>
       </c>
       <c r="G339" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.8927339901477833</v>
       </c>
       <c r="H339" t="n">
         <v>1</v>
@@ -8171,16 +8171,16 @@
         <v>0.25</v>
       </c>
       <c r="D340" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
       </c>
       <c r="F340" t="n">
-        <v>3.988027572631836</v>
+        <v>3.990471363067627</v>
       </c>
       <c r="G340" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9783765032377428</v>
       </c>
       <c r="H340" t="n">
         <v>1</v>
@@ -8193,16 +8193,16 @@
         <v>0.5</v>
       </c>
       <c r="D341" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9895822029300054</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
       </c>
       <c r="F341" t="n">
-        <v>4.002571105957031</v>
+        <v>3.994584083557129</v>
       </c>
       <c r="G341" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.98</v>
       </c>
       <c r="H341" t="n">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>4.989147186279297</v>
+        <v>4.903197288513184</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>7.658147811889632</v>
+        <v>4.964089393615723</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="F344" t="n">
-        <v>83.26125144958496</v>
+        <v>4.9896240234375</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="n">
-        <v>5.041599273681641</v>
+        <v>0</v>
       </c>
       <c r="G345" t="n">
         <v>0</v>
@@ -8307,19 +8307,19 @@
         <v>0.05</v>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E346" t="n">
         <v>0</v>
       </c>
       <c r="F346" t="n">
-        <v>5.772662162780762</v>
+        <v>2.988815307617188</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>0.6036637931034483</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>0.1830929487179487</v>
       </c>
     </row>
     <row r="347">
@@ -8329,19 +8329,19 @@
         <v>0.25</v>
       </c>
       <c r="D347" t="n">
-        <v>0.7564754856614245</v>
+        <v>0.719017094017094</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
       </c>
       <c r="F347" t="n">
-        <v>7.713854312896729</v>
+        <v>3.024518489837646</v>
       </c>
       <c r="G347" t="n">
-        <v>0.6092980295566502</v>
+        <v>0.950595238095238</v>
       </c>
       <c r="H347" t="n">
-        <v>0.9673913043478262</v>
+        <v>0.5696150696150696</v>
       </c>
     </row>
     <row r="348">
@@ -8351,19 +8351,19 @@
         <v>0.5</v>
       </c>
       <c r="D348" t="n">
-        <v>0.9174603174603174</v>
+        <v>0.8651515151515152</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>7.993698120117188</v>
+        <v>4.01914119720459</v>
       </c>
       <c r="G348" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0.7974358974358975</v>
       </c>
     </row>
     <row r="349">
@@ -8373,19 +8373,19 @@
         <v>0.75</v>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>0.9589710884353742</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>9.370386600494385</v>
+        <v>5.020976066589355</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0.9493421052631579</v>
       </c>
     </row>
     <row r="350">
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>16.01730585098267</v>
+        <v>7.971680164337158</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>16.48926734924316</v>
+        <v>25.92921257019043</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -8447,19 +8447,19 @@
         <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>0.4511278195488722</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>2.986669540405273</v>
       </c>
       <c r="G352" t="n">
-        <v>0.2912621359223301</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H352" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="353">
@@ -8469,19 +8469,19 @@
         <v>0.05</v>
       </c>
       <c r="D353" t="n">
-        <v>0.9175499190501889</v>
+        <v>0.9582775919732441</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.994848251342773</v>
+        <v>2.99152135848999</v>
       </c>
       <c r="G353" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H353" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9638569604086845</v>
       </c>
     </row>
     <row r="354">
@@ -8491,19 +8491,19 @@
         <v>0.25</v>
       </c>
       <c r="D354" t="n">
-        <v>0.970873786407767</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>2.991199493408203</v>
+        <v>2.992391586303711</v>
       </c>
       <c r="G354" t="n">
-        <v>0.9647556390977443</v>
+        <v>0.9723767885532592</v>
       </c>
       <c r="H354" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -8519,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="F355" t="n">
-        <v>2.993106842041016</v>
+        <v>2.992987632751465</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -8535,13 +8535,13 @@
         <v>0.75</v>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="E356" t="n">
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>3.989219665527344</v>
+        <v>3.118216991424561</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -8557,13 +8557,13 @@
         <v>0.95</v>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>0.9969026548672566</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>4.987716674804688</v>
+        <v>3.989219665527344</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>37.90163993835449</v>
+        <v>3.990411758422852</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="D359" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0.09375</v>
+        <v>0.98</v>
       </c>
       <c r="H359" t="n">
-        <v>0.6607142857142857</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="360">
@@ -8627,19 +8627,19 @@
         <v>0.05</v>
       </c>
       <c r="D360" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9841009627894873</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>0.9460806846618655</v>
       </c>
       <c r="G360" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.99875</v>
       </c>
     </row>
     <row r="361">
@@ -8649,19 +8649,19 @@
         <v>0.25</v>
       </c>
       <c r="D361" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E361" t="n">
         <v>0</v>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>1.994073390960693</v>
       </c>
       <c r="G361" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -8671,7 +8671,7 @@
         <v>0.5</v>
       </c>
       <c r="D362" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E362" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="F363" t="n">
-        <v>2.992868423461914</v>
+        <v>2.006173133850098</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>16.48238897323608</v>
+        <v>2.991461753845215</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="F365" t="n">
-        <v>36.69357299804688</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="D366" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="H366" t="n">
-        <v>0.2280701754385965</v>
+        <v>0.4805194805194805</v>
       </c>
     </row>
     <row r="367">
@@ -8785,7 +8785,7 @@
         <v>0.05</v>
       </c>
       <c r="D367" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6652173913043478</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -8794,10 +8794,10 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0.5626723223753977</v>
+        <v>0.8074074074074074</v>
       </c>
       <c r="H367" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.5529743812418585</v>
       </c>
     </row>
     <row r="368">
@@ -8807,19 +8807,19 @@
         <v>0.25</v>
       </c>
       <c r="D368" t="n">
-        <v>0.875</v>
+        <v>0.8917290784760664</v>
       </c>
       <c r="E368" t="n">
         <v>0</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>1.991152763366699</v>
       </c>
       <c r="G368" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9809506531204644</v>
       </c>
       <c r="H368" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8554006968641115</v>
       </c>
     </row>
     <row r="369">
@@ -8829,19 +8829,19 @@
         <v>0.5</v>
       </c>
       <c r="D369" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
       </c>
       <c r="F369" t="n">
-        <v>2.073526382446289</v>
+        <v>2.002716064453125</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
       </c>
       <c r="H369" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -8851,13 +8851,13 @@
         <v>0.75</v>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>0.9908256880733946</v>
       </c>
       <c r="E370" t="n">
         <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>3.099679946899414</v>
+        <v>2.990841865539551</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="F371" t="n">
-        <v>17.30747222900389</v>
+        <v>3.989934921264648</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>71.80356979370117</v>
+        <v>4.983901977539062</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -8921,19 +8921,19 @@
         <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.82</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
       </c>
       <c r="F373" t="n">
-        <v>0</v>
+        <v>2.030134201049805</v>
       </c>
       <c r="G373" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H373" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -8943,19 +8943,19 @@
         <v>0.05</v>
       </c>
       <c r="D374" t="n">
-        <v>0.8735825364628611</v>
+        <v>0.9449780219780219</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>1.979351043701172</v>
+        <v>2.811777591705322</v>
       </c>
       <c r="G374" t="n">
-        <v>0.7755406640268048</v>
+        <v>0.8999819689866571</v>
       </c>
       <c r="H374" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -8965,16 +8965,16 @@
         <v>0.25</v>
       </c>
       <c r="D375" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9873861770413495</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>1.995325088500977</v>
+        <v>2.962708473205566</v>
       </c>
       <c r="G375" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
       <c r="H375" t="n">
         <v>1</v>
@@ -8987,13 +8987,13 @@
         <v>0.5</v>
       </c>
       <c r="D376" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.989129150419473</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>2.984285354614258</v>
+        <v>2.965092658996582</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -9009,13 +9009,13 @@
         <v>0.75</v>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>0.9908622908622908</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>2.99382209777832</v>
+        <v>2.989768981933594</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="F378" t="n">
-        <v>4.022359848022461</v>
+        <v>2.991509437561035</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="n">
-        <v>133.7661743164062</v>
+        <v>2.991914749145508</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>1.993870735168457</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>3.662526607513428</v>
+        <v>2.991199493408203</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
@@ -9145,19 +9145,19 @@
         <v>0.5</v>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>0.120926243567753</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
       </c>
       <c r="F383" t="n">
-        <v>8.046388626098633</v>
+        <v>3.057718276977539</v>
       </c>
       <c r="G383" t="n">
-        <v>0</v>
+        <v>0.1143790849673203</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="384">
@@ -9167,19 +9167,19 @@
         <v>0.75</v>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>0.8698924731182796</v>
       </c>
       <c r="E384" t="n">
         <v>0</v>
       </c>
       <c r="F384" t="n">
-        <v>8.676350116729736</v>
+        <v>3.991425037384033</v>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>0.7794858870967742</v>
       </c>
     </row>
     <row r="385">
@@ -9189,19 +9189,19 @@
         <v>0.95</v>
       </c>
       <c r="D385" t="n">
-        <v>0.8937189054726367</v>
+        <v>0.9833564879133092</v>
       </c>
       <c r="E385" t="n">
         <v>0</v>
       </c>
       <c r="F385" t="n">
-        <v>10.00897884368896</v>
+        <v>5.186307430267333</v>
       </c>
       <c r="G385" t="n">
-        <v>0.9624999999999999</v>
+        <v>1</v>
       </c>
       <c r="H385" t="n">
-        <v>0.8475877192982455</v>
+        <v>0.9697695852534561</v>
       </c>
     </row>
     <row r="386">
@@ -9211,19 +9211,19 @@
         <v>1</v>
       </c>
       <c r="D386" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>10.29586791992188</v>
+        <v>7.542610168457031</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
       </c>
       <c r="H386" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -9241,19 +9241,19 @@
         <v>0</v>
       </c>
       <c r="D387" t="n">
-        <v>0.2945736434108527</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
       </c>
       <c r="F387" t="n">
-        <v>4.274129867553711</v>
+        <v>15.40684700012207</v>
       </c>
       <c r="G387" t="n">
-        <v>0.1727272727272727</v>
+        <v>0.88</v>
       </c>
       <c r="H387" t="n">
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -9263,19 +9263,19 @@
         <v>0.05</v>
       </c>
       <c r="D388" t="n">
-        <v>0.9174180327868853</v>
+        <v>0.9609347300564061</v>
       </c>
       <c r="E388" t="n">
         <v>0</v>
       </c>
       <c r="F388" t="n">
-        <v>14.39906358718872</v>
+        <v>15.95743894577026</v>
       </c>
       <c r="G388" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.9307453416149069</v>
       </c>
       <c r="H388" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -9285,16 +9285,16 @@
         <v>0.25</v>
       </c>
       <c r="D389" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="E389" t="n">
         <v>0</v>
       </c>
       <c r="F389" t="n">
-        <v>15.9599781036377</v>
+        <v>16.71463251113892</v>
       </c>
       <c r="G389" t="n">
-        <v>0.9622641509433962</v>
+        <v>0.9694602272727273</v>
       </c>
       <c r="H389" t="n">
         <v>1</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>17.48716831207275</v>
+        <v>17.45617389678955</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>19.09822225570679</v>
+        <v>17.96388626098633</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>24.47737455368042</v>
+        <v>19.4659948348999</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>3513.384819030762</v>
+        <v>19.94752883911133</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -9399,19 +9399,19 @@
         <v>0</v>
       </c>
       <c r="D394" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E394" t="n">
         <v>0</v>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>9.070634841918945</v>
       </c>
       <c r="G394" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="H394" t="n">
-        <v>0.9310344827586207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -9421,19 +9421,19 @@
         <v>0.05</v>
       </c>
       <c r="D395" t="n">
-        <v>0.9841269841269841</v>
+        <v>1</v>
       </c>
       <c r="E395" t="n">
         <v>0</v>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>10.91735363006592</v>
       </c>
       <c r="G395" t="n">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="H395" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -9443,13 +9443,13 @@
         <v>0.25</v>
       </c>
       <c r="D396" t="n">
-        <v>0.9882352941176471</v>
+        <v>1</v>
       </c>
       <c r="E396" t="n">
         <v>0</v>
       </c>
       <c r="F396" t="n">
-        <v>6.064414978027344</v>
+        <v>11.96813583374023</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>12.96281814575195</v>
+        <v>12.9624605178833</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="F398" t="n">
-        <v>20.08187770843506</v>
+        <v>13.31102848052979</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="F399" t="n">
-        <v>27.11124420166016</v>
+        <v>16.54106378555298</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="F400" t="n">
-        <v>3522.200345993042</v>
+        <v>22.51338958740234</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -9557,19 +9557,19 @@
         <v>0</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>0.7088607594936709</v>
       </c>
       <c r="E401" t="n">
         <v>0</v>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>8.050441741943359</v>
       </c>
       <c r="G401" t="n">
-        <v>0</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="402">
@@ -9579,19 +9579,19 @@
         <v>0.05</v>
       </c>
       <c r="D402" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7916117030272281</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
       </c>
       <c r="F402" t="n">
-        <v>1.073789596557617</v>
+        <v>14.37461376190186</v>
       </c>
       <c r="G402" t="n">
-        <v>0.6891954022988506</v>
+        <v>0.8225</v>
       </c>
       <c r="H402" t="n">
-        <v>0.7050802139037433</v>
+        <v>0.7091642228739004</v>
       </c>
     </row>
     <row r="403">
@@ -9601,19 +9601,19 @@
         <v>0.25</v>
       </c>
       <c r="D403" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.957124183006536</v>
       </c>
       <c r="E403" t="n">
         <v>0</v>
       </c>
       <c r="F403" t="n">
-        <v>10.96534729003906</v>
+        <v>16.02089405059814</v>
       </c>
       <c r="G403" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9720279720279721</v>
       </c>
       <c r="H403" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -9623,16 +9623,16 @@
         <v>0.5</v>
       </c>
       <c r="D404" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="E404" t="n">
         <v>0</v>
       </c>
       <c r="F404" t="n">
-        <v>17.69113540649414</v>
+        <v>17.69399642944336</v>
       </c>
       <c r="G404" t="n">
-        <v>0.9836065573770492</v>
+        <v>1</v>
       </c>
       <c r="H404" t="n">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="n">
-        <v>25.82263946533203</v>
+        <v>20.00367641448975</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="F406" t="n">
-        <v>31.81781768798828</v>
+        <v>22.52824306488037</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -9692,10 +9692,10 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F407" t="n">
-        <v>3222.093343734741</v>
+        <v>26.01122856140137</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -9715,19 +9715,19 @@
         <v>0</v>
       </c>
       <c r="D408" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="E408" t="n">
         <v>0</v>
       </c>
       <c r="F408" t="n">
-        <v>0</v>
+        <v>10.9705924987793</v>
       </c>
       <c r="G408" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H408" t="n">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -9737,16 +9737,16 @@
         <v>0.05</v>
       </c>
       <c r="D409" t="n">
-        <v>0.8739558045440399</v>
+        <v>0.9455965181771634</v>
       </c>
       <c r="E409" t="n">
         <v>0</v>
       </c>
       <c r="F409" t="n">
-        <v>8.977413177490234</v>
+        <v>10.97079515457153</v>
       </c>
       <c r="G409" t="n">
-        <v>0.7761292223095051</v>
+        <v>0.9013286713286713</v>
       </c>
       <c r="H409" t="n">
         <v>1</v>
@@ -9759,16 +9759,16 @@
         <v>0.25</v>
       </c>
       <c r="D410" t="n">
-        <v>0.9866666666666667</v>
+        <v>1</v>
       </c>
       <c r="E410" t="n">
         <v>0</v>
       </c>
       <c r="F410" t="n">
-        <v>10.00285148620605</v>
+        <v>10.97142696380615</v>
       </c>
       <c r="G410" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="H410" t="n">
         <v>1</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="n">
-        <v>10.97595691680908</v>
+        <v>10.97309589385986</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="F412" t="n">
-        <v>12.3932957649231</v>
+        <v>11.62552833557129</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="F413" t="n">
-        <v>15.74440002441406</v>
+        <v>12.04109191894531</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="F414" t="n">
-        <v>78639.72449302673</v>
+        <v>12.45450973510742</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="n">
-        <v>12.79209852218628</v>
+        <v>0</v>
       </c>
       <c r="G416" t="n">
         <v>0</v>
@@ -9917,19 +9917,19 @@
         <v>0.25</v>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>0.6205357142857143</v>
       </c>
       <c r="E417" t="n">
         <v>0</v>
       </c>
       <c r="F417" t="n">
-        <v>31.01474046707153</v>
+        <v>15.86449146270752</v>
       </c>
       <c r="G417" t="n">
-        <v>0</v>
+        <v>0.8390322580645162</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>0.4579303675048356</v>
       </c>
     </row>
     <row r="418">
@@ -9939,19 +9939,19 @@
         <v>0.5</v>
       </c>
       <c r="D418" t="n">
-        <v>0.7478882391163093</v>
+        <v>0.8393548387096774</v>
       </c>
       <c r="E418" t="n">
         <v>0</v>
       </c>
       <c r="F418" t="n">
-        <v>39.22808170318604</v>
+        <v>18.94998550415039</v>
       </c>
       <c r="G418" t="n">
-        <v>0.6304347826086957</v>
+        <v>1</v>
       </c>
       <c r="H418" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.7608892921960073</v>
       </c>
     </row>
     <row r="419">
@@ -9961,19 +9961,19 @@
         <v>0.75</v>
       </c>
       <c r="D419" t="n">
-        <v>0.9653583110318169</v>
+        <v>0.9504028896915809</v>
       </c>
       <c r="E419" t="n">
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>72.36778736114502</v>
+        <v>22.84115552902222</v>
       </c>
       <c r="G419" t="n">
-        <v>0.9596774193548387</v>
+        <v>1</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0.9317073170731708</v>
       </c>
     </row>
     <row r="420">
@@ -9986,10 +9986,10 @@
         <v>1</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5499999999999989</v>
+        <v>1</v>
       </c>
       <c r="F420" t="n">
-        <v>191.738224029541</v>
+        <v>47.40848541259759</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="F421" t="n">
-        <v>219.0546989440918</v>
+        <v>662.0008945465088</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -10035,19 +10035,19 @@
         <v>0</v>
       </c>
       <c r="D422" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="E422" t="n">
         <v>0</v>
       </c>
       <c r="F422" t="n">
-        <v>9.785890579223633</v>
+        <v>20.12944221496582</v>
       </c>
       <c r="G422" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="H422" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="423">
@@ -10057,19 +10057,19 @@
         <v>0.05</v>
       </c>
       <c r="D423" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.822093023255814</v>
       </c>
       <c r="E423" t="n">
         <v>0</v>
       </c>
       <c r="F423" t="n">
-        <v>18.65041255950928</v>
+        <v>20.83175182342529</v>
       </c>
       <c r="G423" t="n">
-        <v>0.7731989708404803</v>
+        <v>0.9224342105263158</v>
       </c>
       <c r="H423" t="n">
-        <v>0.6862745098039216</v>
+        <v>0.7596666666666667</v>
       </c>
     </row>
     <row r="424">
@@ -10079,19 +10079,19 @@
         <v>0.25</v>
       </c>
       <c r="D424" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.9665730337078652</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>20.29728889465332</v>
+        <v>21.14361524581909</v>
       </c>
       <c r="G424" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9751984126984127</v>
       </c>
       <c r="H424" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="F425" t="n">
-        <v>21.5909481048584</v>
+        <v>21.53980731964111</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="F426" t="n">
-        <v>22.94206619262695</v>
+        <v>21.91931009292603</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F427" t="n">
-        <v>26.52075290679931</v>
+        <v>22.492516040802</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="F428" t="n">
-        <v>14477.02026367188</v>
+        <v>24.01614189147949</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -10193,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="E429" t="n">
         <v>0</v>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>7.040023803710938</v>
       </c>
       <c r="G429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>0.7884615384615384</v>
       </c>
     </row>
     <row r="430">
@@ -10215,19 +10215,19 @@
         <v>0.05</v>
       </c>
       <c r="D430" t="n">
-        <v>0.9423258958755916</v>
+        <v>0.989210233592881</v>
       </c>
       <c r="E430" t="n">
         <v>0</v>
       </c>
       <c r="F430" t="n">
-        <v>3.082907199859619</v>
+        <v>13.58006000518799</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
       </c>
       <c r="H430" t="n">
-        <v>0.897640306122449</v>
+        <v>0.9786508704061895</v>
       </c>
     </row>
     <row r="431">
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="F431" t="n">
-        <v>10.51169633865356</v>
+        <v>16.7466402053833</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="F432" t="n">
-        <v>17.56846904754639</v>
+        <v>17.6548957824707</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="F433" t="n">
-        <v>24.49220418930054</v>
+        <v>19.08993721008301</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="F434" t="n">
-        <v>31.50472640991211</v>
+        <v>21.01911306381226</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -10328,10 +10328,10 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F435" t="n">
-        <v>357117.9120540619</v>
+        <v>24.10435676574707</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -10373,19 +10373,19 @@
         <v>0.05</v>
       </c>
       <c r="D437" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.2288943488943489</v>
       </c>
       <c r="E437" t="n">
         <v>0</v>
       </c>
       <c r="F437" t="n">
-        <v>4.079055786132812</v>
+        <v>14.57114219665527</v>
       </c>
       <c r="G437" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="H437" t="n">
-        <v>0.2870101503276372</v>
+        <v>0.4061016949152543</v>
       </c>
     </row>
     <row r="438">
@@ -10395,19 +10395,19 @@
         <v>0.25</v>
       </c>
       <c r="D438" t="n">
-        <v>0.6391752577319587</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E438" t="n">
         <v>0</v>
       </c>
       <c r="F438" t="n">
-        <v>11.04187965393066</v>
+        <v>18.52035522460938</v>
       </c>
       <c r="G438" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9356902356902357</v>
       </c>
       <c r="H438" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="439">
@@ -10417,19 +10417,19 @@
         <v>0.5</v>
       </c>
       <c r="D439" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
       </c>
       <c r="F439" t="n">
-        <v>19.70958709716797</v>
+        <v>19.69408988952637</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
       </c>
       <c r="H439" t="n">
-        <v>0.96875</v>
+        <v>0.9661016949152542</v>
       </c>
     </row>
     <row r="440">
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="n">
-        <v>27.9386043548584</v>
+        <v>21.83365821838379</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="n">
-        <v>32.2667121887207</v>
+        <v>24.6403694152832</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -10489,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="F442" t="n">
-        <v>269122.795343399</v>
+        <v>27.9386043548584</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -10509,19 +10509,19 @@
         <v>0</v>
       </c>
       <c r="D443" t="n">
-        <v>0</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E443" t="n">
         <v>0</v>
       </c>
       <c r="F443" t="n">
-        <v>0</v>
+        <v>16.32404327392578</v>
       </c>
       <c r="G443" t="n">
-        <v>0</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -10531,19 +10531,19 @@
         <v>0.05</v>
       </c>
       <c r="D444" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.9485760517799353</v>
       </c>
       <c r="E444" t="n">
         <v>0</v>
       </c>
       <c r="F444" t="n">
-        <v>14.79532718658447</v>
+        <v>16.8122410774231</v>
       </c>
       <c r="G444" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.9066037735849057</v>
       </c>
       <c r="H444" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -10553,13 +10553,13 @@
         <v>0.25</v>
       </c>
       <c r="D445" t="n">
-        <v>0.9887640449438202</v>
+        <v>1</v>
       </c>
       <c r="E445" t="n">
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>15.99133014678955</v>
+        <v>16.96008443832397</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="n">
-        <v>17.19868183135986</v>
+        <v>17.16041564941406</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="n">
-        <v>18.72462034225464</v>
+        <v>17.46129989624023</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>21.58697843551636</v>
+        <v>17.82753467559814</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F449" t="n">
-        <v>2167.285203933716</v>
+        <v>17.94791221618652</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>22.91059494018555</v>
+        <v>0</v>
       </c>
       <c r="G450" t="n">
         <v>0</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>22.94224500656128</v>
+        <v>18.20216178894043</v>
       </c>
       <c r="G451" t="n">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>27.09120512008667</v>
+        <v>20.94858884811401</v>
       </c>
       <c r="G452" t="n">
         <v>0</v>
@@ -10733,19 +10733,19 @@
         <v>0.5</v>
       </c>
       <c r="D453" t="n">
-        <v>0.1151832460732984</v>
+        <v>0.4</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
       </c>
       <c r="F453" t="n">
-        <v>36.63945198059082</v>
+        <v>22.96543121337891</v>
       </c>
       <c r="G453" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H453" t="n">
-        <v>0.0650887573964497</v>
+        <v>0.2667140825035562</v>
       </c>
     </row>
     <row r="454">
@@ -10755,19 +10755,19 @@
         <v>0.75</v>
       </c>
       <c r="D454" t="n">
-        <v>0.4828578501144873</v>
+        <v>0.7516047461583351</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
       </c>
       <c r="F454" t="n">
-        <v>50.99308490753174</v>
+        <v>25.11638402938843</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
       </c>
       <c r="H454" t="n">
-        <v>0.3197981366459627</v>
+        <v>0.6202791461412152</v>
       </c>
     </row>
     <row r="455">
@@ -10777,19 +10777,19 @@
         <v>0.95</v>
       </c>
       <c r="D455" t="n">
-        <v>0.7822100903614453</v>
+        <v>0.9939999999999998</v>
       </c>
       <c r="E455" t="n">
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>190.881597995758</v>
+        <v>33.12631845474241</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
       </c>
       <c r="H455" t="n">
-        <v>0.6891666666666662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -10799,19 +10799,19 @@
         <v>1</v>
       </c>
       <c r="D456" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456" t="n">
-        <v>207.3073387145996</v>
+        <v>172.8610992431641</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
       </c>
       <c r="H456" t="n">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -10829,19 +10829,19 @@
         <v>0</v>
       </c>
       <c r="D457" t="n">
-        <v>0.6266666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>7.978200912475586</v>
       </c>
       <c r="G457" t="n">
-        <v>0.4563106796116505</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H457" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="458">
@@ -10851,19 +10851,19 @@
         <v>0.05</v>
       </c>
       <c r="D458" t="n">
-        <v>0.918918918918919</v>
+        <v>0.9587761674718196</v>
       </c>
       <c r="E458" t="n">
         <v>0</v>
       </c>
       <c r="F458" t="n">
-        <v>6.979703903198242</v>
+        <v>7.979559898376465</v>
       </c>
       <c r="G458" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9361801242236025</v>
       </c>
       <c r="H458" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -10873,16 +10873,16 @@
         <v>0.25</v>
       </c>
       <c r="D459" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9842284739982949</v>
       </c>
       <c r="E459" t="n">
         <v>0</v>
       </c>
       <c r="F459" t="n">
-        <v>7.982730865478516</v>
+        <v>8.198201656341553</v>
       </c>
       <c r="G459" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9727852852852853</v>
       </c>
       <c r="H459" t="n">
         <v>1</v>
@@ -10895,16 +10895,16 @@
         <v>0.5</v>
       </c>
       <c r="D460" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E460" t="n">
         <v>0</v>
       </c>
       <c r="F460" t="n">
-        <v>8.977174758911133</v>
+        <v>8.975863456726074</v>
       </c>
       <c r="G460" t="n">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="H460" t="n">
         <v>1</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="F461" t="n">
-        <v>9.977400302886963</v>
+        <v>9.971141815185547</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="F462" t="n">
-        <v>14.14226293563843</v>
+        <v>9.975183010101318</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="F463" t="n">
-        <v>42.91367530822754</v>
+        <v>11.71517372131348</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -10987,19 +10987,19 @@
         <v>0</v>
       </c>
       <c r="D464" t="n">
-        <v>0.9382716049382716</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="E464" t="n">
         <v>0</v>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>2.08282470703125</v>
       </c>
       <c r="G464" t="n">
-        <v>0.9019607843137255</v>
+        <v>1</v>
       </c>
       <c r="H464" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.975609756097561</v>
       </c>
     </row>
     <row r="465">
@@ -11009,19 +11009,19 @@
         <v>0.05</v>
       </c>
       <c r="D465" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.986995670995671</v>
       </c>
       <c r="E465" t="n">
         <v>0</v>
       </c>
       <c r="F465" t="n">
-        <v>0</v>
+        <v>3.136563301086426</v>
       </c>
       <c r="G465" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="H465" t="n">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -11031,16 +11031,16 @@
         <v>0.25</v>
       </c>
       <c r="D466" t="n">
-        <v>0.9863013698630136</v>
+        <v>1</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
       </c>
       <c r="F466" t="n">
-        <v>0</v>
+        <v>4.99117374420166</v>
       </c>
       <c r="G466" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="H466" t="n">
         <v>1</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>5.969882011413574</v>
+        <v>5.975246429443359</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="F468" t="n">
-        <v>7.052898406982422</v>
+        <v>5.983412265777588</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="F469" t="n">
-        <v>21.08731269836425</v>
+        <v>6.146383285522461</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="F470" t="n">
-        <v>33.89668464660645</v>
+        <v>7.182598114013672</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="D471" t="n">
-        <v>0.3125</v>
+        <v>0.6788990825688074</v>
       </c>
       <c r="E471" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>0.5735294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H471" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.5138888888888888</v>
       </c>
     </row>
     <row r="472">
@@ -11167,19 +11167,19 @@
         <v>0.05</v>
       </c>
       <c r="D472" t="n">
-        <v>0.7563612392880685</v>
+        <v>0.7798373287671233</v>
       </c>
       <c r="E472" t="n">
         <v>0</v>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>4.964184761047363</v>
       </c>
       <c r="G472" t="n">
-        <v>0.8861910241657077</v>
+        <v>0.9291497975708503</v>
       </c>
       <c r="H472" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.655473624503687</v>
       </c>
     </row>
     <row r="473">
@@ -11189,19 +11189,19 @@
         <v>0.25</v>
       </c>
       <c r="D473" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9681818181818183</v>
       </c>
       <c r="E473" t="n">
         <v>0</v>
       </c>
       <c r="F473" t="n">
-        <v>1.621723175048828</v>
+        <v>7.097840309143066</v>
       </c>
       <c r="G473" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="H473" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9795918367346939</v>
       </c>
     </row>
     <row r="474">
@@ -11211,7 +11211,7 @@
         <v>0.5</v>
       </c>
       <c r="D474" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E474" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>7.97724723815918</v>
       </c>
       <c r="G474" t="n">
-        <v>0.9875</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="H474" t="n">
         <v>1</v>
@@ -11233,13 +11233,13 @@
         <v>0.75</v>
       </c>
       <c r="D475" t="n">
-        <v>1</v>
+        <v>0.99329728763573</v>
       </c>
       <c r="E475" t="n">
         <v>0</v>
       </c>
       <c r="F475" t="n">
-        <v>16.12758636474609</v>
+        <v>8.064866065979004</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="F476" t="n">
-        <v>23.85668754577637</v>
+        <v>10.01355648040771</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="F477" t="n">
-        <v>41.5794849395752</v>
+        <v>17.06981658935547</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="D478" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E478" t="n">
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>3.534078598022461</v>
       </c>
       <c r="G478" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H478" t="n">
-        <v>0.8387096774193549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -11325,19 +11325,19 @@
         <v>0.05</v>
       </c>
       <c r="D479" t="n">
-        <v>0.8735632183908046</v>
+        <v>0.9447052947052947</v>
       </c>
       <c r="E479" t="n">
         <v>0</v>
       </c>
       <c r="F479" t="n">
-        <v>2.987146377563477</v>
+        <v>3.892779350280762</v>
       </c>
       <c r="G479" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.8995908346972177</v>
       </c>
       <c r="H479" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -11347,16 +11347,16 @@
         <v>0.25</v>
       </c>
       <c r="D480" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9933628318584071</v>
       </c>
       <c r="E480" t="n">
         <v>0</v>
       </c>
       <c r="F480" t="n">
-        <v>3.019571304321289</v>
+        <v>3.988027572631836</v>
       </c>
       <c r="G480" t="n">
-        <v>0.972972972972973</v>
+        <v>1</v>
       </c>
       <c r="H480" t="n">
         <v>1</v>
@@ -11369,13 +11369,13 @@
         <v>0.5</v>
       </c>
       <c r="D481" t="n">
-        <v>0.9906542056074766</v>
+        <v>1</v>
       </c>
       <c r="E481" t="n">
         <v>0</v>
       </c>
       <c r="F481" t="n">
-        <v>3.988742828369141</v>
+        <v>3.98862361907959</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>4.670679569244385</v>
+        <v>3.989696502685547</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="F483" t="n">
-        <v>8.973097801208496</v>
+        <v>3.991401195526123</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="F484" t="n">
-        <v>54.84485626220703</v>
+        <v>3.991603851318359</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="F485" t="n">
-        <v>12.30263710021973</v>
+        <v>5.977153778076172</v>
       </c>
       <c r="G485" t="n">
         <v>0</v>
@@ -11483,19 +11483,19 @@
         <v>0.05</v>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>0.2578168362627197</v>
       </c>
       <c r="E486" t="n">
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>13.17306756973267</v>
+        <v>6.964075565338135</v>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>0.8250000000000001</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>0.1517307692307692</v>
       </c>
     </row>
     <row r="487">
@@ -11505,19 +11505,19 @@
         <v>0.25</v>
       </c>
       <c r="D487" t="n">
-        <v>0.8796992481203008</v>
+        <v>0.6368471953578336</v>
       </c>
       <c r="E487" t="n">
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>21.68565988540649</v>
+        <v>8.942604064941406</v>
       </c>
       <c r="G487" t="n">
-        <v>0.96777950310559</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="H487" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.4716911764705882</v>
       </c>
     </row>
     <row r="488">
@@ -11527,19 +11527,19 @@
         <v>0.5</v>
       </c>
       <c r="D488" t="n">
-        <v>0.967622571692877</v>
+        <v>0.8400568181818182</v>
       </c>
       <c r="E488" t="n">
         <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>23.93829822540283</v>
+        <v>10.01334190368652</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
       </c>
       <c r="H488" t="n">
-        <v>0.944683908045977</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="489">
@@ -11549,19 +11549,19 @@
         <v>0.75</v>
       </c>
       <c r="D489" t="n">
-        <v>0.9972527472527473</v>
+        <v>0.9427083333333333</v>
       </c>
       <c r="E489" t="n">
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>25.16293525695801</v>
+        <v>11.96670532226562</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0.8993589743589744</v>
       </c>
     </row>
     <row r="490">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>30.24462461471557</v>
+        <v>16.12002849578857</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>32.64284133911133</v>
+        <v>40.64726829528809</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -11623,19 +11623,19 @@
         <v>0</v>
       </c>
       <c r="D492" t="n">
-        <v>0.5241379310344828</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="E492" t="n">
         <v>0</v>
       </c>
       <c r="F492" t="n">
-        <v>27.98604965209961</v>
+        <v>32.92512893676758</v>
       </c>
       <c r="G492" t="n">
-        <v>0.3551401869158878</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H492" t="n">
-        <v>0.5079365079365079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -11645,16 +11645,16 @@
         <v>0.05</v>
       </c>
       <c r="D493" t="n">
-        <v>0.935064935064935</v>
+        <v>0.9677957699933907</v>
       </c>
       <c r="E493" t="n">
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>32.24325180053711</v>
+        <v>34.19901132583618</v>
       </c>
       <c r="G493" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.9385106382978724</v>
       </c>
       <c r="H493" t="n">
         <v>1</v>
@@ -11667,16 +11667,16 @@
         <v>0.25</v>
       </c>
       <c r="D494" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.9865753424657534</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
       </c>
       <c r="F494" t="n">
-        <v>35.00545024871826</v>
+        <v>35.60823202133179</v>
       </c>
       <c r="G494" t="n">
-        <v>0.96875</v>
+        <v>0.9769388954171563</v>
       </c>
       <c r="H494" t="n">
         <v>1</v>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>37.93799877166748</v>
+        <v>37.72950172424316</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="F496" t="n">
-        <v>42.88583993911743</v>
+        <v>41.14037752151489</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="F497" t="n">
-        <v>53.7227988243103</v>
+        <v>46.52122259140015</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="F498" t="n">
-        <v>3188.439846038818</v>
+        <v>49.02267456054688</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -11781,19 +11781,19 @@
         <v>0</v>
       </c>
       <c r="D499" t="n">
-        <v>0.6766917293233082</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
       </c>
       <c r="F499" t="n">
-        <v>10.0395679473877</v>
+        <v>28.27334403991699</v>
       </c>
       <c r="G499" t="n">
-        <v>0.8913043478260869</v>
+        <v>1</v>
       </c>
       <c r="H499" t="n">
-        <v>0.5113636363636364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -11803,19 +11803,19 @@
         <v>0.05</v>
       </c>
       <c r="D500" t="n">
-        <v>0.9855072463768116</v>
+        <v>1</v>
       </c>
       <c r="E500" t="n">
         <v>0</v>
       </c>
       <c r="F500" t="n">
-        <v>23.32717180252076</v>
+        <v>29.10406589508057</v>
       </c>
       <c r="G500" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="H500" t="n">
-        <v>0.9761904761904762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="F501" t="n">
-        <v>29.90120649337769</v>
+        <v>31.31395578384399</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="F502" t="n">
-        <v>31.80825710296631</v>
+        <v>31.85951709747314</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="F503" t="n">
-        <v>32.695472240448</v>
+        <v>32.09275007247925</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="F504" t="n">
-        <v>41.50915145874018</v>
+        <v>32.69559144973755</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="F505" t="n">
-        <v>1435.57333946228</v>
+        <v>33.04624557495117</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -11939,19 +11939,19 @@
         <v>0</v>
       </c>
       <c r="D506" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E506" t="n">
         <v>0</v>
       </c>
       <c r="F506" t="n">
-        <v>15.91324806213379</v>
+        <v>32.25135803222656</v>
       </c>
       <c r="G506" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H506" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="507">
@@ -11961,19 +11961,19 @@
         <v>0.05</v>
       </c>
       <c r="D507" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7099712368168745</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
       </c>
       <c r="F507" t="n">
-        <v>31.39314651489258</v>
+        <v>32.62848854064941</v>
       </c>
       <c r="G507" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.9317398119122257</v>
       </c>
       <c r="H507" t="n">
-        <v>0.5</v>
+        <v>0.5505050505050505</v>
       </c>
     </row>
     <row r="508">
@@ -11983,19 +11983,19 @@
         <v>0.25</v>
       </c>
       <c r="D508" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.9578761061946903</v>
       </c>
       <c r="E508" t="n">
         <v>0</v>
       </c>
       <c r="F508" t="n">
-        <v>32.57107734680176</v>
+        <v>34.55018997192383</v>
       </c>
       <c r="G508" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H508" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9636243386243386</v>
       </c>
     </row>
     <row r="509">
@@ -12005,13 +12005,13 @@
         <v>0.5</v>
       </c>
       <c r="D509" t="n">
-        <v>0.990990990990991</v>
+        <v>1</v>
       </c>
       <c r="E509" t="n">
         <v>0</v>
       </c>
       <c r="F509" t="n">
-        <v>35.51626205444336</v>
+        <v>35.79092025756836</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="F510" t="n">
-        <v>41.34273529052734</v>
+        <v>37.45031356811523</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="F511" t="n">
-        <v>56.00781440734863</v>
+        <v>42.14625358581543</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>20262.54224777222</v>
+        <v>50.65131187438965</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -12097,19 +12097,19 @@
         <v>0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.6548672566371682</v>
+        <v>0.6771653543307087</v>
       </c>
       <c r="E513" t="n">
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>10.59532165527344</v>
+        <v>23.79775047302246</v>
       </c>
       <c r="G513" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H513" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.5119047619047619</v>
       </c>
     </row>
     <row r="514">
@@ -12119,19 +12119,19 @@
         <v>0.05</v>
       </c>
       <c r="D514" t="n">
-        <v>0.70316875</v>
+        <v>0.8004636920384952</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
       </c>
       <c r="F514" t="n">
-        <v>22.16726541519165</v>
+        <v>23.82247447967529</v>
       </c>
       <c r="G514" t="n">
-        <v>0.777888888888889</v>
+        <v>0.9056785195936139</v>
       </c>
       <c r="H514" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.9267857142857143</v>
       </c>
     </row>
     <row r="515">
@@ -12141,16 +12141,16 @@
         <v>0.25</v>
       </c>
       <c r="D515" t="n">
-        <v>0.9855072463768116</v>
+        <v>1</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
       </c>
       <c r="F515" t="n">
-        <v>24.25467967987061</v>
+        <v>25.63607692718506</v>
       </c>
       <c r="G515" t="n">
-        <v>0.9814814814814815</v>
+        <v>1</v>
       </c>
       <c r="H515" t="n">
         <v>1</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="F516" t="n">
-        <v>26.89802646636963</v>
+        <v>26.92639827728271</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="F517" t="n">
-        <v>30.00223636627197</v>
+        <v>27.27770805358887</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="F518" t="n">
-        <v>38.89656066894531</v>
+        <v>29.96524572372437</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="F519" t="n">
-        <v>3375.093221664429</v>
+        <v>30.21430969238281</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
-        <v>102.527379989624</v>
+        <v>36.70048713684082</v>
       </c>
       <c r="G520" t="n">
         <v>0</v>
@@ -12277,19 +12277,19 @@
         <v>0.05</v>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>0.2635000000000001</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>107.3583602905273</v>
+        <v>39.7441029548645</v>
       </c>
       <c r="G521" t="n">
-        <v>0</v>
+        <v>0.6461538461538464</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>0.157983193277311</v>
       </c>
     </row>
     <row r="522">
@@ -12299,19 +12299,19 @@
         <v>0.25</v>
       </c>
       <c r="D522" t="n">
-        <v>0.9331140350877193</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>119.4368004798889</v>
+        <v>47.67537117004395</v>
       </c>
       <c r="G522" t="n">
-        <v>0.9288793103448276</v>
+        <v>1</v>
       </c>
       <c r="H522" t="n">
-        <v>0.9375</v>
+        <v>0.5233333333333333</v>
       </c>
     </row>
     <row r="523">
@@ -12321,19 +12321,19 @@
         <v>0.5</v>
       </c>
       <c r="D523" t="n">
-        <v>1</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E523" t="n">
         <v>0</v>
       </c>
       <c r="F523" t="n">
-        <v>137.0326280593872</v>
+        <v>54.57758903503418</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0.7720779220779221</v>
       </c>
     </row>
     <row r="524">
@@ -12343,19 +12343,19 @@
         <v>0.75</v>
       </c>
       <c r="D524" t="n">
-        <v>1</v>
+        <v>0.9627285513361462</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>177.2399544715881</v>
+        <v>61.27876043319702</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0.9317073170731708</v>
       </c>
     </row>
     <row r="525">
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>250.5567669868469</v>
+        <v>113.1433248519897</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>253.9701461791992</v>
+        <v>393.5410976409912</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -12417,19 +12417,19 @@
         <v>0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
       </c>
       <c r="F527" t="n">
-        <v>210.47043800354</v>
+        <v>249.7909069061279</v>
       </c>
       <c r="G527" t="n">
-        <v>0.509090909090909</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="H527" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4923076923076923</v>
       </c>
     </row>
     <row r="528">
@@ -12439,19 +12439,19 @@
         <v>0.05</v>
       </c>
       <c r="D528" t="n">
-        <v>0.6732673267326733</v>
+        <v>0.6946031746031747</v>
       </c>
       <c r="E528" t="n">
         <v>0</v>
       </c>
       <c r="F528" t="n">
-        <v>226.3965964317322</v>
+        <v>263.6418700218201</v>
       </c>
       <c r="G528" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9608016304347826</v>
       </c>
       <c r="H528" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.5328804347826087</v>
       </c>
     </row>
     <row r="529">
@@ -12461,19 +12461,19 @@
         <v>0.25</v>
       </c>
       <c r="D529" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9437309678273533</v>
       </c>
       <c r="E529" t="n">
         <v>0</v>
       </c>
       <c r="F529" t="n">
-        <v>267.5450444221497</v>
+        <v>271.0263133049011</v>
       </c>
       <c r="G529" t="n">
-        <v>0.9814814814814815</v>
+        <v>1</v>
       </c>
       <c r="H529" t="n">
-        <v>0.8918918918918919</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="530">
@@ -12483,19 +12483,19 @@
         <v>0.5</v>
       </c>
       <c r="D530" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9816498316498317</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
       </c>
       <c r="F530" t="n">
-        <v>292.217493057251</v>
+        <v>282.6926708221436</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
       </c>
       <c r="H530" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9701426024955437</v>
       </c>
     </row>
     <row r="531">
@@ -12505,19 +12505,19 @@
         <v>0.75</v>
       </c>
       <c r="D531" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9877995642701525</v>
       </c>
       <c r="E531" t="n">
         <v>0</v>
       </c>
       <c r="F531" t="n">
-        <v>319.6710348129272</v>
+        <v>313.4279847145081</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
       </c>
       <c r="H531" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.9767441860465116</v>
       </c>
     </row>
     <row r="532">
@@ -12527,19 +12527,19 @@
         <v>0.95</v>
       </c>
       <c r="D532" t="n">
-        <v>1</v>
+        <v>0.9898801459093277</v>
       </c>
       <c r="E532" t="n">
         <v>0</v>
       </c>
       <c r="F532" t="n">
-        <v>391.6149973869324</v>
+        <v>333.291232585907</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0.9815780445969126</v>
       </c>
     </row>
     <row r="533">
@@ -12549,19 +12549,19 @@
         <v>1</v>
       </c>
       <c r="D533" t="n">
-        <v>1</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="E533" t="n">
         <v>0</v>
       </c>
       <c r="F533" t="n">
-        <v>1114.78853225708</v>
+        <v>386.7876529693604</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0.9824561403508771</v>
       </c>
     </row>
     <row r="534">
@@ -12575,19 +12575,19 @@
         <v>0</v>
       </c>
       <c r="D534" t="n">
-        <v>0.6526315789473685</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E534" t="n">
         <v>0</v>
       </c>
       <c r="F534" t="n">
-        <v>142.9133415222168</v>
+        <v>164.5736694335938</v>
       </c>
       <c r="G534" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="H534" t="n">
-        <v>0.484375</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="535">
@@ -12597,19 +12597,19 @@
         <v>0.05</v>
       </c>
       <c r="D535" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.7450226244343892</v>
       </c>
       <c r="E535" t="n">
         <v>0</v>
       </c>
       <c r="F535" t="n">
-        <v>160.4454398155212</v>
+        <v>169.3112850189209</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
       </c>
       <c r="H535" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.5936543367346939</v>
       </c>
     </row>
     <row r="536">
@@ -12619,19 +12619,19 @@
         <v>0.25</v>
       </c>
       <c r="D536" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="E536" t="n">
         <v>0</v>
       </c>
       <c r="F536" t="n">
-        <v>170.9868311882019</v>
+        <v>175.7491230964661</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
       </c>
       <c r="H536" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="537">
@@ -12647,13 +12647,13 @@
         <v>0</v>
       </c>
       <c r="F537" t="n">
-        <v>183.2782030105591</v>
+        <v>181.8053722381592</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
       </c>
       <c r="H537" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9718253968253968</v>
       </c>
     </row>
     <row r="538">
@@ -12663,19 +12663,19 @@
         <v>0.75</v>
       </c>
       <c r="D538" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E538" t="n">
         <v>0</v>
       </c>
       <c r="F538" t="n">
-        <v>193.6492919921875</v>
+        <v>189.9177432060242</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0.9751524390243902</v>
       </c>
     </row>
     <row r="539">
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="F539" t="n">
-        <v>239.3111944198608</v>
+        <v>199.1920948028564</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="F540" t="n">
-        <v>491.0652637481689</v>
+        <v>224.6057987213135</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -12733,19 +12733,19 @@
         <v>0</v>
       </c>
       <c r="D541" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="E541" t="n">
         <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>225.9953022003174</v>
+        <v>252.0112991333008</v>
       </c>
       <c r="G541" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.6875</v>
       </c>
       <c r="H541" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="542">
@@ -12755,19 +12755,19 @@
         <v>0.05</v>
       </c>
       <c r="D542" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E542" t="n">
         <v>0</v>
       </c>
       <c r="F542" t="n">
-        <v>243.3582305908203</v>
+        <v>253.5060405731201</v>
       </c>
       <c r="G542" t="n">
-        <v>0.7214470284237726</v>
+        <v>0.7896551724137931</v>
       </c>
       <c r="H542" t="n">
-        <v>0.5</v>
+        <v>0.5323809523809524</v>
       </c>
     </row>
     <row r="543">
@@ -12777,19 +12777,19 @@
         <v>0.25</v>
       </c>
       <c r="D543" t="n">
-        <v>0.7899159663865546</v>
+        <v>0.7966790684856001</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
       </c>
       <c r="F543" t="n">
-        <v>255.2785873413086</v>
+        <v>257.6764822006226</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
       </c>
       <c r="H543" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.718349358974359</v>
       </c>
     </row>
     <row r="544">
@@ -12799,19 +12799,19 @@
         <v>0.5</v>
       </c>
       <c r="D544" t="n">
-        <v>0.96</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E544" t="n">
         <v>0</v>
       </c>
       <c r="F544" t="n">
-        <v>266.8323516845703</v>
+        <v>266.7710781097412</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
       </c>
       <c r="H544" t="n">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
     </row>
     <row r="545">
@@ -12821,19 +12821,19 @@
         <v>0.75</v>
       </c>
       <c r="D545" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.9899989998999901</v>
       </c>
       <c r="E545" t="n">
         <v>0</v>
       </c>
       <c r="F545" t="n">
-        <v>288.6390686035156</v>
+        <v>279.4066667556763</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
       </c>
       <c r="H545" t="n">
-        <v>0.9818181818181818</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="546">
@@ -12843,13 +12843,13 @@
         <v>0.95</v>
       </c>
       <c r="D546" t="n">
-        <v>1</v>
+        <v>0.9935800514545814</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
       </c>
       <c r="F546" t="n">
-        <v>382.0858001708984</v>
+        <v>315.5317068099976</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="F547" t="n">
-        <v>762.3147964477539</v>
+        <v>380.1238536834717</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -12891,19 +12891,19 @@
         <v>0</v>
       </c>
       <c r="D548" t="n">
-        <v>0.65</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="E548" t="n">
         <v>0</v>
       </c>
       <c r="F548" t="n">
-        <v>75.12402534484863</v>
+        <v>88.8063907623291</v>
       </c>
       <c r="G548" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.75</v>
       </c>
       <c r="H548" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5272727272727272</v>
       </c>
     </row>
     <row r="549">
@@ -12913,19 +12913,19 @@
         <v>0.05</v>
       </c>
       <c r="D549" t="n">
-        <v>0.673469387755102</v>
+        <v>0.7217532467532468</v>
       </c>
       <c r="E549" t="n">
         <v>0</v>
       </c>
       <c r="F549" t="n">
-        <v>86.80915832519531</v>
+        <v>89.64923620223999</v>
       </c>
       <c r="G549" t="n">
-        <v>0.8143121693121693</v>
+        <v>0.9247222222222222</v>
       </c>
       <c r="H549" t="n">
-        <v>0.5081967213114754</v>
+        <v>0.5648051948051948</v>
       </c>
     </row>
     <row r="550">
@@ -12935,19 +12935,19 @@
         <v>0.25</v>
       </c>
       <c r="D550" t="n">
-        <v>0.9322352491397986</v>
+        <v>0.966540404040404</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
       </c>
       <c r="F550" t="n">
-        <v>94.78884935379028</v>
+        <v>100.7369160652161</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
       </c>
       <c r="H550" t="n">
-        <v>0.9658045977011495</v>
+        <v>0.9615061590145577</v>
       </c>
     </row>
     <row r="551">
@@ -12957,19 +12957,19 @@
         <v>0.5</v>
       </c>
       <c r="D551" t="n">
-        <v>0.9879518072289156</v>
+        <v>0.987450980392157</v>
       </c>
       <c r="E551" t="n">
         <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>104.2631864547729</v>
+        <v>105.6591272354126</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
       </c>
       <c r="H551" t="n">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -12979,13 +12979,13 @@
         <v>0.75</v>
       </c>
       <c r="D552" t="n">
-        <v>1</v>
+        <v>0.989636462289745</v>
       </c>
       <c r="E552" t="n">
         <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>121.5475797653198</v>
+        <v>110.3641986846924</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -13001,13 +13001,13 @@
         <v>0.95</v>
       </c>
       <c r="D553" t="n">
-        <v>1</v>
+        <v>0.9915722520373683</v>
       </c>
       <c r="E553" t="n">
         <v>0</v>
       </c>
       <c r="F553" t="n">
-        <v>167.5473213195801</v>
+        <v>114.2728567123413</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -13023,13 +13023,13 @@
         <v>1</v>
       </c>
       <c r="D554" t="n">
-        <v>1</v>
+        <v>0.9922480620155039</v>
       </c>
       <c r="E554" t="n">
         <v>0</v>
       </c>
       <c r="F554" t="n">
-        <v>525.9082317352295</v>
+        <v>117.5546646118164</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -13055,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>653.5487174987793</v>
+        <v>232.6967716217041</v>
       </c>
       <c r="G555" t="n">
         <v>0</v>
@@ -13071,19 +13071,19 @@
         <v>0.05</v>
       </c>
       <c r="D556" t="n">
-        <v>0</v>
+        <v>0.02250000000000005</v>
       </c>
       <c r="E556" t="n">
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>680.7798981666565</v>
+        <v>244.4126963615417</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>0.04090909090909101</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>0.0145161290322581</v>
       </c>
     </row>
     <row r="557">
@@ -13093,19 +13093,19 @@
         <v>0.25</v>
       </c>
       <c r="D557" t="n">
-        <v>0.775</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="E557" t="n">
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>776.4614224433899</v>
+        <v>301.4641404151917</v>
       </c>
       <c r="G557" t="n">
-        <v>0.7760093167701864</v>
+        <v>0.8112331081081081</v>
       </c>
       <c r="H557" t="n">
-        <v>0.7313701923076923</v>
+        <v>0.4332986832986833</v>
       </c>
     </row>
     <row r="558">
@@ -13115,19 +13115,19 @@
         <v>0.5</v>
       </c>
       <c r="D558" t="n">
-        <v>0.8363540845810349</v>
+        <v>0.7337552742616034</v>
       </c>
       <c r="E558" t="n">
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>918.9643859863281</v>
+        <v>360.3579998016357</v>
       </c>
       <c r="G558" t="n">
-        <v>0.8297101449275363</v>
+        <v>1</v>
       </c>
       <c r="H558" t="n">
-        <v>0.7986111111111112</v>
+        <v>0.6145104895104896</v>
       </c>
     </row>
     <row r="559">
@@ -13137,19 +13137,19 @@
         <v>0.75</v>
       </c>
       <c r="D559" t="n">
-        <v>0.8980769230769231</v>
+        <v>0.8514654744162941</v>
       </c>
       <c r="E559" t="n">
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>1015.517115592957</v>
+        <v>407.3894023895264</v>
       </c>
       <c r="G559" t="n">
-        <v>0.892741935483871</v>
+        <v>1</v>
       </c>
       <c r="H559" t="n">
-        <v>0.9097826086956522</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="560">
@@ -13159,19 +13159,19 @@
         <v>0.95</v>
       </c>
       <c r="D560" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.970619006102877</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>1063.24657201767</v>
+        <v>502.5879979133605</v>
       </c>
       <c r="G560" t="n">
-        <v>0.9795454545454545</v>
+        <v>1</v>
       </c>
       <c r="H560" t="n">
-        <v>0.9689655172413792</v>
+        <v>0.9429276315789472</v>
       </c>
     </row>
     <row r="561">
@@ -13181,13 +13181,13 @@
         <v>1</v>
       </c>
       <c r="D561" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E561" t="n">
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>1097.378969192505</v>
+        <v>620.9404468536377</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>

--- a/Algorithm_tester/data_autosave/real_database_comparison.xlsx
+++ b/Algorithm_tester/data_autosave/real_database_comparison.xlsx
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8279781341553</v>
+        <v>154.3421745300293</v>
       </c>
       <c r="G2" t="n">
         <v>0.9069767441860465</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>155.1143646240234</v>
+        <v>156.0173869132996</v>
       </c>
       <c r="G3" t="n">
         <v>0.9374762808349145</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>158.9008569717407</v>
+        <v>161.0838770866394</v>
       </c>
       <c r="G4" t="n">
         <v>0.9701286764705882</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>161.763072013855</v>
+        <v>164.1080379486084</v>
       </c>
       <c r="G5" t="n">
         <v>0.9912280701754386</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>162.8676652908325</v>
+        <v>165.2196049690247</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>164.0334248542786</v>
+        <v>167.490565776825</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>164.823055267334</v>
+        <v>169.5480346679688</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.2729778289795</v>
+        <v>110.9921932220459</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>112.8562808036804</v>
+        <v>111.9983911514282</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>114.2382621765137</v>
+        <v>113.1382584571838</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>114.8010492324829</v>
+        <v>113.9703989028931</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>115.4749393463135</v>
+        <v>115.2328252792358</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116.1838054656982</v>
+        <v>116.2376284599304</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>116.9579029083252</v>
+        <v>117.0239448547363</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>140.7608985900879</v>
+        <v>140.7160758972168</v>
       </c>
       <c r="G16" t="n">
         <v>0.8</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>146.5510845184326</v>
+        <v>146.6398954391479</v>
       </c>
       <c r="G17" t="n">
         <v>0.8663636363636364</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>152.5365114212036</v>
+        <v>152.1345376968384</v>
       </c>
       <c r="G18" t="n">
         <v>0.9784921369102683</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>157.9887866973877</v>
+        <v>157.4819087982178</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>161.1118316650391</v>
+        <v>161.0114574432373</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>167.3530340194702</v>
+        <v>163.6698722839355</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>169.3370342254639</v>
+        <v>164.7031307220459</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>192.7468776702881</v>
+        <v>192.68798828125</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>194.864821434021</v>
+        <v>194.3749666213989</v>
       </c>
       <c r="G24" t="n">
         <v>0.8784791965566714</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>198.6500024795532</v>
+        <v>196.7011690139771</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>208.4517478942871</v>
+        <v>207.6518535614014</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>217.5459861755371</v>
+        <v>216.4090871810913</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>225.0045776367188</v>
+        <v>224.5789527893066</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>234.6587181091309</v>
+        <v>236.8571758270264</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>192.5947666168213</v>
+        <v>193.0959224700928</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>195.9267139434814</v>
+        <v>195.0232744216919</v>
       </c>
       <c r="G31" t="n">
         <v>0.684841628959276</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>200.6314992904663</v>
+        <v>198.4595060348511</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>218.2598114013672</v>
+        <v>219.1500663757324</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>229.1485071182251</v>
+        <v>227.4420261383057</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>234.3027591705322</v>
+        <v>231.1660766601562</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>947360.002040863</v>
+        <v>248.6300468444824</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>192.9562091827393</v>
+        <v>192.924976348877</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>194.6048259735107</v>
+        <v>194.3215370178223</v>
       </c>
       <c r="G38" t="n">
         <v>0.0177777777777778</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>197.678804397583</v>
+        <v>196.6350078582764</v>
       </c>
       <c r="G39" t="n">
         <v>0.8076923076923077</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>201.3149261474609</v>
+        <v>199.48410987854</v>
       </c>
       <c r="G40" t="n">
         <v>0.9696969696969697</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>210.2618217468262</v>
+        <v>210.2150917053223</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3576335906982</v>
+        <v>217.0089721679687</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>227.4789810180664</v>
+        <v>293361.9160652161</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>61.4469051361084</v>
+        <v>61.91587448120117</v>
       </c>
       <c r="G44" t="n">
         <v>0.6923076923076923</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>61.75311803817749</v>
+        <v>61.95600032806396</v>
       </c>
       <c r="G45" t="n">
         <v>0.8995908346972177</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>61.92499399185181</v>
+        <v>62.01797723770142</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>62.10839748382568</v>
+        <v>62.18862533569336</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>62.72900104522705</v>
+        <v>62.39348649978638</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>70.18016576766968</v>
+        <v>62.62898445129395</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>70.34087181091309</v>
+        <v>62.91675567626953</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>128.5648345947266</v>
+        <v>127.2602081298828</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>136.3780379295349</v>
+        <v>135.8877301216125</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>160.5660915374756</v>
+        <v>157.1389436721802</v>
       </c>
       <c r="G53" t="n">
         <v>0.9022727272727273</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>191.5479898452759</v>
+        <v>190.7279491424561</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>198.65483045578</v>
+        <v>198.5801458358765</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>216.2346124649048</v>
+        <v>214.596700668335</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>3297.550201416016</v>
+        <v>865167.9310798645</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>62.957763671875</v>
+        <v>63.42506408691406</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>63.88640403747559</v>
+        <v>64.42958116531372</v>
       </c>
       <c r="G59" t="n">
         <v>0.2406944444444445</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>65.30457735061646</v>
+        <v>65.96505641937256</v>
       </c>
       <c r="G60" t="n">
         <v>0.8553571428571428</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>66.28382205963135</v>
+        <v>66.62559509277344</v>
       </c>
       <c r="G61" t="n">
         <v>0.9332591768631813</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>67.0769214630127</v>
+        <v>67.63738393783569</v>
       </c>
       <c r="G62" t="n">
         <v>0.9645935960591133</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>68.05887222290039</v>
+        <v>69.33534145355225</v>
       </c>
       <c r="G63" t="n">
         <v>0.975609756097561</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>68.15505027770996</v>
+        <v>69.82898712158203</v>
       </c>
       <c r="G64" t="n">
         <v>0.9777777777777777</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>45.5169677734375</v>
+        <v>45.45497894287109</v>
       </c>
       <c r="G65" t="n">
         <v>0.02272727272727273</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>46.0161566734314</v>
+        <v>45.91485261917114</v>
       </c>
       <c r="G66" t="n">
         <v>0.9341767881241565</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>46.81283235549927</v>
+        <v>46.75257205963135</v>
       </c>
       <c r="G67" t="n">
         <v>0.9705882352941176</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>47.35302925109863</v>
+        <v>47.45447635650635</v>
       </c>
       <c r="G68" t="n">
         <v>0.9722222222222222</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>48.17640781402588</v>
+        <v>48.33191633224487</v>
       </c>
       <c r="G69" t="n">
         <v>0.975609756097561</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>48.81950616836548</v>
+        <v>49.1483211517334</v>
       </c>
       <c r="G70" t="n">
         <v>0.9777777777777777</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>49.26395416259766</v>
+        <v>49.40700531005859</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>52.51142978668213</v>
+        <v>52.65829563140869</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>62.2708797454834</v>
+        <v>61.67232990264893</v>
       </c>
       <c r="G74" t="n">
         <v>0.5</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>63.74597549438477</v>
+        <v>63.49611282348633</v>
       </c>
       <c r="G75" t="n">
         <v>0.8461538461538461</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>65.4144287109375</v>
+        <v>64.94832038879395</v>
       </c>
       <c r="G76" t="n">
         <v>0.9578900709219859</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>67.64321327209473</v>
+        <v>66.89684391021729</v>
       </c>
       <c r="G77" t="n">
         <v>0.9773715415019762</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>69.04292106628418</v>
+        <v>69.4119930267334</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>74.74994659423828</v>
+        <v>74.46205615997314</v>
       </c>
       <c r="G81" t="n">
         <v>0.1924206815511164</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>83.14228057861328</v>
+        <v>82.28921890258789</v>
       </c>
       <c r="G82" t="n">
         <v>0.3962264150943396</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>90.45004844665527</v>
+        <v>89.60211277008057</v>
       </c>
       <c r="G83" t="n">
         <v>0.6753378378378379</v>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>94.9108362197876</v>
+        <v>93.33012104034424</v>
       </c>
       <c r="G84" t="n">
         <v>0.969607843137255</v>
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>101.4080047607422</v>
+        <v>112.227201461792</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>77.31938362121582</v>
+        <v>77.37648487091064</v>
       </c>
       <c r="G88" t="n">
         <v>0.3783783783783784</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>90.76714515686035</v>
+        <v>90.36493301391602</v>
       </c>
       <c r="G89" t="n">
         <v>0.6176470588235294</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>93.29628944396973</v>
+        <v>92.48054027557373</v>
       </c>
       <c r="G90" t="n">
         <v>0.85239651416122</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>96.03605270385742</v>
+        <v>94.57888603210449</v>
       </c>
       <c r="G91" t="n">
         <v>0.9777777777777777</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>1027272.235155106</v>
+        <v>293274.8041152954</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>65.72699546813965</v>
+        <v>65.26803970336914</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>76.11703872680664</v>
+        <v>75.55794715881348</v>
       </c>
       <c r="G96" t="n">
         <v>0.2142857142857143</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>83.22525024414062</v>
+        <v>81.50410652160645</v>
       </c>
       <c r="G97" t="n">
         <v>0.4358974358974359</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>95.56026458740234</v>
+        <v>95.29576301574706</v>
       </c>
       <c r="G98" t="n">
         <v>0.6893039049235986</v>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>100.6338596343994</v>
+        <v>99.98703002929688</v>
       </c>
       <c r="G99" t="n">
         <v>0.875</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>24.42812919616699</v>
+        <v>24.66511726379395</v>
       </c>
       <c r="G100" t="n">
         <v>0.6792452830188679</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>24.87154006958008</v>
+        <v>24.91337060928345</v>
       </c>
       <c r="G101" t="n">
         <v>0.8820237787542</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>25.28035640716553</v>
+        <v>25.08491277694702</v>
       </c>
       <c r="G102" t="n">
         <v>0.9682306940371457</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>25.53737163543701</v>
+        <v>25.35903453826904</v>
       </c>
       <c r="G103" t="n">
         <v>0.9743421052631579</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>25.98392963409424</v>
+        <v>25.53856372833252</v>
       </c>
       <c r="G104" t="n">
         <v>0.9766057585825028</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>28.7738561630249</v>
+        <v>25.79973936080933</v>
       </c>
       <c r="G105" t="n">
         <v>0.9787234042553191</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>28.9769172668457</v>
+        <v>25.91586112976074</v>
       </c>
       <c r="G106" t="n">
         <v>0.9787234042553191</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>52.72042751312256</v>
+        <v>52.56557464599609</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>73.26769828796387</v>
+        <v>72.62450456619263</v>
       </c>
       <c r="G111" t="n">
         <v>0.6766666666666667</v>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>99.9408721923828</v>
+        <v>98.25007915496826</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>105.6318283081055</v>
+        <v>102.8180122375488</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>17.81487464904785</v>
+        <v>17.45820045471191</v>
       </c>
       <c r="G114" t="n">
         <v>0.8936170212765957</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>18.32989454269409</v>
+        <v>17.9241418838501</v>
       </c>
       <c r="G115" t="n">
         <v>0.9242656058751529</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>19.15824413299561</v>
+        <v>18.82487535476685</v>
       </c>
       <c r="G116" t="n">
         <v>0.9733187134502924</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>19.42014694213867</v>
+        <v>19.08159255981445</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>19.68353986740112</v>
+        <v>19.35023069381714</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>20.26437520980835</v>
+        <v>19.86684799194336</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>21.09384536743164</v>
+        <v>20.81394195556641</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>15.04707336425781</v>
+        <v>14.73093032836914</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>15.2436375617981</v>
+        <v>14.88895416259766</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>15.84476232528687</v>
+        <v>15.55347442626953</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>16.09992980957031</v>
+        <v>15.82443714141846</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>16.69532060623169</v>
+        <v>16.37727022171021</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>18.4557318687439</v>
+        <v>18.22335720062256</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>18.82290840148926</v>
+        <v>18.48125457763672</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>16.58296585083008</v>
+        <v>16.61396026611328</v>
       </c>
       <c r="G128" t="n">
         <v>0.6666666666666666</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>16.91200733184814</v>
+        <v>16.92409515380859</v>
       </c>
       <c r="G129" t="n">
         <v>0.9017647058823529</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>17.63594150543213</v>
+        <v>17.69936084747314</v>
       </c>
       <c r="G130" t="n">
         <v>0.9757138651751545</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>18.39900016784668</v>
+        <v>18.43571662902832</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>19.52910423278809</v>
+        <v>19.65248584747314</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>21.65257930755615</v>
+        <v>21.27737998962402</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>24.28913116455078</v>
+        <v>24.58977699279785</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>22.44806289672852</v>
+        <v>22.5520133972168</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>22.94085025787354</v>
+        <v>22.97465801239014</v>
       </c>
       <c r="G136" t="n">
         <v>0.9409999999999999</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>23.28503131866455</v>
+        <v>23.33331108093262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>23.64182472229004</v>
+        <v>23.76317977905273</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>24.20258522033691</v>
+        <v>24.13713932037354</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>26.83908939361572</v>
+        <v>25.41399002075195</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>45.31693458557129</v>
+        <v>30.95316886901855</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>22.21584320068359</v>
+        <v>22.40705490112305</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>22.80724048614502</v>
+        <v>22.82271385192871</v>
       </c>
       <c r="G143" t="n">
         <v>0.9722222222222222</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>23.29170703887939</v>
+        <v>23.37133884429932</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>23.70405197143555</v>
+        <v>23.83899688720703</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>24.1084098815918</v>
+        <v>24.28090572357178</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>25.91118812561035</v>
+        <v>25.77915191650391</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>30.15828132629395</v>
+        <v>52.37412452697754</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>21.89493179321289</v>
+        <v>22.06516265869141</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>22.25608825683594</v>
+        <v>22.45097160339355</v>
       </c>
       <c r="G150" t="n">
         <v>0.4000000000000004</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>23.06890487670898</v>
+        <v>23.12088012695312</v>
       </c>
       <c r="G151" t="n">
         <v>0.9565217391304348</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>23.39005470275879</v>
+        <v>23.71406555175781</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>23.94008636474609</v>
+        <v>24.8420238494873</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>25.43826103210449</v>
+        <v>28.67231369018554</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>29.51622009277344</v>
+        <v>293192.8429603577</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>10.55812835693359</v>
+        <v>10.19382476806641</v>
       </c>
       <c r="G156" t="n">
         <v>0.6981132075471698</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>10.63777208328247</v>
+        <v>10.32311916351318</v>
       </c>
       <c r="G157" t="n">
         <v>0.9047169811320754</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>10.74314117431641</v>
+        <v>10.45781373977661</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>10.8945369720459</v>
+        <v>10.54191589355469</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>10.99711656570435</v>
+        <v>10.70630550384521</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>11.45421266555786</v>
+        <v>10.7954740524292</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>11.47913932800293</v>
+        <v>10.85019111633301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>14.51635360717773</v>
+        <v>14.16683197021484</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>14.71037864685059</v>
+        <v>14.28624391555786</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>17.78322458267212</v>
+        <v>17.36277341842651</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>20.19703388214111</v>
+        <v>19.52195167541504</v>
       </c>
       <c r="G166" t="n">
         <v>0.96</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>22.90594577789307</v>
+        <v>22.29571342468262</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>26.19527578353881</v>
+        <v>25.78192949295044</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>40.77720642089844</v>
+        <v>32.68003463745117</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -4820,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>17.60411262512207</v>
+        <v>15.87510108947754</v>
       </c>
       <c r="G170" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H170" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="I170" t="n">
         <v>50.00463005833873</v>
@@ -4851,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>18.10098886489868</v>
+        <v>16.07156991958618</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9242656058751529</v>
+        <v>0.9248205741626794</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -4870,16 +4870,16 @@
         <v>0.25</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9844932844932845</v>
+        <v>0.9829931972789115</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>18.93222332000732</v>
+        <v>16.30103588104248</v>
       </c>
       <c r="G172" t="n">
-        <v>0.9733187134502924</v>
+        <v>0.971218487394958</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>19.17493343353271</v>
+        <v>16.45994186401367</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>19.459068775177</v>
+        <v>16.52419567108154</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>20.12225389480591</v>
+        <v>16.6393518447876</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>20.84779739379883</v>
+        <v>17.64702796936035</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -4999,13 +4999,13 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>14.81890678405762</v>
+        <v>12.70389556884766</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>14.99165296554565</v>
+        <v>12.78014183044434</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>15.5872106552124</v>
+        <v>13.01944255828857</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>15.85352420806885</v>
+        <v>13.18490505218506</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>16.43794775009155</v>
+        <v>13.34989070892334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>18.19703578948975</v>
+        <v>14.39336538314819</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>18.58186721801758</v>
+        <v>14.46199417114258</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -5178,19 +5178,19 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>16.42203330993652</v>
+        <v>15.6707763671875</v>
       </c>
       <c r="G184" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="I184" t="n">
         <v>44.00407445133808</v>
@@ -5203,19 +5203,19 @@
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7349354375896701</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>16.73593521118164</v>
+        <v>15.79282283782959</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9017647058823529</v>
+        <v>0.9031746031746032</v>
       </c>
       <c r="H185" t="n">
-        <v>0.790935960591133</v>
+        <v>0.7674743709226468</v>
       </c>
       <c r="I185" t="n">
         <v>54.00500046300584</v>
@@ -5228,19 +5228,19 @@
         <v>0.25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9640705679862307</v>
+        <v>0.9538084062299979</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>17.48526096343994</v>
+        <v>16.0900354385376</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9757138651751545</v>
+        <v>0.9812675070028011</v>
       </c>
       <c r="H186" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9465811965811965</v>
       </c>
       <c r="I186" t="n">
         <v>74.00685248634132</v>
@@ -5253,13 +5253,13 @@
         <v>0.5</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>18.20206642150879</v>
+        <v>16.33095741271973</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>19.25599575042725</v>
+        <v>16.71051979064941</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>21.27320766448975</v>
+        <v>17.73281097412109</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>24.32990074157715</v>
+        <v>18.9051628112793</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>21.96383476257324</v>
+        <v>20.20502090454102</v>
       </c>
       <c r="G191" t="n">
         <v>0</v>
@@ -5382,19 +5382,19 @@
         <v>0.05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8318966962938119</v>
+        <v>0.7572554816457255</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>22.43845462799072</v>
+        <v>20.60084342956543</v>
       </c>
       <c r="G192" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.946847442680776</v>
       </c>
       <c r="H192" t="n">
-        <v>0.7219141323792486</v>
+        <v>0.6236992159657876</v>
       </c>
       <c r="I192" t="n">
         <v>62.00000000000001</v>
@@ -5407,19 +5407,19 @@
         <v>0.25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9306335204490778</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>22.82583713531494</v>
+        <v>20.89953422546387</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9277003484320558</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="I193" t="n">
         <v>76</v>
@@ -5432,19 +5432,19 @@
         <v>0.5</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>23.28395843505859</v>
+        <v>21.17395401000977</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0.96875</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="I194" t="n">
         <v>86</v>
@@ -5457,19 +5457,19 @@
         <v>0.75</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9868398268398269</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>23.6591100692749</v>
+        <v>21.52657508850098</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9764673311184939</v>
       </c>
       <c r="I195" t="n">
         <v>102</v>
@@ -5482,19 +5482,19 @@
         <v>0.95</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9917216473366206</v>
+        <v>0.9925814536340852</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>25.12335777282715</v>
+        <v>22.86086082458496</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9856935817805383</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="I196" t="n">
         <v>140</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>954233.4611415863</v>
+        <v>25.14314651489258</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>21.77286148071289</v>
+        <v>20.03788948059082</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -5561,19 +5561,19 @@
         <v>0.05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8422321428571429</v>
+        <v>0.7204674565817237</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>22.34878540039062</v>
+        <v>20.46458721160889</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.971875</v>
       </c>
       <c r="H199" t="n">
-        <v>0.7274884640738299</v>
+        <v>0.5653846153846154</v>
       </c>
       <c r="I199" t="n">
         <v>52</v>
@@ -5586,19 +5586,19 @@
         <v>0.25</v>
       </c>
       <c r="D200" t="n">
-        <v>0.957134109001837</v>
+        <v>0.9290744466800804</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>22.82798290252686</v>
+        <v>20.71714401245117</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8689931350114417</v>
       </c>
       <c r="I200" t="n">
         <v>62.00000000000001</v>
@@ -5611,19 +5611,19 @@
         <v>0.5</v>
       </c>
       <c r="D201" t="n">
-        <v>0.975</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>23.23079109191895</v>
+        <v>21.01874351501465</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I201" t="n">
         <v>70</v>
@@ -5636,19 +5636,19 @@
         <v>0.75</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9864840182648402</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>23.60045909881592</v>
+        <v>21.54195308685303</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9733285917496444</v>
+        <v>0.9718253968253968</v>
       </c>
       <c r="I202" t="n">
         <v>78</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>25.11398792266846</v>
+        <v>22.96092510223389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5686,19 +5686,19 @@
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>0.991304347826087</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>56.20980262756348</v>
+        <v>29.30927276611328</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0.9827586206896551</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>114</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>21.49295806884766</v>
+        <v>20.11799812316895</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5740,19 +5740,19 @@
         <v>0.05</v>
       </c>
       <c r="D206" t="n">
-        <v>0.07804878048780495</v>
+        <v>0.07619047619047625</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>21.83256149291992</v>
+        <v>20.28231620788574</v>
       </c>
       <c r="G206" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.4521739130434786</v>
       </c>
       <c r="H206" t="n">
-        <v>0.04324324324324329</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="I206" t="n">
         <v>10</v>
@@ -5765,19 +5765,19 @@
         <v>0.25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>22.58777618408203</v>
+        <v>20.85995674133301</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="H207" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="I207" t="n">
         <v>44</v>
@@ -5790,19 +5790,19 @@
         <v>0.5</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.75</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>22.9341983795166</v>
+        <v>21.41094207763672</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="I208" t="n">
         <v>58</v>
@@ -5815,19 +5815,19 @@
         <v>0.75</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9176470588235294</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>23.83112907409668</v>
+        <v>22.25375175476074</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0.85</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="I209" t="n">
         <v>74</v>
@@ -5840,19 +5840,19 @@
         <v>0.95</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9731266149870801</v>
+        <v>0.9698752228163993</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>25.91147422790527</v>
+        <v>26.41806602478024</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9434749034749034</v>
       </c>
       <c r="I210" t="n">
         <v>86.79999999999995</v>
@@ -5871,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>29.54769134521484</v>
+        <v>293220.1972007751</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="I211" t="n">
         <v>96</v>
@@ -5894,16 +5894,16 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.82</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>10.35380363464355</v>
+        <v>9.02104377746582</v>
       </c>
       <c r="G212" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H212" t="n">
         <v>1</v>
@@ -5919,16 +5919,16 @@
         <v>0.05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9475757575757576</v>
+        <v>0.9472424242424242</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>10.42554378509521</v>
+        <v>9.038877487182617</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9047169811320754</v>
+        <v>0.9042372881355932</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>10.54030656814575</v>
+        <v>9.098052978515625</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>10.68532466888428</v>
+        <v>9.203553199768066</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>10.80387830734253</v>
+        <v>9.22083854675293</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>11.22509241104126</v>
+        <v>9.311258792877197</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>11.24191284179688</v>
+        <v>9.443998336791992</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>14.34707641601562</v>
+        <v>13.26489448547363</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>14.53108787536621</v>
+        <v>13.43097686767578</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>17.61466264724731</v>
+        <v>15.85382223129272</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -6148,19 +6148,19 @@
         <v>0.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9028301886792454</v>
+        <v>0.7712820512820513</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>19.90711688995361</v>
+        <v>18.21112632751465</v>
       </c>
       <c r="G222" t="n">
-        <v>0.96</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="H222" t="n">
-        <v>0.96</v>
+        <v>0.8550420168067226</v>
       </c>
       <c r="I222" t="n">
         <v>58</v>
@@ -6173,13 +6173,13 @@
         <v>0.75</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0.9834676298971936</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>22.6675271987915</v>
+        <v>19.92785930633545</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>25.96231698989868</v>
+        <v>21.13305330276489</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>40.88592529296875</v>
+        <v>995372.3289966583</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>2.358913421630859</v>
+        <v>2.351999282836914</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>2.402913570404053</v>
+        <v>2.396559715270996</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>2.431988716125488</v>
+        <v>2.454280853271484</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>2.462029457092285</v>
+        <v>2.478599548339844</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>2.486467361450195</v>
+        <v>2.529799938201904</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>2.672088146209717</v>
+        <v>3.77284288406372</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>5.832195281982422</v>
+        <v>5.667924880981445</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>1.965045928955078</v>
+        <v>1.953125</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>2.025759220123291</v>
+        <v>2.009785175323486</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>2.071559429168701</v>
+        <v>2.067804336547852</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>2.114057540893555</v>
+        <v>2.098441123962402</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>2.146422863006592</v>
+        <v>2.142608165740967</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>3.125202655792236</v>
+        <v>2.752649784088135</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>4.191875457763672</v>
+        <v>3.220319747924805</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>2.259421348571777</v>
+        <v>2.257251739501953</v>
       </c>
       <c r="G241" t="n">
         <v>0.9546195652173913</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>2.384781837463379</v>
+        <v>2.385616302490234</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>2.43687629699707</v>
+        <v>2.434015274047852</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>2.463459968566895</v>
+        <v>2.462863922119141</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>3.867745399475097</v>
+        <v>3.450870513916014</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>15.17891883850098</v>
+        <v>6.684064865112305</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="F253" t="n">
-        <v>5.143165588378906</v>
+        <v>3.180742263793945</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>2.564191818237305</v>
+        <v>3.893136978149414</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>1.455068588256836</v>
+        <v>1.43122673034668</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>1.45648717880249</v>
+        <v>1.437914371490479</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>1.464903354644775</v>
+        <v>1.443862915039062</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>1.47557258605957</v>
+        <v>1.448869705200195</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>1.496255397796631</v>
+        <v>1.454710960388184</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>1.800632476806641</v>
+        <v>1.469302177429199</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>1.816034317016602</v>
+        <v>1.47700309753418</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>2.434730529785156</v>
+        <v>2.299070358276367</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>2.617561817169189</v>
+        <v>2.597236633300781</v>
       </c>
       <c r="G276" t="n">
         <v>0.6896634615384616</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>2.979815006256104</v>
+        <v>2.925515174865723</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>3.900527954101562</v>
+        <v>3.13258171081543</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>6.149530410766602</v>
+        <v>4.252970218658447</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>16.04259014129638</v>
+        <v>12.01220750808715</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>152.601957321167</v>
+        <v>90.25192260742188</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>84.90800857543945</v>
+        <v>84.2127799987793</v>
       </c>
       <c r="G282" t="n">
         <v>0.90625</v>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>85.33834218978882</v>
+        <v>84.72176790237427</v>
       </c>
       <c r="G283" t="n">
         <v>0.9285753880266076</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="n">
-        <v>85.81560850143433</v>
+        <v>85.23750305175781</v>
       </c>
       <c r="G284" t="n">
         <v>0.96875</v>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="n">
-        <v>86.28547191619873</v>
+        <v>85.65092086791992</v>
       </c>
       <c r="G285" t="n">
         <v>0.9782505910165484</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>86.68583631515503</v>
+        <v>86.16626262664795</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>87.8603458404541</v>
+        <v>87.07562685012817</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>90.12603759765625</v>
+        <v>89.70904350280762</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>60.1799488067627</v>
+        <v>59.4947338104248</v>
       </c>
       <c r="G289" t="n">
         <v>0.9722222222222222</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>60.52294969558716</v>
+        <v>59.93250608444214</v>
       </c>
       <c r="G290" t="n">
         <v>0.978700277520814</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>60.84108352661133</v>
+        <v>60.37521362304688</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>61.34605407714844</v>
+        <v>60.7154369354248</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>61.70982122421265</v>
+        <v>61.10674142837524</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>62.12227344512939</v>
+        <v>61.614990234375</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>62.90102005004883</v>
+        <v>62.19482421875</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>82.32212066650391</v>
+        <v>83.99724960327148</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>82.80675411224365</v>
+        <v>84.48801040649414</v>
       </c>
       <c r="G297" t="n">
         <v>0.633704292527822</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>83.45890045166016</v>
+        <v>85.21389961242676</v>
       </c>
       <c r="G298" t="n">
         <v>0.8861538461538462</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>84.56182479858398</v>
+        <v>86.18903160095215</v>
       </c>
       <c r="G299" t="n">
         <v>0.9791666666666666</v>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>85.59799194335938</v>
+        <v>87.4321460723877</v>
       </c>
       <c r="G300" t="n">
         <v>0.986977845425334</v>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>88.13631534576416</v>
+        <v>89.56606388092041</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>90.82984924316406</v>
+        <v>92.54193305969238</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>131.4078569412231</v>
+        <v>133.5608005523682</v>
       </c>
       <c r="G304" t="n">
         <v>0.9535940803382664</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>133.9349746704102</v>
+        <v>135.44762134552</v>
       </c>
       <c r="G305" t="n">
         <v>0.9809506531204644</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>135.4410648345947</v>
+        <v>137.3391151428223</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="F307" t="n">
-        <v>138.545036315918</v>
+        <v>140.8275365829468</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="F308" t="n">
-        <v>148.2508420944214</v>
+        <v>151.958703994751</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="F309" t="n">
-        <v>157.1238040924072</v>
+        <v>191.9920444488525</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>131.1418533325195</v>
+        <v>132.8823566436768</v>
       </c>
       <c r="G311" t="n">
         <v>0.9628205128205127</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="F312" t="n">
-        <v>132.6847076416016</v>
+        <v>134.5304250717163</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>133.821964263916</v>
+        <v>135.735034942627</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>135.1534128189087</v>
+        <v>137.0671987533569</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>140.6311750411987</v>
+        <v>143.7722682952881</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>149.7101783752441</v>
+        <v>211.8721008300781</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="F319" t="n">
-        <v>130.5510997772217</v>
+        <v>132.3878765106201</v>
       </c>
       <c r="G319" t="n">
         <v>0.9705882352941176</v>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>133.3413124084473</v>
+        <v>135.8370780944824</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="n">
-        <v>136.0640525817871</v>
+        <v>138.3752822875977</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>153.5438537597656</v>
+        <v>155.5582046508789</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="F323" t="n">
-        <v>158.9829921722412</v>
+        <v>212.2581005096436</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="F324" t="n">
-        <v>32.43708610534668</v>
+        <v>32.15503692626953</v>
       </c>
       <c r="G324" t="n">
         <v>0.6938775510204082</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="F325" t="n">
-        <v>32.64075517654419</v>
+        <v>32.37329721450806</v>
       </c>
       <c r="G325" t="n">
         <v>0.8986468500443656</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>33.2978367805481</v>
+        <v>32.85324573516846</v>
       </c>
       <c r="G326" t="n">
         <v>0.9797919167667066</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>34.08145904541016</v>
+        <v>33.24317932128906</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>35.14277935028076</v>
+        <v>33.79428386688232</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>35.6986403465271</v>
+        <v>34.47374105453491</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>36.13090515136719</v>
+        <v>34.52420234680176</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>78.55987548828125</v>
+        <v>77.62932777404785</v>
       </c>
       <c r="G331" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>79.35336828231812</v>
+        <v>78.64546775817871</v>
       </c>
       <c r="G332" t="n">
         <v>0.51875</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F333" t="n">
-        <v>95.78686952590942</v>
+        <v>94.32357549667358</v>
       </c>
       <c r="G333" t="n">
         <v>0.9312304075235109</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>105.1789522171021</v>
+        <v>103.0514240264893</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>119.1200613975525</v>
+        <v>117.7651882171631</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="n">
-        <v>122.7023959159851</v>
+        <v>120.523989200592</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>143.4459686279297</v>
+        <v>141.7231559753418</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="F338" t="n">
-        <v>8.378028869628906</v>
+        <v>8.430242538452148</v>
       </c>
       <c r="G338" t="n">
         <v>0.9215686274509803</v>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>9.840261936187744</v>
+        <v>9.61616039276123</v>
       </c>
       <c r="G339" t="n">
         <v>0.9356818181818182</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="F340" t="n">
-        <v>10.56355237960815</v>
+        <v>10.42073965072632</v>
       </c>
       <c r="G340" t="n">
         <v>0.9736842105263158</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="F341" t="n">
-        <v>11.62040233612061</v>
+        <v>11.45017147064209</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="n">
-        <v>12.88348436355591</v>
+        <v>12.7682089805603</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>14.1264796257019</v>
+        <v>14.19881582260132</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="F344" t="n">
-        <v>14.44602012634277</v>
+        <v>14.32514190673828</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="n">
-        <v>7.117033004760742</v>
+        <v>6.789922714233398</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="F346" t="n">
-        <v>7.429742813110352</v>
+        <v>7.217001914978027</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="n">
-        <v>7.943212985992432</v>
+        <v>7.696032524108887</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>8.569598197937012</v>
+        <v>8.286952972412109</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>9.255588054656982</v>
+        <v>8.900821208953857</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>12.85747289657593</v>
+        <v>12.47572898864746</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>13.90528678894043</v>
+        <v>13.40389251708984</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="F352" t="n">
-        <v>8.315086364746094</v>
+        <v>8.03828239440918</v>
       </c>
       <c r="G352" t="n">
         <v>0.625</v>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>8.810758590698242</v>
+        <v>8.526086807250977</v>
       </c>
       <c r="G353" t="n">
         <v>0.9164835164835166</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>9.73200798034668</v>
+        <v>9.462475776672363</v>
       </c>
       <c r="G354" t="n">
         <v>0.9812937062937063</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="F355" t="n">
-        <v>10.62202453613281</v>
+        <v>10.22601127624512</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>13.59665393829346</v>
+        <v>12.97593116760254</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -9617,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>19.32816505432128</v>
+        <v>18.99323463439941</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>24.21784400939941</v>
+        <v>23.90098571777344</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>12.92300224304199</v>
+        <v>12.60614395141602</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="F360" t="n">
-        <v>16.16067886352539</v>
+        <v>15.50984382629395</v>
       </c>
       <c r="G360" t="n">
         <v>0.4589743589743589</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="F361" t="n">
-        <v>18.14150810241699</v>
+        <v>17.52066612243652</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="F362" t="n">
-        <v>19.21367645263672</v>
+        <v>18.66602897644043</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="F363" t="n">
-        <v>20.15948295593262</v>
+        <v>19.47963237762451</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>21.23129367828369</v>
+        <v>20.66187858581543</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="F365" t="n">
-        <v>26.50690078735352</v>
+        <v>25.56204795837402</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="F366" t="n">
-        <v>14.74618911743164</v>
+        <v>14.11700248718262</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F367" t="n">
-        <v>15.75422286987305</v>
+        <v>15.41037559509277</v>
       </c>
       <c r="G367" t="n">
         <v>0.9641534391534392</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="F368" t="n">
-        <v>17.56167411804199</v>
+        <v>17.10343360900879</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="F369" t="n">
-        <v>18.62287521362305</v>
+        <v>18.0518627166748</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>19.67144012451172</v>
+        <v>19.01638507843018</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="F371" t="n">
-        <v>21.10130786895752</v>
+        <v>20.4639196395874</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>22.86982536315918</v>
+        <v>26.16381645202637</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -10029,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="F373" t="n">
-        <v>12.71796226501465</v>
+        <v>12.07280158996582</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>14.3977165222168</v>
+        <v>13.7122631072998</v>
       </c>
       <c r="G374" t="n">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="F375" t="n">
-        <v>17.20690727233887</v>
+        <v>16.76487922668457</v>
       </c>
       <c r="G375" t="n">
         <v>0.9393939393939394</v>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>19.12784576416016</v>
+        <v>18.69797706604004</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>21.11196517944336</v>
+        <v>20.46585083007812</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="F378" t="n">
-        <v>23.92263412475586</v>
+        <v>23.76995086669921</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="n">
-        <v>27.92692184448242</v>
+        <v>40.16709327697754</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>5.333900451660156</v>
+        <v>4.981040954589844</v>
       </c>
       <c r="G380" t="n">
         <v>0.6981132075471698</v>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="n">
-        <v>5.349302291870117</v>
+        <v>5.143368244171143</v>
       </c>
       <c r="G381" t="n">
         <v>0.9004616619831394</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>5.659580230712891</v>
+        <v>5.375266075134277</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="F383" t="n">
-        <v>5.877852439880371</v>
+        <v>5.56647777557373</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="F384" t="n">
-        <v>6.205439567565918</v>
+        <v>5.961239337921143</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="n">
-        <v>6.308197975158691</v>
+        <v>6.080830097198486</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>6.439924240112305</v>
+        <v>6.113052368164062</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="F387" t="n">
-        <v>7.852077484130859</v>
+        <v>7.580041885375977</v>
       </c>
       <c r="G387" t="n">
         <v>0</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="F388" t="n">
-        <v>8.929026126861572</v>
+        <v>8.579039573669434</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="F389" t="n">
-        <v>10.32602787017822</v>
+        <v>9.836137294769287</v>
       </c>
       <c r="G389" t="n">
         <v>0</v>
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>14.49644565582275</v>
+        <v>14.03403282165527</v>
       </c>
       <c r="G390" t="n">
         <v>0.6256038647342995</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>17.34989881515503</v>
+        <v>16.72810316085815</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="F392" t="n">
-        <v>20.2838659286499</v>
+        <v>19.65738534927368</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>24.8560905456543</v>
+        <v>23.71525764465332</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="F394" t="n">
-        <v>2.241999998688698</v>
+        <v>2.282999999821186</v>
       </c>
       <c r="G394" t="n">
         <v>0.3571428571428572</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="F395" t="n">
-        <v>2.267949996143579</v>
+        <v>2.295749999396503</v>
       </c>
       <c r="G395" t="n">
         <v>0.5072916666666667</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="F396" t="n">
-        <v>2.315249998122454</v>
+        <v>2.344999998807907</v>
       </c>
       <c r="G396" t="n">
         <v>0.8451944240645635</v>
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>2.355000004172325</v>
+        <v>2.398000000044703</v>
       </c>
       <c r="G397" t="n">
         <v>0.9751228501228502</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="F398" t="n">
-        <v>2.418250001966953</v>
+        <v>2.453749998472631</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="F399" t="n">
-        <v>2.496599998325109</v>
+        <v>2.552200000546873</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="F400" t="n">
-        <v>2.521999999880791</v>
+        <v>2.573999997228384</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="F402" t="n">
-        <v>1.35660000294447</v>
+        <v>1.361350001953542</v>
       </c>
       <c r="G402" t="n">
         <v>0.8204545454545457</v>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="F403" t="n">
-        <v>1.461000006645918</v>
+        <v>1.468000001274049</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -10824,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="F404" t="n">
-        <v>1.476999998092651</v>
+        <v>1.492000000551343</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="n">
-        <v>1.498250002041459</v>
+        <v>1.514249999076128</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -10874,7 +10874,7 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="F406" t="n">
-        <v>1.545250001549721</v>
+        <v>1.547550005465746</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -10899,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="F407" t="n">
-        <v>1.581000000238419</v>
+        <v>1.589000001549721</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="F409" t="n">
-        <v>2.304100000113249</v>
+        <v>2.295000001788139</v>
       </c>
       <c r="G409" t="n">
         <v>0.2994117647058823</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="F410" t="n">
-        <v>2.4239999987185</v>
+        <v>2.365500003099442</v>
       </c>
       <c r="G410" t="n">
         <v>0.3899769585253456</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="n">
-        <v>2.502999998629093</v>
+        <v>2.440999999642372</v>
       </c>
       <c r="G411" t="n">
         <v>0.8461538461538461</v>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="F412" t="n">
-        <v>2.604499999433756</v>
+        <v>2.535000000149012</v>
       </c>
       <c r="G412" t="n">
         <v>0.9767441860465116</v>
@@ -11053,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="F413" t="n">
-        <v>2.940100002288818</v>
+        <v>2.78390000090003</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -11078,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="F414" t="n">
-        <v>3.085999995470047</v>
+        <v>3.087999999523163</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="F415" t="n">
-        <v>2.727000005543232</v>
+        <v>2.733999997377396</v>
       </c>
       <c r="G415" t="n">
         <v>0.06349206349206349</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="n">
-        <v>2.778099998086691</v>
+        <v>2.802000001072884</v>
       </c>
       <c r="G416" t="n">
         <v>0.2896153846153846</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="F417" t="n">
-        <v>2.922500003129244</v>
+        <v>2.913500003516674</v>
       </c>
       <c r="G417" t="n">
         <v>0.5196153846153846</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="F418" t="n">
-        <v>3.060000002384186</v>
+        <v>3.015000000596046</v>
       </c>
       <c r="G418" t="n">
         <v>0.6585365853658537</v>
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>3.216000001877546</v>
+        <v>3.168499998748302</v>
       </c>
       <c r="G419" t="n">
         <v>0.8024390243902439</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>3.544499995559454</v>
+        <v>3.464700002968311</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="F421" t="n">
-        <v>7.820000000298022</v>
+        <v>5.483999997377396</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="F422" t="n">
-        <v>2.655000001192093</v>
+        <v>2.678999990224838</v>
       </c>
       <c r="G422" t="n">
         <v>0.1842105263157895</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="F423" t="n">
-        <v>2.752999997884035</v>
+        <v>2.732899996638298</v>
       </c>
       <c r="G423" t="n">
         <v>0.6838095238095239</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>2.835499998182058</v>
+        <v>2.804999992251396</v>
       </c>
       <c r="G424" t="n">
         <v>0.9473684210526315</v>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="F425" t="n">
-        <v>2.927000001072884</v>
+        <v>2.895999997854233</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="F426" t="n">
-        <v>3.072500001639128</v>
+        <v>3.009999990463257</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="F427" t="n">
-        <v>3.4804000005126</v>
+        <v>3.344400005042552</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="F428" t="n">
-        <v>4.836000002920628</v>
+        <v>47.39099998772144</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="F429" t="n">
-        <v>2.743999995291233</v>
+        <v>2.745000004768372</v>
       </c>
       <c r="G429" t="n">
         <v>0</v>
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="F430" t="n">
-        <v>2.829399999976158</v>
+        <v>2.804799994826317</v>
       </c>
       <c r="G430" t="n">
         <v>0.1753846153846155</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="F431" t="n">
-        <v>2.967999994754791</v>
+        <v>2.961999997496605</v>
       </c>
       <c r="G431" t="n">
         <v>0.6571428571428571</v>
@@ -11540,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="F432" t="n">
-        <v>3.111999996006489</v>
+        <v>3.127000004053116</v>
       </c>
       <c r="G432" t="n">
         <v>0.8214285714285714</v>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="F433" t="n">
-        <v>3.434000000357628</v>
+        <v>3.289000004529953</v>
       </c>
       <c r="G433" t="n">
         <v>0.9642857142857143</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="F434" t="n">
-        <v>3.96700000166893</v>
+        <v>3.700200006365775</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="F435" t="n">
-        <v>4.256000004708767</v>
+        <v>6.665000006556511</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="F436" t="n">
-        <v>1.552000001072884</v>
+        <v>1.56700000166893</v>
       </c>
       <c r="G436" t="n">
         <v>0.3454545454545455</v>
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F437" t="n">
-        <v>1.554549999907613</v>
+        <v>1.575500006228685</v>
       </c>
       <c r="G437" t="n">
         <v>0.633397129186603</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="F438" t="n">
-        <v>1.58600000012666</v>
+        <v>1.593999996781349</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -11719,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="F439" t="n">
-        <v>1.605499997735023</v>
+        <v>1.599999999627471</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="n">
-        <v>1.631749998778105</v>
+        <v>1.627499996684492</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="n">
-        <v>1.719149999693036</v>
+        <v>1.658650001138449</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="F442" t="n">
-        <v>1.754000000655651</v>
+        <v>1.753000002354383</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="F443" t="n">
-        <v>2.294999998062849</v>
+        <v>2.300999999046326</v>
       </c>
       <c r="G443" t="n">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="F444" t="n">
-        <v>2.436000000685453</v>
+        <v>2.471449998021126</v>
       </c>
       <c r="G444" t="n">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>2.787999999709427</v>
+        <v>2.788249999284744</v>
       </c>
       <c r="G445" t="n">
         <v>0.4097593582887701</v>
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="n">
-        <v>3.023499999195337</v>
+        <v>3.001000000163913</v>
       </c>
       <c r="G446" t="n">
         <v>0.9245014245014245</v>
@@ -11923,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="n">
-        <v>3.240999997593462</v>
+        <v>3.194249999709427</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>3.903450001217423</v>
+        <v>3.855500000156462</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="n">
-        <v>53.7339999973774</v>
+        <v>94.54900000244379</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -12006,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>1.902103424072266</v>
+        <v>1.849174499511719</v>
       </c>
       <c r="G450" t="n">
         <v>0.7659574468085106</v>
@@ -12031,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="n">
-        <v>1.930022239685059</v>
+        <v>1.877319812774658</v>
       </c>
       <c r="G451" t="n">
         <v>0.9328557312252964</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>1.980304718017578</v>
+        <v>1.942157745361328</v>
       </c>
       <c r="G452" t="n">
         <v>0.9626068376068375</v>
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="F453" t="n">
-        <v>2.004384994506836</v>
+        <v>2.012014389038086</v>
       </c>
       <c r="G453" t="n">
         <v>0.9793792517006803</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="F454" t="n">
-        <v>2.035319805145264</v>
+        <v>2.076029777526855</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -12131,7 +12131,7 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>2.05761194229126</v>
+        <v>2.13315486907959</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -12156,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="F456" t="n">
-        <v>2.138137817382812</v>
+        <v>3.436803817749023</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="F457" t="n">
-        <v>1.833915710449219</v>
+        <v>1.814842224121094</v>
       </c>
       <c r="G457" t="n">
         <v>0.9743589743589743</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="F458" t="n">
-        <v>1.86084508895874</v>
+        <v>1.839935779571533</v>
       </c>
       <c r="G458" t="n">
         <v>0.9795484151107251</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="F459" t="n">
-        <v>1.886606216430664</v>
+        <v>1.861810684204102</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="F460" t="n">
-        <v>1.904845237731934</v>
+        <v>1.878023147583008</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="F461" t="n">
-        <v>1.924812793731689</v>
+        <v>1.896917819976807</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="F462" t="n">
-        <v>1.963138580322266</v>
+        <v>1.937925815582275</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
       <c r="F463" t="n">
-        <v>2.087116241455078</v>
+        <v>2.022981643676758</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
       <c r="F464" t="n">
-        <v>1.833915710449219</v>
+        <v>1.907110214233398</v>
       </c>
       <c r="G464" t="n">
         <v>0.2333333333333333</v>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="F465" t="n">
-        <v>1.892423629760742</v>
+        <v>1.921916007995605</v>
       </c>
       <c r="G465" t="n">
         <v>0.78</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="F466" t="n">
-        <v>1.941919326782227</v>
+        <v>1.95002555847168</v>
       </c>
       <c r="G466" t="n">
         <v>0.9721362229102167</v>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>1.968145370483398</v>
+        <v>1.981019973754883</v>
       </c>
       <c r="G467" t="n">
         <v>0.9811320754716981</v>
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="F468" t="n">
-        <v>1.997232437133789</v>
+        <v>2.00200080871582</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="F469" t="n">
-        <v>2.053546905517578</v>
+        <v>2.054810523986816</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="F470" t="n">
-        <v>2.177000045776367</v>
+        <v>2.938985824584961</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="F471" t="n">
-        <v>2.019166946411133</v>
+        <v>2.079248428344727</v>
       </c>
       <c r="G471" t="n">
         <v>0</v>
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="F472" t="n">
-        <v>2.122926712036133</v>
+        <v>2.145838737487793</v>
       </c>
       <c r="G472" t="n">
         <v>0.1001449275362319</v>
@@ -12593,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="F473" t="n">
-        <v>2.197027206420898</v>
+        <v>2.199649810791016</v>
       </c>
       <c r="G473" t="n">
         <v>0.9183333333333333</v>
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="F474" t="n">
-        <v>2.233028411865234</v>
+        <v>2.230167388916016</v>
       </c>
       <c r="G474" t="n">
         <v>0.9714285714285714</v>
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="F475" t="n">
-        <v>2.29191780090332</v>
+        <v>2.27046012878418</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="F476" t="n">
-        <v>3.094077110290527</v>
+        <v>2.352738380432129</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="F477" t="n">
-        <v>14.11795616149902</v>
+        <v>5.33604621887207</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>1.996040344238281</v>
+        <v>2.032995223999023</v>
       </c>
       <c r="G478" t="n">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="F479" t="n">
-        <v>2.114629745483398</v>
+        <v>2.126550674438477</v>
       </c>
       <c r="G479" t="n">
         <v>0.7971428571428572</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="F480" t="n">
-        <v>2.164483070373535</v>
+        <v>2.167582511901855</v>
       </c>
       <c r="G480" t="n">
         <v>0.9696691176470589</v>
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="F481" t="n">
-        <v>2.20799446105957</v>
+        <v>2.213239669799805</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>2.267241477966309</v>
+        <v>2.264261245727539</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="F483" t="n">
-        <v>2.578520774841306</v>
+        <v>2.402782440185547</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -12872,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="F484" t="n">
-        <v>3.669977188110352</v>
+        <v>60.42885780334473</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="F485" t="n">
-        <v>1.776218414306641</v>
+        <v>1.895904541015625</v>
       </c>
       <c r="G485" t="n">
         <v>0</v>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>2.038240432739258</v>
+        <v>2.01725959777832</v>
       </c>
       <c r="G486" t="n">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>2.179861068725586</v>
+        <v>2.188682556152344</v>
       </c>
       <c r="G487" t="n">
         <v>0.325</v>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>2.241849899291992</v>
+        <v>2.248048782348633</v>
       </c>
       <c r="G488" t="n">
         <v>0.8888888888888888</v>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>2.298116683959961</v>
+        <v>2.312898635864258</v>
       </c>
       <c r="G489" t="n">
         <v>0.9655172413793104</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>2.581214904785156</v>
+        <v>3.355264663696281</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>3.654718399047852</v>
+        <v>7.752895355224609</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="F492" t="n">
-        <v>1.675128936767578</v>
+        <v>1.650094985961914</v>
       </c>
       <c r="G492" t="n">
         <v>0.6851851851851852</v>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>1.675736904144287</v>
+        <v>1.650905609130859</v>
       </c>
       <c r="G493" t="n">
         <v>0.8985224586288416</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="F494" t="n">
-        <v>1.684963703155518</v>
+        <v>1.659929752349854</v>
       </c>
       <c r="G494" t="n">
         <v>0.9790425531914894</v>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>1.708865165710449</v>
+        <v>1.677036285400391</v>
       </c>
       <c r="G495" t="n">
         <v>0.9822884012539185</v>
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="F496" t="n">
-        <v>1.756787300109863</v>
+        <v>1.698791980743408</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="F497" t="n">
-        <v>1.865065097808838</v>
+        <v>1.72351598739624</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="F498" t="n">
-        <v>1.928091049194336</v>
+        <v>1.726150512695312</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="F499" t="n">
-        <v>1.852989196777344</v>
+        <v>1.770973205566406</v>
       </c>
       <c r="G499" t="n">
         <v>0</v>
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="F500" t="n">
-        <v>1.922249794006348</v>
+        <v>1.908206939697266</v>
       </c>
       <c r="G500" t="n">
         <v>0</v>
@@ -13309,7 +13309,7 @@
         <v>0</v>
       </c>
       <c r="F501" t="n">
-        <v>2.035558223724365</v>
+        <v>2.001285552978516</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="F502" t="n">
-        <v>2.13015079498291</v>
+        <v>2.102971076965332</v>
       </c>
       <c r="G502" t="n">
         <v>0</v>
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="F503" t="n">
-        <v>2.262771129608154</v>
+        <v>2.161681652069092</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="F504" t="n">
-        <v>2.409243583679199</v>
+        <v>2.254641056060791</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="F505" t="n">
-        <v>5.263805389404297</v>
+        <v>2.626657485961914</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="F506" t="n">
-        <v>2.768993377685547</v>
+        <v>2.741098403930664</v>
       </c>
       <c r="G506" t="n">
         <v>0</v>
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="F507" t="n">
-        <v>2.889490127563477</v>
+        <v>2.891683578491211</v>
       </c>
       <c r="G507" t="n">
         <v>0.5911422708618331</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="F508" t="n">
-        <v>3.192126750946045</v>
+        <v>3.20279598236084</v>
       </c>
       <c r="G508" t="n">
         <v>0.9276785714285715</v>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="F509" t="n">
-        <v>3.330469131469727</v>
+        <v>3.337502479553223</v>
       </c>
       <c r="G509" t="n">
         <v>0.9722222222222222</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="F510" t="n">
-        <v>3.558754920959473</v>
+        <v>3.551304340362549</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -13567,7 +13567,7 @@
         <v>0</v>
       </c>
       <c r="F511" t="n">
-        <v>4.323434829711914</v>
+        <v>4.527628421783447</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>5.050897598266602</v>
+        <v>4.940032958984375</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>2.320289611816406</v>
+        <v>2.24614143371582</v>
       </c>
       <c r="G513" t="n">
         <v>0</v>
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="F514" t="n">
-        <v>2.508115768432617</v>
+        <v>2.52845287322998</v>
       </c>
       <c r="G514" t="n">
         <v>0</v>
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="F515" t="n">
-        <v>3.02588939666748</v>
+        <v>2.968728542327881</v>
       </c>
       <c r="G515" t="n">
         <v>0.5735772357723576</v>
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="F516" t="n">
-        <v>3.517508506774902</v>
+        <v>3.393411636352539</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -13721,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="F517" t="n">
-        <v>3.859221935272217</v>
+        <v>3.673017024993896</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="F518" t="n">
-        <v>4.561698436737061</v>
+        <v>4.38460111618042</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="F519" t="n">
-        <v>4.781723022460938</v>
+        <v>4.792213439941406</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
-        <v>1.913785934448242</v>
+        <v>1.896142959594727</v>
       </c>
       <c r="G520" t="n">
         <v>0</v>
@@ -13825,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>2.533125877380371</v>
+        <v>2.506017684936523</v>
       </c>
       <c r="G521" t="n">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>3.135085105895996</v>
+        <v>3.144502639770508</v>
       </c>
       <c r="G522" t="n">
         <v>0.1043557168784029</v>
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="F523" t="n">
-        <v>3.409862518310547</v>
+        <v>3.399133682250977</v>
       </c>
       <c r="G523" t="n">
         <v>0.8888888888888888</v>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>4.024028778076172</v>
+        <v>4.04202938079834</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>4.814052581787109</v>
+        <v>4.788756370544434</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>5.582809448242188</v>
+        <v>5.51295280456543</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="F527" t="n">
-        <v>2.152919769287109</v>
+        <v>2.241134643554688</v>
       </c>
       <c r="G527" t="n">
         <v>0</v>
@@ -14004,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="F528" t="n">
-        <v>2.314853668212891</v>
+        <v>2.337956428527832</v>
       </c>
       <c r="G528" t="n">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="F529" t="n">
-        <v>2.458333969116211</v>
+        <v>2.403616905212402</v>
       </c>
       <c r="G529" t="n">
         <v>0</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="F530" t="n">
-        <v>3.092288970947266</v>
+        <v>2.610921859741211</v>
       </c>
       <c r="G530" t="n">
         <v>0</v>
@@ -14079,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="F531" t="n">
-        <v>3.85594367980957</v>
+        <v>3.566980361938477</v>
       </c>
       <c r="G531" t="n">
         <v>0.7427626137303557</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="F532" t="n">
-        <v>4.799866676330566</v>
+        <v>4.290461540222168</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="F533" t="n">
-        <v>6.303071975708008</v>
+        <v>6.27899169921875</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="F534" t="n">
-        <v>2.252101898193359</v>
+        <v>2.262115478515625</v>
       </c>
       <c r="G534" t="n">
         <v>0</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="F535" t="n">
-        <v>2.354574203491211</v>
+        <v>2.356815338134766</v>
       </c>
       <c r="G535" t="n">
         <v>0</v>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="F536" t="n">
-        <v>2.699494361877441</v>
+        <v>2.555966377258301</v>
       </c>
       <c r="G536" t="n">
         <v>0</v>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="F537" t="n">
-        <v>3.439188003540039</v>
+        <v>3.377199172973633</v>
       </c>
       <c r="G537" t="n">
         <v>0.3888888888888889</v>
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="F538" t="n">
-        <v>3.880023956298828</v>
+        <v>3.732442855834961</v>
       </c>
       <c r="G538" t="n">
         <v>0.9905660377358491</v>
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="F539" t="n">
-        <v>4.755115509033203</v>
+        <v>4.539608955383301</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="F540" t="n">
-        <v>5.173921585083008</v>
+        <v>7.354259490966797</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>2.212285995483398</v>
+        <v>2.183198928833008</v>
       </c>
       <c r="G541" t="n">
         <v>0</v>
@@ -14362,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="F542" t="n">
-        <v>2.315378189086914</v>
+        <v>2.336883544921875</v>
       </c>
       <c r="G542" t="n">
         <v>0</v>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="F543" t="n">
-        <v>2.44593620300293</v>
+        <v>2.429962158203125</v>
       </c>
       <c r="G543" t="n">
         <v>0</v>
@@ -14412,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="F544" t="n">
-        <v>2.751827239990234</v>
+        <v>2.763032913208008</v>
       </c>
       <c r="G544" t="n">
         <v>0</v>
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="F545" t="n">
-        <v>3.342151641845703</v>
+        <v>3.219127655029297</v>
       </c>
       <c r="G545" t="n">
         <v>0.05263157894736842</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="F546" t="n">
-        <v>4.455995559692383</v>
+        <v>4.397726058959959</v>
       </c>
       <c r="G546" t="n">
         <v>0.4569696969696966</v>
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
       <c r="F547" t="n">
-        <v>22.63689041137695</v>
+        <v>22.4609375</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="F548" t="n">
-        <v>2.100944519042969</v>
+        <v>2.048015594482422</v>
       </c>
       <c r="G548" t="n">
         <v>0</v>
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="F549" t="n">
-        <v>2.334606647491455</v>
+        <v>2.167987823486328</v>
       </c>
       <c r="G549" t="n">
         <v>0</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="F550" t="n">
-        <v>2.488613128662109</v>
+        <v>2.398848533630371</v>
       </c>
       <c r="G550" t="n">
         <v>0.02551679586563307</v>
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>2.590537071228027</v>
+        <v>2.471923828125</v>
       </c>
       <c r="G551" t="n">
         <v>0.5574074074074074</v>
@@ -14616,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>2.928793430328369</v>
+        <v>2.81912088394165</v>
       </c>
       <c r="G552" t="n">
         <v>0.9276785714285715</v>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="F553" t="n">
-        <v>3.614020347595214</v>
+        <v>3.314030170440672</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -14666,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="F554" t="n">
-        <v>4.181861877441406</v>
+        <v>4.045009613037109</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>1.711130142211914</v>
+        <v>1.717090606689453</v>
       </c>
       <c r="G555" t="n">
         <v>0</v>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>2.312827110290527</v>
+        <v>2.317631244659424</v>
       </c>
       <c r="G556" t="n">
         <v>0</v>
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="F557" t="n">
-        <v>2.767026424407959</v>
+        <v>2.767801284790039</v>
       </c>
       <c r="G557" t="n">
         <v>0</v>
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>3.110527992248535</v>
+        <v>3.034472465515137</v>
       </c>
       <c r="G558" t="n">
         <v>0</v>
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>3.541052341461182</v>
+        <v>3.498315811157227</v>
       </c>
       <c r="G559" t="n">
         <v>0.8377403846153846</v>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>4.464805126190186</v>
+        <v>4.256284236907959</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -14845,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>5.527973175048828</v>
+        <v>5.270719528198242</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>18.62502098083496</v>
+        <v>17.93694496154785</v>
       </c>
       <c r="G562" t="n">
         <v>0.78</v>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="F563" t="n">
-        <v>18.65420341491699</v>
+        <v>17.99769401550293</v>
       </c>
       <c r="G563" t="n">
         <v>0.8972916666666667</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>18.67794990539551</v>
+        <v>18.06420087814331</v>
       </c>
       <c r="G564" t="n">
         <v>0.9441823899371069</v>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>18.699049949646</v>
+        <v>18.32103729248047</v>
       </c>
       <c r="G565" t="n">
         <v>0.9642401021711366</v>
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="F566" t="n">
-        <v>18.7193751335144</v>
+        <v>18.43118667602539</v>
       </c>
       <c r="G566" t="n">
         <v>0.9722222222222222</v>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="F567" t="n">
-        <v>18.86276006698608</v>
+        <v>18.52083206176758</v>
       </c>
       <c r="G567" t="n">
         <v>0.9761904761904762</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>19.14501190185547</v>
+        <v>18.54085922241211</v>
       </c>
       <c r="G568" t="n">
         <v>0.9777777777777777</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="F569" t="n">
-        <v>12.68982887268066</v>
+        <v>12.22395896911621</v>
       </c>
       <c r="G569" t="n">
         <v>0.9666666666666667</v>
@@ -15082,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="F570" t="n">
-        <v>12.73075342178345</v>
+        <v>12.23702430725098</v>
       </c>
       <c r="G570" t="n">
         <v>0.9676881720430108</v>
@@ -15107,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="F571" t="n">
-        <v>12.91877031326294</v>
+        <v>12.28111982345581</v>
       </c>
       <c r="G571" t="n">
         <v>0.9714285714285714</v>
@@ -15132,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="F572" t="n">
-        <v>12.9389762878418</v>
+        <v>12.33303546905518</v>
       </c>
       <c r="G572" t="n">
         <v>0.9722222222222222</v>
@@ -15157,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>12.9578709602356</v>
+        <v>12.49426603317261</v>
       </c>
       <c r="G573" t="n">
         <v>0.975</v>
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>13.00692558288574</v>
+        <v>12.53455877304077</v>
       </c>
       <c r="G574" t="n">
         <v>0.9767706131078223</v>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>13.03887367248535</v>
+        <v>12.5579833984375</v>
       </c>
       <c r="G575" t="n">
         <v>0.9777777777777777</v>
@@ -15236,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="F576" t="n">
-        <v>18.06306838989258</v>
+        <v>17.68994331359863</v>
       </c>
       <c r="G576" t="n">
         <v>0.2405063291139241</v>
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="F577" t="n">
-        <v>18.1349515914917</v>
+        <v>17.80574321746826</v>
       </c>
       <c r="G577" t="n">
         <v>0.3491228070175438</v>
@@ -15286,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>18.17953586578369</v>
+        <v>17.83215999603271</v>
       </c>
       <c r="G578" t="n">
         <v>0.8830369357045144</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="F579" t="n">
-        <v>18.22805404663086</v>
+        <v>17.86208152770996</v>
       </c>
       <c r="G579" t="n">
         <v>0.96</v>
@@ -15336,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="F580" t="n">
-        <v>18.48232746124268</v>
+        <v>17.9065465927124</v>
       </c>
       <c r="G580" t="n">
         <v>0.9722222222222222</v>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="F581" t="n">
-        <v>18.71287822723389</v>
+        <v>18.17586421966553</v>
       </c>
       <c r="G581" t="n">
         <v>0.9792091836734693</v>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="F582" t="n">
-        <v>18.91994476318359</v>
+        <v>18.2342529296875</v>
       </c>
       <c r="G582" t="n">
         <v>0.9807692307692307</v>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="F583" t="n">
-        <v>25.31790733337402</v>
+        <v>24.94120597839355</v>
       </c>
       <c r="G583" t="n">
         <v>0.1515151515151515</v>
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
       <c r="F584" t="n">
-        <v>25.47237873077393</v>
+        <v>25.0347375869751</v>
       </c>
       <c r="G584" t="n">
         <v>0.3924148606811145</v>
@@ -15465,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="F585" t="n">
-        <v>25.70056915283203</v>
+        <v>25.20036697387695</v>
       </c>
       <c r="G585" t="n">
         <v>0.6631205673758864</v>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="F586" t="n">
-        <v>25.92206001281738</v>
+        <v>25.29001235961914</v>
       </c>
       <c r="G586" t="n">
         <v>0.8461538461538461</v>
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="F587" t="n">
-        <v>26.19409561157227</v>
+        <v>25.42960643768311</v>
       </c>
       <c r="G587" t="n">
         <v>0.9333333333333333</v>
@@ -15540,7 +15540,7 @@
         <v>0</v>
       </c>
       <c r="F588" t="n">
-        <v>26.38299465179443</v>
+        <v>25.70219039916992</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="F589" t="n">
-        <v>27.31585502624512</v>
+        <v>28.20301055908203</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="F590" t="n">
-        <v>25.36225318908691</v>
+        <v>24.93715286254883</v>
       </c>
       <c r="G590" t="n">
         <v>0.2826086956521739</v>
@@ -15619,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="F591" t="n">
-        <v>25.47571659088135</v>
+        <v>25.08296966552734</v>
       </c>
       <c r="G591" t="n">
         <v>0.6764705882352942</v>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="F592" t="n">
-        <v>25.65395832061768</v>
+        <v>25.24435520172119</v>
       </c>
       <c r="G592" t="n">
         <v>0.8717948717948718</v>
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="F593" t="n">
-        <v>25.93207359313965</v>
+        <v>25.33793449401855</v>
       </c>
       <c r="G593" t="n">
         <v>0.9444444444444444</v>
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="F594" t="n">
-        <v>26.21400356292725</v>
+        <v>25.45845508575439</v>
       </c>
       <c r="G594" t="n">
         <v>0.9746794871794872</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="F595" t="n">
-        <v>26.39713287353516</v>
+        <v>25.65999031066895</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -15744,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="F596" t="n">
-        <v>26.93986892700195</v>
+        <v>27.82511711120605</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="F597" t="n">
-        <v>25.40087699890137</v>
+        <v>24.98292922973633</v>
       </c>
       <c r="G597" t="n">
         <v>0</v>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="F598" t="n">
-        <v>25.45919418334961</v>
+        <v>25.09241104125977</v>
       </c>
       <c r="G598" t="n">
         <v>0</v>
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="F599" t="n">
-        <v>25.71606636047363</v>
+        <v>25.1917839050293</v>
       </c>
       <c r="G599" t="n">
         <v>0.4516129032258064</v>
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="F600" t="n">
-        <v>26.00383758544922</v>
+        <v>25.34794807434082</v>
       </c>
       <c r="G600" t="n">
         <v>0.6</v>
@@ -15873,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="F601" t="n">
-        <v>26.14092826843262</v>
+        <v>25.48003196716309</v>
       </c>
       <c r="G601" t="n">
         <v>0.7391304347826086</v>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="F602" t="n">
-        <v>26.32637023925781</v>
+        <v>26.18260383605957</v>
       </c>
       <c r="G602" t="n">
         <v>0.9521804511278192</v>
@@ -15923,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="F603" t="n">
-        <v>28.36704254150391</v>
+        <v>29.46901321411133</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -15952,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="F604" t="n">
-        <v>7.056951522827148</v>
+        <v>6.799221038818359</v>
       </c>
       <c r="G604" t="n">
         <v>0.6727272727272727</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="F605" t="n">
-        <v>7.056951522827148</v>
+        <v>6.800031661987305</v>
       </c>
       <c r="G605" t="n">
         <v>0.8800757575757576</v>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="F606" t="n">
-        <v>7.066011428833008</v>
+        <v>6.806373596191406</v>
       </c>
       <c r="G606" t="n">
         <v>0.9671875</v>
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="F607" t="n">
-        <v>7.073879241943359</v>
+        <v>6.811022758483887</v>
       </c>
       <c r="G607" t="n">
         <v>0.9725975975975976</v>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
       <c r="F608" t="n">
-        <v>7.098197937011719</v>
+        <v>6.817758083343506</v>
       </c>
       <c r="G608" t="n">
         <v>0.9748397435897436</v>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="F609" t="n">
-        <v>7.620298862457275</v>
+        <v>6.824123859405518</v>
       </c>
       <c r="G609" t="n">
         <v>0.9758592017738359</v>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="F610" t="n">
-        <v>7.628202438354492</v>
+        <v>6.836891174316406</v>
       </c>
       <c r="G610" t="n">
         <v>0.9772727272727273</v>
@@ -16131,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="F611" t="n">
-        <v>17.35401153564453</v>
+        <v>16.55888557434082</v>
       </c>
       <c r="G611" t="n">
         <v>0</v>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
       <c r="F612" t="n">
-        <v>17.60499477386475</v>
+        <v>16.79897308349609</v>
       </c>
       <c r="G612" t="n">
         <v>0.3</v>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="F613" t="n">
-        <v>21.31873369216919</v>
+        <v>20.1076865196228</v>
       </c>
       <c r="G613" t="n">
         <v>0.6439393939393939</v>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="F614" t="n">
-        <v>23.88989925384521</v>
+        <v>22.77100086212158</v>
       </c>
       <c r="G614" t="n">
         <v>0.8473193473193473</v>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="F615" t="n">
-        <v>26.8290638923645</v>
+        <v>25.61742067337036</v>
       </c>
       <c r="G615" t="n">
         <v>0.954004329004329</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="F616" t="n">
-        <v>27.6052713394165</v>
+        <v>26.61281824111938</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="F617" t="n">
-        <v>36.86189651489258</v>
+        <v>30.94387054443359</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="F618" t="n">
-        <v>2.229928970336914</v>
+        <v>2.238035202026367</v>
       </c>
       <c r="G618" t="n">
         <v>0.7419354838709677</v>
@@ -16339,7 +16339,7 @@
         <v>0</v>
       </c>
       <c r="F619" t="n">
-        <v>2.283561229705811</v>
+        <v>2.27891206741333</v>
       </c>
       <c r="G619" t="n">
         <v>0.9161094224924012</v>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="F620" t="n">
-        <v>2.397656440734863</v>
+        <v>2.382040023803711</v>
       </c>
       <c r="G620" t="n">
         <v>0.9703654188948306</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="F621" t="n">
-        <v>2.463817596435547</v>
+        <v>2.430081367492676</v>
       </c>
       <c r="G621" t="n">
         <v>0.9789450354609929</v>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="F622" t="n">
-        <v>2.578556537628174</v>
+        <v>2.548694610595703</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -16439,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="F623" t="n">
-        <v>2.770805358886719</v>
+        <v>2.778267860412598</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="F624" t="n">
-        <v>2.820968627929688</v>
+        <v>2.812862396240234</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="F625" t="n">
-        <v>2.160787582397461</v>
+        <v>2.107143402099609</v>
       </c>
       <c r="G625" t="n">
         <v>0.9722222222222222</v>
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="F626" t="n">
-        <v>2.223324775695801</v>
+        <v>2.168667316436768</v>
       </c>
       <c r="G626" t="n">
         <v>0.9767441860465116</v>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="F627" t="n">
-        <v>2.303838729858398</v>
+        <v>2.220094203948975</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -16568,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="F628" t="n">
-        <v>2.339005470275879</v>
+        <v>2.27808952331543</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="F629" t="n">
-        <v>2.408981323242188</v>
+        <v>2.336204051971436</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -16618,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="F630" t="n">
-        <v>2.492010593414307</v>
+        <v>2.404987812042236</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -16643,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="F631" t="n">
-        <v>2.611160278320312</v>
+        <v>2.468109130859375</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -16672,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="F632" t="n">
-        <v>2.114057540893555</v>
+        <v>2.116680145263672</v>
       </c>
       <c r="G632" t="n">
         <v>0.2363636363636364</v>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
       <c r="F633" t="n">
-        <v>2.305293083190918</v>
+        <v>2.29184627532959</v>
       </c>
       <c r="G633" t="n">
         <v>0.4428571428571428</v>
@@ -16722,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="F634" t="n">
-        <v>2.509236335754395</v>
+        <v>2.461552619934082</v>
       </c>
       <c r="G634" t="n">
         <v>0.9046003016591252</v>
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="F635" t="n">
-        <v>2.641201019287109</v>
+        <v>2.604246139526367</v>
       </c>
       <c r="G635" t="n">
         <v>0.9777777777777777</v>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="F636" t="n">
-        <v>2.781152725219727</v>
+        <v>2.737045288085938</v>
       </c>
       <c r="G636" t="n">
         <v>0.9838709677419355</v>
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="F637" t="n">
-        <v>3.460788726806641</v>
+        <v>3.388094902038574</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="F638" t="n">
-        <v>3.56602668762207</v>
+        <v>3.515720367431641</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -16851,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="F639" t="n">
-        <v>2.426862716674805</v>
+        <v>2.447843551635742</v>
       </c>
       <c r="G639" t="n">
         <v>0.8333333333333334</v>
@@ -16876,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="F640" t="n">
-        <v>2.560186386108398</v>
+        <v>2.515387535095215</v>
       </c>
       <c r="G640" t="n">
         <v>0.9501219512195122</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
       <c r="F641" t="n">
-        <v>2.696394920349121</v>
+        <v>2.657890319824219</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -16926,7 +16926,7 @@
         <v>0</v>
       </c>
       <c r="F642" t="n">
-        <v>2.810239791870117</v>
+        <v>2.768039703369141</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -16951,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="F643" t="n">
-        <v>2.946972846984863</v>
+        <v>2.9144287109375</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="F644" t="n">
-        <v>3.322267532348633</v>
+        <v>3.255438804626465</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="F645" t="n">
-        <v>3.875970840454102</v>
+        <v>3.818035125732422</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -17030,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="F646" t="n">
-        <v>2.38800048828125</v>
+        <v>2.357006072998047</v>
       </c>
       <c r="G646" t="n">
         <v>0.7391304347826086</v>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="F647" t="n">
-        <v>2.460646629333496</v>
+        <v>2.433896064758301</v>
       </c>
       <c r="G647" t="n">
         <v>0.9615384615384616</v>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="F648" t="n">
-        <v>2.569437026977539</v>
+        <v>2.53605842590332</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="F649" t="n">
-        <v>2.645969390869141</v>
+        <v>2.613067626953125</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="F650" t="n">
-        <v>2.724885940551758</v>
+        <v>2.697467803955078</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -17155,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="F651" t="n">
-        <v>2.877306938171387</v>
+        <v>2.885746955871582</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="F652" t="n">
-        <v>3.234148025512695</v>
+        <v>8.311033248901367</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
       <c r="F653" t="n">
-        <v>2.287149429321289</v>
+        <v>2.226114273071289</v>
       </c>
       <c r="G653" t="n">
         <v>0.3333333333333333</v>
@@ -17234,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="F654" t="n">
-        <v>2.495670318603516</v>
+        <v>2.449750900268555</v>
       </c>
       <c r="G654" t="n">
         <v>0.6832147937411096</v>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="F655" t="n">
-        <v>2.614021301269531</v>
+        <v>2.600908279418945</v>
       </c>
       <c r="G655" t="n">
         <v>0.8666666666666667</v>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="F656" t="n">
-        <v>2.741098403930664</v>
+        <v>2.728939056396484</v>
       </c>
       <c r="G656" t="n">
         <v>0.9310344827586207</v>
@@ -17309,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="F657" t="n">
-        <v>2.825260162353516</v>
+        <v>2.810239791870117</v>
       </c>
       <c r="G657" t="n">
         <v>0.9743589743589743</v>
@@ -17334,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="F658" t="n">
-        <v>3.07159423828125</v>
+        <v>3.095626831054686</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="F659" t="n">
-        <v>3.573894500732422</v>
+        <v>7.655858993530273</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
       <c r="F660" t="n">
-        <v>2.201080322265625</v>
+        <v>2.143144607543945</v>
       </c>
       <c r="G660" t="n">
         <v>0.6896551724137931</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="F661" t="n">
-        <v>2.225601673126221</v>
+        <v>2.164220809936523</v>
       </c>
       <c r="G661" t="n">
         <v>0.8927339901477833</v>
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="F662" t="n">
-        <v>2.333879470825195</v>
+        <v>2.256691455841064</v>
       </c>
       <c r="G662" t="n">
         <v>0.9783765032377428</v>
@@ -17463,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="F663" t="n">
-        <v>2.450227737426758</v>
+        <v>2.337098121643066</v>
       </c>
       <c r="G663" t="n">
         <v>0.98</v>
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="F664" t="n">
-        <v>2.519488334655762</v>
+        <v>2.401590347290039</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="F665" t="n">
-        <v>2.697610855102539</v>
+        <v>2.487695217132568</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -17538,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="F666" t="n">
-        <v>2.734899520874023</v>
+        <v>2.650022506713867</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -17567,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="F667" t="n">
-        <v>2.164840698242188</v>
+        <v>2.050161361694336</v>
       </c>
       <c r="G667" t="n">
         <v>0</v>
@@ -17592,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="F668" t="n">
-        <v>2.264463901519775</v>
+        <v>2.188849449157715</v>
       </c>
       <c r="G668" t="n">
         <v>0.6036637931034483</v>
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="F669" t="n">
-        <v>2.480566501617432</v>
+        <v>2.357006072998047</v>
       </c>
       <c r="G669" t="n">
         <v>0.950595238095238</v>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="F670" t="n">
-        <v>2.630949020385742</v>
+        <v>2.518534660339355</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -17667,7 +17667,7 @@
         <v>0</v>
       </c>
       <c r="F671" t="n">
-        <v>2.813339233398438</v>
+        <v>2.708733081817627</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="F672" t="n">
-        <v>3.008985519409179</v>
+        <v>2.970385551452637</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="F673" t="n">
-        <v>3.582954406738281</v>
+        <v>3.625154495239258</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="F674" t="n">
-        <v>1.371145248413086</v>
+        <v>1.369237899780273</v>
       </c>
       <c r="G674" t="n">
         <v>0.9210526315789473</v>
@@ -17775,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="F675" t="n">
-        <v>1.421821117401123</v>
+        <v>1.433515548706055</v>
       </c>
       <c r="G675" t="n">
         <v>0.9411764705882353</v>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="F676" t="n">
-        <v>1.492202281951904</v>
+        <v>1.497507095336914</v>
       </c>
       <c r="G676" t="n">
         <v>0.9723767885532592</v>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="F677" t="n">
-        <v>1.575469970703125</v>
+        <v>1.667380332946777</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="F678" t="n">
-        <v>1.694560050964355</v>
+        <v>1.819133758544922</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="F679" t="n">
-        <v>1.809144020080566</v>
+        <v>1.987349987030029</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="F680" t="n">
-        <v>1.844882965087891</v>
+        <v>2.036094665527344</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="F681" t="n">
-        <v>1.253843307495117</v>
+        <v>1.217842102050781</v>
       </c>
       <c r="G681" t="n">
         <v>0.98</v>
@@ -17954,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="F682" t="n">
-        <v>1.286935806274414</v>
+        <v>1.253640651702881</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -17979,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="F683" t="n">
-        <v>1.329779624938965</v>
+        <v>1.291215419769287</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="F684" t="n">
-        <v>1.377463340759277</v>
+        <v>1.34587287902832</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="F685" t="n">
-        <v>1.481235027313232</v>
+        <v>1.440167427062988</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
       <c r="F686" t="n">
-        <v>1.692593097686768</v>
+        <v>1.671385765075684</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="F687" t="n">
-        <v>1.793146133422852</v>
+        <v>1.741647720336914</v>
       </c>
       <c r="G687" t="n">
         <v>1</v>
@@ -18108,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="F688" t="n">
-        <v>1.270055770874023</v>
+        <v>1.302719116210938</v>
       </c>
       <c r="G688" t="n">
         <v>0.3103448275862069</v>
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="F689" t="n">
-        <v>1.323747634887695</v>
+        <v>1.330995559692383</v>
       </c>
       <c r="G689" t="n">
         <v>0.8074074074074074</v>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="F690" t="n">
-        <v>1.42061710357666</v>
+        <v>1.433491706848145</v>
       </c>
       <c r="G690" t="n">
         <v>0.9809506531204644</v>
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="F691" t="n">
-        <v>1.524925231933594</v>
+        <v>1.530170440673828</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="F692" t="n">
-        <v>1.671552658081055</v>
+        <v>1.69980525970459</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -18233,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="F693" t="n">
-        <v>2.154207229614257</v>
+        <v>2.322936058044434</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="F694" t="n">
-        <v>2.810239791870117</v>
+        <v>2.927780151367188</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="F695" t="n">
-        <v>1.743078231811523</v>
+        <v>1.724958419799805</v>
       </c>
       <c r="G695" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="F696" t="n">
-        <v>1.901459693908691</v>
+        <v>1.949453353881836</v>
       </c>
       <c r="G696" t="n">
         <v>0.9751190476190476</v>
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="F697" t="n">
-        <v>2.073049545288086</v>
+        <v>2.134561538696289</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -18362,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="F698" t="n">
-        <v>2.21705436706543</v>
+        <v>2.285957336425781</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="F699" t="n">
-        <v>2.36058235168457</v>
+        <v>2.426505088806152</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -18412,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="F700" t="n">
-        <v>2.793693542480469</v>
+        <v>2.718353271484375</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="F701" t="n">
-        <v>5.067110061645508</v>
+        <v>5.51605224609375</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="F702" t="n">
-        <v>1.734256744384766</v>
+        <v>1.77311897277832</v>
       </c>
       <c r="G702" t="n">
         <v>0</v>
@@ -18491,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="F703" t="n">
-        <v>1.819992065429688</v>
+        <v>1.849699020385742</v>
       </c>
       <c r="G703" t="n">
         <v>0.9641534391534392</v>
@@ -18516,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="F704" t="n">
-        <v>1.993417739868164</v>
+        <v>2.036213874816895</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="F705" t="n">
-        <v>2.088069915771484</v>
+        <v>2.173185348510742</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -18566,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="F706" t="n">
-        <v>2.230286598205566</v>
+        <v>2.317547798156738</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -18591,7 +18591,7 @@
         <v>0</v>
       </c>
       <c r="F707" t="n">
-        <v>2.54824161529541</v>
+        <v>2.657151222229004</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="F708" t="n">
-        <v>3.334999084472656</v>
+        <v>9.670734405517578</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="F709" t="n">
-        <v>1.648902893066406</v>
+        <v>1.703977584838867</v>
       </c>
       <c r="G709" t="n">
         <v>0</v>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="F710" t="n">
-        <v>1.754045486450195</v>
+        <v>1.84788703918457</v>
       </c>
       <c r="G710" t="n">
         <v>0</v>
@@ -18695,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="F711" t="n">
-        <v>2.087116241455078</v>
+        <v>2.118110656738281</v>
       </c>
       <c r="G711" t="n">
         <v>0.6956521739130435</v>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="F712" t="n">
-        <v>2.29191780090332</v>
+        <v>2.362966537475586</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -18745,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="F713" t="n">
-        <v>2.521038055419922</v>
+        <v>2.540111541748047</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -18770,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="F714" t="n">
-        <v>3.173780441284179</v>
+        <v>3.314876556396483</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -18795,7 +18795,7 @@
         <v>0</v>
       </c>
       <c r="F715" t="n">
-        <v>3.758907318115234</v>
+        <v>9.133100509643555</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="F716" t="n">
-        <v>1.2359619140625</v>
+        <v>1.193046569824219</v>
       </c>
       <c r="G716" t="n">
         <v>0.6949152542372882</v>
@@ -18849,7 +18849,7 @@
         <v>0</v>
       </c>
       <c r="F717" t="n">
-        <v>1.237785816192627</v>
+        <v>1.195478439331055</v>
       </c>
       <c r="G717" t="n">
         <v>0.8999819689866571</v>
@@ -18874,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="F718" t="n">
-        <v>1.258492469787598</v>
+        <v>1.216411590576172</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -18899,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="F719" t="n">
-        <v>1.293063163757324</v>
+        <v>1.231908798217773</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
       <c r="F720" t="n">
-        <v>1.327037811279297</v>
+        <v>1.260995864868164</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="F721" t="n">
-        <v>1.356065273284912</v>
+        <v>1.307547092437744</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -18974,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="F722" t="n">
-        <v>1.357078552246094</v>
+        <v>1.326799392700195</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="F723" t="n">
-        <v>1.337051391601562</v>
+        <v>1.270055770874023</v>
       </c>
       <c r="G723" t="n">
         <v>0</v>
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="F724" t="n">
-        <v>1.50984525680542</v>
+        <v>1.42371654510498</v>
       </c>
       <c r="G724" t="n">
         <v>0</v>
@@ -19053,7 +19053,7 @@
         <v>0</v>
       </c>
       <c r="F725" t="n">
-        <v>1.733124256134033</v>
+        <v>1.612484455108643</v>
       </c>
       <c r="G725" t="n">
         <v>0</v>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="F726" t="n">
-        <v>2.073764801025391</v>
+        <v>1.946449279785156</v>
       </c>
       <c r="G726" t="n">
         <v>0.1143790849673203</v>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="F727" t="n">
-        <v>2.389907836914062</v>
+        <v>2.245187759399414</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="F728" t="n">
-        <v>2.700698375701904</v>
+        <v>2.550697326660156</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="F729" t="n">
-        <v>4.65703010559082</v>
+        <v>2.811908721923828</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="F730" t="n">
-        <v>1.895000003278255</v>
+        <v>1.875</v>
       </c>
       <c r="G730" t="n">
         <v>0.88</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="F731" t="n">
-        <v>1.941199998930097</v>
+        <v>1.928700000047684</v>
       </c>
       <c r="G731" t="n">
         <v>0.9307453416149069</v>
@@ -19236,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="F732" t="n">
-        <v>2.067250000778586</v>
+        <v>2.065249998122454</v>
       </c>
       <c r="G732" t="n">
         <v>0.9694602272727273</v>
@@ -19261,7 +19261,7 @@
         <v>0</v>
       </c>
       <c r="F733" t="n">
-        <v>2.188499998301268</v>
+        <v>2.160000002011657</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="F734" t="n">
-        <v>2.339249996468425</v>
+        <v>2.320749999955297</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="F735" t="n">
-        <v>2.647899995557964</v>
+        <v>2.616049998626113</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="F736" t="n">
-        <v>2.913999989628792</v>
+        <v>2.844000000506639</v>
       </c>
       <c r="G736" t="n">
         <v>1</v>
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="F737" t="n">
-        <v>1.71399999409914</v>
+        <v>1.651999998837709</v>
       </c>
       <c r="G737" t="n">
         <v>1</v>
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="F738" t="n">
-        <v>1.746150001510978</v>
+        <v>1.716900000348687</v>
       </c>
       <c r="G738" t="n">
         <v>1</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="F739" t="n">
-        <v>1.837750000879169</v>
+        <v>1.808249998837709</v>
       </c>
       <c r="G739" t="n">
         <v>1</v>
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="F740" t="n">
-        <v>1.917500000447035</v>
+        <v>1.885500000789762</v>
       </c>
       <c r="G740" t="n">
         <v>1</v>
@@ -19465,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="F741" t="n">
-        <v>1.97325000166893</v>
+        <v>1.955000000074506</v>
       </c>
       <c r="G741" t="n">
         <v>1</v>
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="F742" t="n">
-        <v>2.085949993133545</v>
+        <v>2.044299999624491</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="F743" t="n">
-        <v>2.131999999284744</v>
+        <v>2.11600000038743</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="F744" t="n">
-        <v>1.865000002086163</v>
+        <v>1.790000006556511</v>
       </c>
       <c r="G744" t="n">
         <v>0.6326530612244898</v>
@@ -19569,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="F745" t="n">
-        <v>1.945999998599291</v>
+        <v>1.885000001639128</v>
       </c>
       <c r="G745" t="n">
         <v>0.8225</v>
@@ -19594,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="F746" t="n">
-        <v>2.096499999985099</v>
+        <v>2.01349999755621</v>
       </c>
       <c r="G746" t="n">
         <v>0.9720279720279721</v>
@@ -19619,7 +19619,7 @@
         <v>0</v>
       </c>
       <c r="F747" t="n">
-        <v>2.244000002741814</v>
+        <v>2.197999998927116</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="F748" t="n">
-        <v>2.535000000149012</v>
+        <v>2.417999997735023</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="F749" t="n">
-        <v>2.874699999764561</v>
+        <v>2.705099996179342</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="F750" t="n">
-        <v>3.583000000566244</v>
+        <v>3.077999994158745</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -19723,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="F751" t="n">
-        <v>2.065999999642372</v>
+        <v>1.903000012040138</v>
       </c>
       <c r="G751" t="n">
         <v>0.5483870967741935</v>
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="F752" t="n">
-        <v>2.146600011736155</v>
+        <v>2.096400000154972</v>
       </c>
       <c r="G752" t="n">
         <v>0.8891891891891891</v>
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="F753" t="n">
-        <v>2.270000010728836</v>
+        <v>2.228000000119209</v>
       </c>
       <c r="G753" t="n">
         <v>0.9548846675712348</v>
@@ -19798,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="F754" t="n">
-        <v>2.376000002026558</v>
+        <v>2.334000006318092</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="F755" t="n">
-        <v>2.657000001519918</v>
+        <v>2.560999996960163</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="F756" t="n">
-        <v>3.6868000023067</v>
+        <v>3.725799995660782</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -19873,7 +19873,7 @@
         <v>0</v>
       </c>
       <c r="F757" t="n">
-        <v>18.15100000053644</v>
+        <v>8.745000004768372</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="F758" t="n">
-        <v>1.92399999499321</v>
+        <v>1.854000002145767</v>
       </c>
       <c r="G758" t="n">
         <v>0.8297872340425532</v>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="F759" t="n">
-        <v>2.053599991649389</v>
+        <v>1.97209999114275</v>
       </c>
       <c r="G759" t="n">
         <v>0.9444444444444444</v>
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
       <c r="F760" t="n">
-        <v>2.17850000411272</v>
+        <v>2.103500001132488</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="F761" t="n">
-        <v>2.281000003218651</v>
+        <v>2.226999998092651</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="F762" t="n">
-        <v>2.481499999761581</v>
+        <v>2.5</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="F763" t="n">
-        <v>3.639000000804662</v>
+        <v>3.632699997723102</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -20052,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="F764" t="n">
-        <v>6.362999998033047</v>
+        <v>20.71099999547005</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="F766" t="n">
-        <v>2.137799999117851</v>
+        <v>2.106400007009506</v>
       </c>
       <c r="G766" t="n">
         <v>0.2742474916387961</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="F767" t="n">
-        <v>2.341000005602837</v>
+        <v>2.355999991297722</v>
       </c>
       <c r="G767" t="n">
         <v>0.8214285714285714</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="F768" t="n">
-        <v>2.579999998211861</v>
+        <v>2.563999995589256</v>
       </c>
       <c r="G768" t="n">
         <v>0.9142857142857143</v>
@@ -20181,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="F769" t="n">
-        <v>3.339000001549721</v>
+        <v>3.358999997377396</v>
       </c>
       <c r="G769" t="n">
         <v>0.9696969696969697</v>
@@ -20206,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="F770" t="n">
-        <v>4.398600003123279</v>
+        <v>4.919400003552429</v>
       </c>
       <c r="G770" t="n">
         <v>1</v>
@@ -20231,7 +20231,7 @@
         <v>1</v>
       </c>
       <c r="F771" t="n">
-        <v>6.146999999880791</v>
+        <v>8.851000010967255</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="F772" t="n">
-        <v>1.524000003933907</v>
+        <v>1.530000001192093</v>
       </c>
       <c r="G772" t="n">
         <v>0.6909090909090909</v>
@@ -20285,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="F773" t="n">
-        <v>1.54779999833554</v>
+        <v>1.533399995416403</v>
       </c>
       <c r="G773" t="n">
         <v>0.9013286713286713</v>
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="F774" t="n">
-        <v>1.63300000037998</v>
+        <v>1.602000001817942</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -20335,7 +20335,7 @@
         <v>0</v>
       </c>
       <c r="F775" t="n">
-        <v>1.711500003933907</v>
+        <v>1.636000001803041</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -20360,7 +20360,7 @@
         <v>0</v>
       </c>
       <c r="F776" t="n">
-        <v>1.77674999833107</v>
+        <v>1.713750003837049</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="F777" t="n">
-        <v>1.835200000088662</v>
+        <v>1.761100005730986</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="F778" t="n">
-        <v>1.858999999240041</v>
+        <v>1.807000003755093</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -20489,7 +20489,7 @@
         <v>0</v>
       </c>
       <c r="F781" t="n">
-        <v>2.106249999254942</v>
+        <v>2.027250002138317</v>
       </c>
       <c r="G781" t="n">
         <v>0.8390322580645162</v>
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="F782" t="n">
-        <v>2.577500000596046</v>
+        <v>2.580500001087785</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="F783" t="n">
-        <v>3.954750000499189</v>
+        <v>3.903750001452863</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -20564,7 +20564,7 @@
         <v>1</v>
       </c>
       <c r="F784" t="n">
-        <v>9.29730000104755</v>
+        <v>9.09240000098943</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -20589,7 +20589,7 @@
         <v>1</v>
       </c>
       <c r="F785" t="n">
-        <v>30.26700000092387</v>
+        <v>32.17499999701977</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -20622,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="F786" t="n">
-        <v>0.7300000041723251</v>
+        <v>0.7529999986290932</v>
       </c>
       <c r="G786" t="n">
         <v>0.864406779661017</v>
@@ -20647,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="F787" t="n">
-        <v>0.7534999992698431</v>
+        <v>0.7663999982178211</v>
       </c>
       <c r="G787" t="n">
         <v>0.9224342105263158</v>
@@ -20672,7 +20672,7 @@
         <v>0</v>
       </c>
       <c r="F788" t="n">
-        <v>0.7902499986812472</v>
+        <v>0.7997500011697412</v>
       </c>
       <c r="G788" t="n">
         <v>0.9751984126984127</v>
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="F789" t="n">
-        <v>0.8149999987799674</v>
+        <v>0.8269999995827675</v>
       </c>
       <c r="G789" t="n">
         <v>1</v>
@@ -20722,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="F790" t="n">
-        <v>0.834000002592802</v>
+        <v>0.8590000011026859</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="F791" t="n">
-        <v>0.8636000018566847</v>
+        <v>0.9048499999567866</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="F792" t="n">
-        <v>0.9340000003576279</v>
+        <v>0.915999997407198</v>
       </c>
       <c r="G792" t="n">
         <v>1</v>
@@ -20801,7 +20801,7 @@
         <v>0</v>
       </c>
       <c r="F793" t="n">
-        <v>0.5869999974966049</v>
+        <v>0.6070000007748604</v>
       </c>
       <c r="G793" t="n">
         <v>1</v>
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="F794" t="n">
-        <v>0.5979999899864197</v>
+        <v>0.6190000027418137</v>
       </c>
       <c r="G794" t="n">
         <v>1</v>
@@ -20851,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="F795" t="n">
-        <v>0.6210000049322844</v>
+        <v>0.6310000000521541</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="F796" t="n">
-        <v>0.6360000036656857</v>
+        <v>0.6445000022649765</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="F797" t="n">
-        <v>0.6542500033974648</v>
+        <v>0.6689999997615814</v>
       </c>
       <c r="G797" t="n">
         <v>1</v>
@@ -20926,7 +20926,7 @@
         <v>0</v>
       </c>
       <c r="F798" t="n">
-        <v>0.7050999984145164</v>
+        <v>0.7010999973863363</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -20951,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="F799" t="n">
-        <v>0.7760000005364418</v>
+        <v>0.7320000007748604</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -21005,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="F801" t="n">
-        <v>0.7445999979972839</v>
+        <v>0.7024999968707561</v>
       </c>
       <c r="G801" t="n">
         <v>0.2153846153846154</v>
@@ -21030,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="F802" t="n">
-        <v>0.801000002771616</v>
+        <v>0.7864999994635582</v>
       </c>
       <c r="G802" t="n">
         <v>0.9356902356902357</v>
@@ -21055,7 +21055,7 @@
         <v>0</v>
       </c>
       <c r="F803" t="n">
-        <v>0.8439999967813492</v>
+        <v>0.8210000023245811</v>
       </c>
       <c r="G803" t="n">
         <v>1</v>
@@ -21080,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="F804" t="n">
-        <v>0.8900000005960464</v>
+        <v>0.8634999990463257</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -21105,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="F805" t="n">
-        <v>1.028999998793006</v>
+        <v>0.9422000013291836</v>
       </c>
       <c r="G805" t="n">
         <v>1</v>
@@ -21130,7 +21130,7 @@
         <v>1</v>
       </c>
       <c r="F806" t="n">
-        <v>1.139999996870756</v>
+        <v>1.167999997735023</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -21184,7 +21184,7 @@
         <v>0</v>
       </c>
       <c r="F808" t="n">
-        <v>0.8616999991238117</v>
+        <v>0.8571000009775162</v>
       </c>
       <c r="G808" t="n">
         <v>0.07769049489395127</v>
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="F809" t="n">
-        <v>1.113500002771616</v>
+        <v>1.060500003397465</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -21234,7 +21234,7 @@
         <v>0</v>
       </c>
       <c r="F810" t="n">
-        <v>1.510999999940395</v>
+        <v>1.424000009894371</v>
       </c>
       <c r="G810" t="n">
         <v>1</v>
@@ -21259,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="F811" t="n">
-        <v>1.722500000149012</v>
+        <v>1.714500002563</v>
       </c>
       <c r="G811" t="n">
         <v>1</v>
@@ -21284,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="F812" t="n">
-        <v>2.008699993044138</v>
+        <v>1.942400005459786</v>
       </c>
       <c r="G812" t="n">
         <v>1</v>
@@ -21309,7 +21309,7 @@
         <v>1</v>
       </c>
       <c r="F813" t="n">
-        <v>2.80799999833107</v>
+        <v>2.657999992370605</v>
       </c>
       <c r="G813" t="n">
         <v>1</v>
@@ -21363,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="F815" t="n">
-        <v>0.8589999988675118</v>
+        <v>0.8739999979734421</v>
       </c>
       <c r="G815" t="n">
         <v>0.788888888888889</v>
@@ -21388,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="F816" t="n">
-        <v>0.978499997407198</v>
+        <v>0.9600000008940697</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="F817" t="n">
-        <v>1.170999996364117</v>
+        <v>1.180000007152557</v>
       </c>
       <c r="G817" t="n">
         <v>1</v>
@@ -21438,7 +21438,7 @@
         <v>0</v>
       </c>
       <c r="F818" t="n">
-        <v>1.555500008165836</v>
+        <v>1.586500003933907</v>
       </c>
       <c r="G818" t="n">
         <v>1</v>
@@ -21463,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="F819" t="n">
-        <v>1.910100001841784</v>
+        <v>1.865999995172024</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -21488,7 +21488,7 @@
         <v>1</v>
       </c>
       <c r="F820" t="n">
-        <v>3.131999999284744</v>
+        <v>9.525999993085861</v>
       </c>
       <c r="G820" t="n">
         <v>1</v>
@@ -21567,7 +21567,7 @@
         <v>0</v>
       </c>
       <c r="F823" t="n">
-        <v>0.8819999992847443</v>
+        <v>0.8770000040531158</v>
       </c>
       <c r="G823" t="n">
         <v>0.02631578947368421</v>
@@ -21592,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="F824" t="n">
-        <v>1.071000002324581</v>
+        <v>1.065999999642372</v>
       </c>
       <c r="G824" t="n">
         <v>0.7083333333333334</v>
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="F825" t="n">
-        <v>1.571999996900558</v>
+        <v>1.600999996066093</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -21642,7 +21642,7 @@
         <v>1</v>
       </c>
       <c r="F826" t="n">
-        <v>1.871799999475479</v>
+        <v>1.856599992513656</v>
       </c>
       <c r="G826" t="n">
         <v>1</v>
@@ -21667,7 +21667,7 @@
         <v>1</v>
       </c>
       <c r="F827" t="n">
-        <v>2.570000007748604</v>
+        <v>1.927000001072884</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -21696,7 +21696,7 @@
         <v>0</v>
       </c>
       <c r="F828" t="n">
-        <v>0.7269999980926514</v>
+        <v>0.7390000000596046</v>
       </c>
       <c r="G828" t="n">
         <v>0.6981132075471698</v>
@@ -21721,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="F829" t="n">
-        <v>0.7337999992072582</v>
+        <v>0.742400000616908</v>
       </c>
       <c r="G829" t="n">
         <v>0.9066037735849057</v>
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="F830" t="n">
-        <v>0.7442499995231628</v>
+        <v>0.7482499972684309</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -21771,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="F831" t="n">
-        <v>0.767500001937151</v>
+        <v>0.763999997638166</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -21796,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="F832" t="n">
-        <v>0.7882500006817281</v>
+        <v>0.7777499994263053</v>
       </c>
       <c r="G832" t="n">
         <v>1</v>
@@ -21821,7 +21821,7 @@
         <v>0</v>
       </c>
       <c r="F833" t="n">
-        <v>0.8248499970883131</v>
+        <v>0.7983000038191675</v>
       </c>
       <c r="G833" t="n">
         <v>1</v>
@@ -21846,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="F834" t="n">
-        <v>0.840999998152256</v>
+        <v>0.8509999997913837</v>
       </c>
       <c r="G834" t="n">
         <v>1</v>
@@ -21900,7 +21900,7 @@
         <v>0</v>
       </c>
       <c r="F836" t="n">
-        <v>0.689899999462068</v>
+        <v>0.6714500011876225</v>
       </c>
       <c r="G836" t="n">
         <v>0</v>
@@ -21925,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="F837" t="n">
-        <v>0.8465000009164214</v>
+        <v>0.8205000003799796</v>
       </c>
       <c r="G837" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="F838" t="n">
-        <v>0.9580000005662441</v>
+        <v>0.9505000002682209</v>
       </c>
       <c r="G838" t="n">
         <v>1</v>
@@ -21975,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="F839" t="n">
-        <v>1.162000000476837</v>
+        <v>1.133750000968575</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="F840" t="n">
-        <v>1.581700000166893</v>
+        <v>1.514200000651181</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
       <c r="F841" t="n">
-        <v>8.802999999374151</v>
+        <v>7.453000001609325</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -22058,7 +22058,7 @@
         <v>0</v>
       </c>
       <c r="F842" t="n">
-        <v>6.811857223510742</v>
+        <v>6.432056427001953</v>
       </c>
       <c r="G842" t="n">
         <v>0.9166666666666666</v>
@@ -22083,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="F843" t="n">
-        <v>6.825017929077148</v>
+        <v>6.438064575195312</v>
       </c>
       <c r="G843" t="n">
         <v>0.9361801242236025</v>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="F844" t="n">
-        <v>6.841719150543213</v>
+        <v>6.459295749664307</v>
       </c>
       <c r="G844" t="n">
         <v>0.9727852852852853</v>
@@ -22133,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="F845" t="n">
-        <v>6.854057312011719</v>
+        <v>6.553053855895996</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -22158,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="F846" t="n">
-        <v>6.862163543701172</v>
+        <v>6.575822830200195</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -22183,7 +22183,7 @@
         <v>0</v>
       </c>
       <c r="F847" t="n">
-        <v>6.942510604858398</v>
+        <v>6.622278690338135</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="F848" t="n">
-        <v>7.014036178588867</v>
+        <v>6.633996963500977</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -22237,7 +22237,7 @@
         <v>0</v>
       </c>
       <c r="F849" t="n">
-        <v>5.099058151245117</v>
+        <v>4.868745803833008</v>
       </c>
       <c r="G849" t="n">
         <v>1</v>
@@ -22262,7 +22262,7 @@
         <v>0</v>
       </c>
       <c r="F850" t="n">
-        <v>5.170965194702148</v>
+        <v>4.877078533172607</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -22287,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="F851" t="n">
-        <v>5.180299282073975</v>
+        <v>4.887104034423828</v>
       </c>
       <c r="G851" t="n">
         <v>1</v>
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="F852" t="n">
-        <v>5.187392234802246</v>
+        <v>4.893064498901367</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="F853" t="n">
-        <v>5.196094512939453</v>
+        <v>4.903197288513184</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="F854" t="n">
-        <v>5.208802223205566</v>
+        <v>4.912853240966797</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -22387,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="F855" t="n">
-        <v>5.214214324951172</v>
+        <v>4.923105239868164</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -22416,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="F856" t="n">
-        <v>6.57200813293457</v>
+        <v>6.428003311157227</v>
       </c>
       <c r="G856" t="n">
         <v>0.8333333333333334</v>
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="F857" t="n">
-        <v>6.593585014343262</v>
+        <v>6.444191932678223</v>
       </c>
       <c r="G857" t="n">
         <v>0.9291497975708503</v>
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="F858" t="n">
-        <v>6.617903709411621</v>
+        <v>6.46507740020752</v>
       </c>
       <c r="G858" t="n">
         <v>0.9767441860465116</v>
@@ -22491,7 +22491,7 @@
         <v>0</v>
       </c>
       <c r="F859" t="n">
-        <v>6.64973258972168</v>
+        <v>6.479024887084961</v>
       </c>
       <c r="G859" t="n">
         <v>0.9876543209876543</v>
@@ -22516,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="F860" t="n">
-        <v>6.728172302246094</v>
+        <v>6.504297256469727</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -22541,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="F861" t="n">
-        <v>6.786084175109863</v>
+        <v>6.59337043762207</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -22566,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="F862" t="n">
-        <v>6.830930709838867</v>
+        <v>6.683111190795898</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="F863" t="n">
-        <v>8.732795715332031</v>
+        <v>8.504152297973633</v>
       </c>
       <c r="G863" t="n">
         <v>0.6451612903225806</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="F864" t="n">
-        <v>8.899736404418945</v>
+        <v>8.629393577575684</v>
       </c>
       <c r="G864" t="n">
         <v>0.9394545454545455</v>
@@ -22645,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="F865" t="n">
-        <v>9.061098098754883</v>
+        <v>8.666872978210449</v>
       </c>
       <c r="G865" t="n">
         <v>0.975609756097561</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="F866" t="n">
-        <v>9.114265441894531</v>
+        <v>8.748054504394531</v>
       </c>
       <c r="G866" t="n">
         <v>1</v>
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="F867" t="n">
-        <v>9.229540824890137</v>
+        <v>8.859872817993164</v>
       </c>
       <c r="G867" t="n">
         <v>1</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="F868" t="n">
-        <v>9.279584884643555</v>
+        <v>8.921027183532715</v>
       </c>
       <c r="G868" t="n">
         <v>1</v>
@@ -22745,7 +22745,7 @@
         <v>0</v>
       </c>
       <c r="F869" t="n">
-        <v>9.8419189453125</v>
+        <v>13.62109184265137</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="F870" t="n">
-        <v>8.810997009277344</v>
+        <v>8.478164672851562</v>
       </c>
       <c r="G870" t="n">
         <v>0.9210526315789473</v>
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="F871" t="n">
-        <v>8.920693397521973</v>
+        <v>8.612895011901855</v>
       </c>
       <c r="G871" t="n">
         <v>0.9642857142857143</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="F872" t="n">
-        <v>9.035468101501465</v>
+        <v>8.650064468383789</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="F873" t="n">
-        <v>9.101152420043945</v>
+        <v>8.714914321899414</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="F874" t="n">
-        <v>9.219050407409668</v>
+        <v>8.83948802947998</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="F875" t="n">
-        <v>9.276986122131348</v>
+        <v>8.890533447265625</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -22924,7 +22924,7 @@
         <v>0</v>
       </c>
       <c r="F876" t="n">
-        <v>9.463071823120117</v>
+        <v>12.57085800170898</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="F877" t="n">
-        <v>8.78596305847168</v>
+        <v>8.533000946044922</v>
       </c>
       <c r="G877" t="n">
         <v>0.6875</v>
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="F878" t="n">
-        <v>8.879518508911133</v>
+        <v>8.643674850463867</v>
       </c>
       <c r="G878" t="n">
         <v>0.8904365904365904</v>
@@ -23003,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="F879" t="n">
-        <v>9.053945541381836</v>
+        <v>8.682966232299805</v>
       </c>
       <c r="G879" t="n">
         <v>0.9565217391304348</v>
@@ -23028,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="F880" t="n">
-        <v>9.093999862670898</v>
+        <v>8.797883987426758</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="F881" t="n">
-        <v>9.231090545654297</v>
+        <v>8.867740631103516</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -23078,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="F882" t="n">
-        <v>9.265899658203125</v>
+        <v>8.990097045898438</v>
       </c>
       <c r="G882" t="n">
         <v>1</v>
@@ -23103,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="F883" t="n">
-        <v>9.289979934692383</v>
+        <v>9.839057922363281</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -23132,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="F884" t="n">
-        <v>2.819061279296875</v>
+        <v>2.655982971191406</v>
       </c>
       <c r="G884" t="n">
         <v>0.6923076923076923</v>
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="F885" t="n">
-        <v>2.824127674102783</v>
+        <v>2.662873268127441</v>
       </c>
       <c r="G885" t="n">
         <v>0.8995908346972177</v>
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
       <c r="F886" t="n">
-        <v>2.834856510162354</v>
+        <v>2.66796350479126</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -23207,7 +23207,7 @@
         <v>0</v>
       </c>
       <c r="F887" t="n">
-        <v>2.847075462341309</v>
+        <v>2.677440643310547</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="F888" t="n">
-        <v>2.877891063690186</v>
+        <v>2.686440944671631</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -23257,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="F889" t="n">
-        <v>3.211486339569092</v>
+        <v>2.697968482971191</v>
       </c>
       <c r="G889" t="n">
         <v>1</v>
@@ -23282,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="F890" t="n">
-        <v>3.270864486694336</v>
+        <v>2.721071243286133</v>
       </c>
       <c r="G890" t="n">
         <v>1</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="F891" t="n">
-        <v>6.338119506835938</v>
+        <v>5.856990814208984</v>
       </c>
       <c r="G891" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="F892" t="n">
-        <v>6.442439556121826</v>
+        <v>5.943715572357178</v>
       </c>
       <c r="G892" t="n">
         <v>0.8250000000000001</v>
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="F893" t="n">
-        <v>7.541835308074951</v>
+        <v>7.083475589752197</v>
       </c>
       <c r="G893" t="n">
         <v>0.9666666666666667</v>
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
       <c r="F894" t="n">
-        <v>8.437037467956543</v>
+        <v>7.823944091796875</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="F895" t="n">
-        <v>9.414613246917725</v>
+        <v>8.822917938232422</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="F896" t="n">
-        <v>9.650015830993652</v>
+        <v>9.027719497680664</v>
       </c>
       <c r="G896" t="n">
         <v>1</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="F897" t="n">
-        <v>9.799957275390625</v>
+        <v>9.089946746826172</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -23494,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="F898" t="n">
-        <v>14.49600000027567</v>
+        <v>14.5819999948144</v>
       </c>
       <c r="G898" t="n">
         <v>0.9210526315789473</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="F899" t="n">
-        <v>14.78124999515712</v>
+        <v>14.89574999976903</v>
       </c>
       <c r="G899" t="n">
         <v>0.9385106382978724</v>
@@ -23544,7 +23544,7 @@
         <v>0</v>
       </c>
       <c r="F900" t="n">
-        <v>15.00474999845028</v>
+        <v>15.18574999924749</v>
       </c>
       <c r="G900" t="n">
         <v>0.9769388954171563</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="F901" t="n">
-        <v>15.24999999254942</v>
+        <v>15.69600000046194</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="F902" t="n">
-        <v>15.91025000138325</v>
+        <v>16.23475000169128</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="F903" t="n">
-        <v>16.91439999784343</v>
+        <v>17.37740000039339</v>
       </c>
       <c r="G903" t="n">
         <v>1</v>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="F904" t="n">
-        <v>17.68099999427795</v>
+        <v>17.98200000077486</v>
       </c>
       <c r="G904" t="n">
         <v>1</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="F905" t="n">
-        <v>11.83300000429153</v>
+        <v>11.86899999901652</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="F906" t="n">
-        <v>11.98575000092387</v>
+        <v>12.05875000040978</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -23723,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="F907" t="n">
-        <v>12.17749999836087</v>
+        <v>12.29549999628216</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="F908" t="n">
-        <v>12.43349999934435</v>
+        <v>12.46299999952316</v>
       </c>
       <c r="G908" t="n">
         <v>1</v>
@@ -23773,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="F909" t="n">
-        <v>12.69400000013411</v>
+        <v>12.70350000169128</v>
       </c>
       <c r="G909" t="n">
         <v>1</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="F910" t="n">
-        <v>13.33449999801815</v>
+        <v>13.06134999860078</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
       <c r="F911" t="n">
-        <v>18.26200000196695</v>
+        <v>13.50500000268221</v>
       </c>
       <c r="G911" t="n">
         <v>1</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="F912" t="n">
-        <v>14.30600000172853</v>
+        <v>14.16200000047684</v>
       </c>
       <c r="G912" t="n">
         <v>0.8461538461538461</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="F913" t="n">
-        <v>15.00420000106096</v>
+        <v>14.74989999905229</v>
       </c>
       <c r="G913" t="n">
         <v>0.9317398119122257</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="F914" t="n">
-        <v>15.58350000157952</v>
+        <v>15.45399999991059</v>
       </c>
       <c r="G914" t="n">
         <v>1</v>
@@ -23927,7 +23927,7 @@
         <v>0</v>
       </c>
       <c r="F915" t="n">
-        <v>16.39299999922514</v>
+        <v>16.04199999570847</v>
       </c>
       <c r="G915" t="n">
         <v>1</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="F916" t="n">
-        <v>17.68549999967217</v>
+        <v>17.21999999880791</v>
       </c>
       <c r="G916" t="n">
         <v>1</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="F917" t="n">
-        <v>19.65539999827742</v>
+        <v>18.7221000008285</v>
       </c>
       <c r="G917" t="n">
         <v>1</v>
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="F918" t="n">
-        <v>24.79800000041723</v>
+        <v>19.19300000369549</v>
       </c>
       <c r="G918" t="n">
         <v>1</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="F919" t="n">
-        <v>36.66100000590086</v>
+        <v>34.516999989748</v>
       </c>
       <c r="G919" t="n">
         <v>0.9032258064516129</v>
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="F920" t="n">
-        <v>37.53910000175237</v>
+        <v>36.17749999910593</v>
       </c>
       <c r="G920" t="n">
         <v>0.9669696969696969</v>
@@ -24081,7 +24081,7 @@
         <v>0</v>
       </c>
       <c r="F921" t="n">
-        <v>38.57499999552965</v>
+        <v>37.23850000649691</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -24106,7 +24106,7 @@
         <v>0</v>
       </c>
       <c r="F922" t="n">
-        <v>39.57400000095367</v>
+        <v>38.18299999833107</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -24131,7 +24131,7 @@
         <v>0</v>
       </c>
       <c r="F923" t="n">
-        <v>41.65949999913573</v>
+        <v>39.4484999999404</v>
       </c>
       <c r="G923" t="n">
         <v>1</v>
@@ -24156,7 +24156,7 @@
         <v>0</v>
       </c>
       <c r="F924" t="n">
-        <v>46.78049999624491</v>
+        <v>43.65949999988079</v>
       </c>
       <c r="G924" t="n">
         <v>1</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="F925" t="n">
-        <v>106.1840000003576</v>
+        <v>55.09399999678135</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="F926" t="n">
-        <v>34.72800000011921</v>
+        <v>34.03200000524521</v>
       </c>
       <c r="G926" t="n">
         <v>0.8936170212765957</v>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="F927" t="n">
-        <v>36.43510000258684</v>
+        <v>35.07740000039339</v>
       </c>
       <c r="G927" t="n">
         <v>0.9608391608391609</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="F928" t="n">
-        <v>37.472999997437</v>
+        <v>36.17100001126528</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="F929" t="n">
-        <v>38.70799999684095</v>
+        <v>37.39299999177456</v>
       </c>
       <c r="G929" t="n">
         <v>1</v>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="F930" t="n">
-        <v>40.56300000101328</v>
+        <v>38.97849999368191</v>
       </c>
       <c r="G930" t="n">
         <v>1</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="F931" t="n">
-        <v>46.71750000193715</v>
+        <v>44.90339999645948</v>
       </c>
       <c r="G931" t="n">
         <v>1</v>
@@ -24360,7 +24360,7 @@
         <v>0</v>
       </c>
       <c r="F932" t="n">
-        <v>60.85399999469519</v>
+        <v>154.875</v>
       </c>
       <c r="G932" t="n">
         <v>1</v>
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="F933" t="n">
-        <v>38.05699999630451</v>
+        <v>36.11100000143051</v>
       </c>
       <c r="G933" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="F934" t="n">
-        <v>39.36319999694824</v>
+        <v>38.3206000059843</v>
       </c>
       <c r="G934" t="n">
         <v>0.6980392156862746</v>
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="F935" t="n">
-        <v>41.23699999600649</v>
+        <v>40.22300000488758</v>
       </c>
       <c r="G935" t="n">
         <v>0.8857142857142857</v>
@@ -24464,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="F936" t="n">
-        <v>42.91299999505281</v>
+        <v>41.73700000345707</v>
       </c>
       <c r="G936" t="n">
         <v>0.9473684210526315</v>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="F937" t="n">
-        <v>46.66600000858307</v>
+        <v>43.92199999094009</v>
       </c>
       <c r="G937" t="n">
         <v>1</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="F938" t="n">
-        <v>55.17880000025033</v>
+        <v>49.17979999482628</v>
       </c>
       <c r="G938" t="n">
         <v>1</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="F939" t="n">
-        <v>61.49800000339746</v>
+        <v>58.88199999928474</v>
       </c>
       <c r="G939" t="n">
         <v>1</v>
@@ -24568,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="F940" t="n">
-        <v>8.315999999642372</v>
+        <v>8.629000000655651</v>
       </c>
       <c r="G940" t="n">
         <v>0.6981132075471698</v>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="F941" t="n">
-        <v>8.423949996754526</v>
+        <v>8.648550008609892</v>
       </c>
       <c r="G941" t="n">
         <v>0.9056785195936139</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="F942" t="n">
-        <v>8.640749998390675</v>
+        <v>8.7407499961555</v>
       </c>
       <c r="G942" t="n">
         <v>1</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="F943" t="n">
-        <v>9.043499998748302</v>
+        <v>9.057500001043081</v>
       </c>
       <c r="G943" t="n">
         <v>1</v>
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="F944" t="n">
-        <v>9.37300000153482</v>
+        <v>9.328749998705462</v>
       </c>
       <c r="G944" t="n">
         <v>1</v>
@@ -24693,7 +24693,7 @@
         <v>0</v>
       </c>
       <c r="F945" t="n">
-        <v>10.54664999805391</v>
+        <v>10.32170000169426</v>
       </c>
       <c r="G945" t="n">
         <v>1</v>
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="F946" t="n">
-        <v>12.08599999547005</v>
+        <v>11.25500000268221</v>
       </c>
       <c r="G946" t="n">
         <v>1</v>
@@ -24747,7 +24747,7 @@
         <v>0</v>
       </c>
       <c r="F947" t="n">
-        <v>25.10200000181794</v>
+        <v>25.41400000080466</v>
       </c>
       <c r="G947" t="n">
         <v>0</v>
@@ -24772,7 +24772,7 @@
         <v>0</v>
       </c>
       <c r="F948" t="n">
-        <v>27.69514999743551</v>
+        <v>27.46555000152439</v>
       </c>
       <c r="G948" t="n">
         <v>0.6461538461538464</v>
@@ -24797,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="F949" t="n">
-        <v>31.55350000038743</v>
+        <v>31.64249999914318</v>
       </c>
       <c r="G949" t="n">
         <v>1</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="F950" t="n">
-        <v>36.68699999898672</v>
+        <v>35.96950000151992</v>
       </c>
       <c r="G950" t="n">
         <v>1</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F951" t="n">
-        <v>40.70899999886751</v>
+        <v>40.78225000016391</v>
       </c>
       <c r="G951" t="n">
         <v>1</v>
@@ -24872,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="F952" t="n">
-        <v>49.48269999995826</v>
+        <v>48.66564999967813</v>
       </c>
       <c r="G952" t="n">
         <v>1</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="F953" t="n">
-        <v>77.94800000265241</v>
+        <v>94.73799999803305</v>
       </c>
       <c r="G953" t="n">
         <v>1</v>
@@ -24930,7 +24930,7 @@
         <v>0</v>
       </c>
       <c r="F954" t="n">
-        <v>185.2278709411621</v>
+        <v>181.5910339355469</v>
       </c>
       <c r="G954" t="n">
         <v>0.9318181818181818</v>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="F955" t="n">
-        <v>185.3742241859436</v>
+        <v>182.1257829666138</v>
       </c>
       <c r="G955" t="n">
         <v>0.9608016304347826</v>
@@ -24980,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="F956" t="n">
-        <v>185.8202219009399</v>
+        <v>183.2194924354553</v>
       </c>
       <c r="G956" t="n">
         <v>1</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="F957" t="n">
-        <v>187.0399713516235</v>
+        <v>184.1708421707153</v>
       </c>
       <c r="G957" t="n">
         <v>1</v>
@@ -25030,7 +25030,7 @@
         <v>0</v>
       </c>
       <c r="F958" t="n">
-        <v>187.8247857093811</v>
+        <v>184.7448945045471</v>
       </c>
       <c r="G958" t="n">
         <v>1</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="F959" t="n">
-        <v>188.2183909416199</v>
+        <v>186.1442804336548</v>
       </c>
       <c r="G959" t="n">
         <v>1</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="F960" t="n">
-        <v>188.8058185577393</v>
+        <v>186.5918636322021</v>
       </c>
       <c r="G960" t="n">
         <v>1</v>
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="F961" t="n">
-        <v>129.2169094085693</v>
+        <v>126.1129379272461</v>
       </c>
       <c r="G961" t="n">
         <v>1</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="F962" t="n">
-        <v>129.4374108314514</v>
+        <v>126.5405297279358</v>
       </c>
       <c r="G962" t="n">
         <v>1</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="F963" t="n">
-        <v>129.6107172966003</v>
+        <v>126.6912817955017</v>
       </c>
       <c r="G963" t="n">
         <v>1</v>
@@ -25184,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="F964" t="n">
-        <v>129.7399997711182</v>
+        <v>126.8068552017212</v>
       </c>
       <c r="G964" t="n">
         <v>1</v>
@@ -25209,7 +25209,7 @@
         <v>0</v>
       </c>
       <c r="F965" t="n">
-        <v>129.8733353614807</v>
+        <v>126.8990635871887</v>
       </c>
       <c r="G965" t="n">
         <v>1</v>
@@ -25234,7 +25234,7 @@
         <v>0</v>
       </c>
       <c r="F966" t="n">
-        <v>130.1121473312378</v>
+        <v>127.0421028137207</v>
       </c>
       <c r="G966" t="n">
         <v>1</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="F967" t="n">
-        <v>131.1616897583008</v>
+        <v>127.1049976348877</v>
       </c>
       <c r="G967" t="n">
         <v>1</v>
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="F968" t="n">
-        <v>181.488037109375</v>
+        <v>180.4118156433105</v>
       </c>
       <c r="G968" t="n">
         <v>0.6875</v>
@@ -25313,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="F969" t="n">
-        <v>182.3379755020142</v>
+        <v>180.9326648712158</v>
       </c>
       <c r="G969" t="n">
         <v>0.7912931034482759</v>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="F970" t="n">
-        <v>182.9285621643066</v>
+        <v>181.6132068634033</v>
       </c>
       <c r="G970" t="n">
         <v>1</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="F971" t="n">
-        <v>183.7449073791504</v>
+        <v>181.8897724151611</v>
       </c>
       <c r="G971" t="n">
         <v>1</v>
@@ -25388,7 +25388,7 @@
         <v>0</v>
       </c>
       <c r="F972" t="n">
-        <v>184.8245859146118</v>
+        <v>183.0636262893677</v>
       </c>
       <c r="G972" t="n">
         <v>1</v>
@@ -25413,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="F973" t="n">
-        <v>186.5803956985474</v>
+        <v>184.2533349990845</v>
       </c>
       <c r="G973" t="n">
         <v>1</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="F974" t="n">
-        <v>187.7098083496094</v>
+        <v>185.2791309356689</v>
       </c>
       <c r="G974" t="n">
         <v>1</v>
@@ -25467,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="F975" t="n">
-        <v>253.4279823303223</v>
+        <v>251.2378692626953</v>
       </c>
       <c r="G975" t="n">
         <v>0</v>
@@ -25492,7 +25492,7 @@
         <v>0</v>
       </c>
       <c r="F976" t="n">
-        <v>255.0098180770874</v>
+        <v>252.4439096450806</v>
       </c>
       <c r="G976" t="n">
         <v>0.6757551669316375</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="F977" t="n">
-        <v>256.3141584396362</v>
+        <v>253.4030675888062</v>
       </c>
       <c r="G977" t="n">
         <v>0.7947771397320208</v>
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="F978" t="n">
-        <v>257.770299911499</v>
+        <v>254.1608810424805</v>
       </c>
       <c r="G978" t="n">
         <v>0.8947368421052632</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="F979" t="n">
-        <v>260.2030038833618</v>
+        <v>254.9353837966919</v>
       </c>
       <c r="G979" t="n">
         <v>0.9761904761904762</v>
@@ -25592,7 +25592,7 @@
         <v>0</v>
       </c>
       <c r="F980" t="n">
-        <v>262.1892929077148</v>
+        <v>257.1362495422363</v>
       </c>
       <c r="G980" t="n">
         <v>1</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="F981" t="n">
-        <v>903433.8130950928</v>
+        <v>293454.4961452484</v>
       </c>
       <c r="G981" t="n">
         <v>1</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="F982" t="n">
-        <v>253.7050247192383</v>
+        <v>250.2288818359375</v>
       </c>
       <c r="G982" t="n">
         <v>0.631578947368421</v>
@@ -25671,7 +25671,7 @@
         <v>0</v>
       </c>
       <c r="F983" t="n">
-        <v>255.2375078201294</v>
+        <v>252.7480363845825</v>
       </c>
       <c r="G983" t="n">
         <v>0.7304195804195804</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="F984" t="n">
-        <v>256.7377090454102</v>
+        <v>254.0246248245239</v>
       </c>
       <c r="G984" t="n">
         <v>0.9039938556067588</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="F985" t="n">
-        <v>258.2049369812012</v>
+        <v>254.734992980957</v>
       </c>
       <c r="G985" t="n">
         <v>0.9705882352941176</v>
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="F986" t="n">
-        <v>260.4138851165771</v>
+        <v>255.4464340209961</v>
       </c>
       <c r="G986" t="n">
         <v>1</v>
@@ -25771,7 +25771,7 @@
         <v>0</v>
       </c>
       <c r="F987" t="n">
-        <v>261.3163948059082</v>
+        <v>257.3601245880127</v>
       </c>
       <c r="G987" t="n">
         <v>1</v>
@@ -25796,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="F988" t="n">
-        <v>955452.7499675751</v>
+        <v>282.9298973083496</v>
       </c>
       <c r="G988" t="n">
         <v>1</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="F989" t="n">
-        <v>253.6048889160156</v>
+        <v>250.586986541748</v>
       </c>
       <c r="G989" t="n">
         <v>0</v>
@@ -25850,7 +25850,7 @@
         <v>0</v>
       </c>
       <c r="F990" t="n">
-        <v>254.6678066253662</v>
+        <v>252.0591259002686</v>
       </c>
       <c r="G990" t="n">
         <v>0.1897435897435899</v>
@@ -25875,7 +25875,7 @@
         <v>0</v>
       </c>
       <c r="F991" t="n">
-        <v>256.3760280609131</v>
+        <v>253.319263458252</v>
       </c>
       <c r="G991" t="n">
         <v>0.6578947368421053</v>
@@ -25900,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="F992" t="n">
-        <v>259.1919898986816</v>
+        <v>254.5332908630371</v>
       </c>
       <c r="G992" t="n">
         <v>0.7647058823529411</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="F993" t="n">
-        <v>260.7231140136719</v>
+        <v>256.2260627746582</v>
       </c>
       <c r="G993" t="n">
         <v>0.9</v>
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
       <c r="F994" t="n">
-        <v>267.9950714111328</v>
+        <v>267.0504093170166</v>
       </c>
       <c r="G994" t="n">
         <v>1</v>
@@ -25975,7 +25975,7 @@
         <v>0</v>
       </c>
       <c r="F995" t="n">
-        <v>270.4341411590576</v>
+        <v>293460.0381851196</v>
       </c>
       <c r="G995" t="n">
         <v>1</v>
@@ -26004,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="F996" t="n">
-        <v>64.55612182617188</v>
+        <v>63.06099891662598</v>
       </c>
       <c r="G996" t="n">
         <v>0.75</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="F997" t="n">
-        <v>64.61468935012817</v>
+        <v>63.06180953979492</v>
       </c>
       <c r="G997" t="n">
         <v>0.9247222222222222</v>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="F998" t="n">
-        <v>64.66013193130493</v>
+        <v>63.10492753982544</v>
       </c>
       <c r="G998" t="n">
         <v>1</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="F999" t="n">
-        <v>64.69964981079102</v>
+        <v>63.13741207122803</v>
       </c>
       <c r="G999" t="n">
         <v>1</v>
@@ -26104,7 +26104,7 @@
         <v>0</v>
       </c>
       <c r="F1000" t="n">
-        <v>64.8922324180603</v>
+        <v>63.16131353378296</v>
       </c>
       <c r="G1000" t="n">
         <v>1</v>
@@ -26129,7 +26129,7 @@
         <v>0</v>
       </c>
       <c r="F1001" t="n">
-        <v>71.85277938842773</v>
+        <v>63.24589252471924</v>
       </c>
       <c r="G1001" t="n">
         <v>1</v>
@@ -26154,7 +26154,7 @@
         <v>0</v>
       </c>
       <c r="F1002" t="n">
-        <v>72.30997085571289</v>
+        <v>63.47894668579102</v>
       </c>
       <c r="G1002" t="n">
         <v>1</v>
@@ -26183,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="F1003" t="n">
-        <v>179.5010566711426</v>
+        <v>172.2280979156494</v>
       </c>
       <c r="G1003" t="n">
         <v>0</v>
@@ -26208,7 +26208,7 @@
         <v>0</v>
       </c>
       <c r="F1004" t="n">
-        <v>181.0927629470825</v>
+        <v>175.96116065979</v>
       </c>
       <c r="G1004" t="n">
         <v>0.04090909090909101</v>
@@ -26233,7 +26233,7 @@
         <v>0</v>
       </c>
       <c r="F1005" t="n">
-        <v>212.1788859367371</v>
+        <v>208.4012031555176</v>
       </c>
       <c r="G1005" t="n">
         <v>0.8112331081081081</v>
@@ -26258,7 +26258,7 @@
         <v>0</v>
       </c>
       <c r="F1006" t="n">
-        <v>234.5318794250488</v>
+        <v>228.3306121826172</v>
       </c>
       <c r="G1006" t="n">
         <v>1</v>
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="F1007" t="n">
-        <v>264.3012404441833</v>
+        <v>255.9074759483337</v>
       </c>
       <c r="G1007" t="n">
         <v>1</v>
@@ -26308,7 +26308,7 @@
         <v>0</v>
       </c>
       <c r="F1008" t="n">
-        <v>267.9161429405212</v>
+        <v>261.3781690597534</v>
       </c>
       <c r="G1008" t="n">
         <v>1</v>
@@ -26333,7 +26333,7 @@
         <v>0</v>
       </c>
       <c r="F1009" t="n">
-        <v>285.9389781951904</v>
+        <v>275.3431797027588</v>
       </c>
       <c r="G1009" t="n">
         <v>1</v>
